--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="346">
   <si>
     <t>operator</t>
   </si>
@@ -368,6 +368,9 @@
     <t>crossworld_10.154.150.40_TELCOBRIDGE</t>
   </si>
   <si>
+    <t>telcobridge</t>
+  </si>
+  <si>
     <t>gaziNetworks</t>
   </si>
   <si>
@@ -423,9 +426,6 @@
   </si>
   <si>
     <t>Vault.TelcobridgeKhulna</t>
-  </si>
-  <si>
-    <t>telcobridge</t>
   </si>
   <si>
     <t>TELCOBRIDGE_BOGRA</t>
@@ -2405,10 +2405,10 @@
   <sheetPr/>
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2605,9 +2605,7 @@
       <c r="W2">
         <v>285</v>
       </c>
-      <c r="X2" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X2" s="22"/>
       <c r="Y2">
         <v>1</v>
       </c>
@@ -2700,9 +2698,7 @@
       <c r="W3">
         <v>286</v>
       </c>
-      <c r="X3" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X3" s="22"/>
       <c r="Y3">
         <v>1</v>
       </c>
@@ -2794,9 +2790,7 @@
       <c r="W4">
         <v>287</v>
       </c>
-      <c r="X4" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X4" s="22"/>
       <c r="Y4">
         <v>1</v>
       </c>
@@ -2884,9 +2878,7 @@
       <c r="W5">
         <v>288</v>
       </c>
-      <c r="X5" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X5" s="22"/>
       <c r="Y5">
         <v>1</v>
       </c>
@@ -2979,9 +2971,7 @@
       <c r="W6">
         <v>289</v>
       </c>
-      <c r="X6" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X6" s="22"/>
       <c r="Y6">
         <v>1</v>
       </c>
@@ -3074,9 +3064,7 @@
       <c r="W7">
         <v>290</v>
       </c>
-      <c r="X7" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X7" s="22"/>
       <c r="Y7">
         <v>1</v>
       </c>
@@ -3087,7 +3075,7 @@
         <v>30</v>
       </c>
       <c r="AB7">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="AC7">
         <v>500</v>
@@ -3168,9 +3156,7 @@
       <c r="W8">
         <v>291</v>
       </c>
-      <c r="X8" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X8" s="22"/>
       <c r="Y8">
         <v>1</v>
       </c>
@@ -3263,9 +3249,7 @@
       <c r="W9">
         <v>292</v>
       </c>
-      <c r="X9" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X9" s="22"/>
       <c r="Y9">
         <v>1</v>
       </c>
@@ -3353,9 +3337,7 @@
       <c r="W10">
         <v>293</v>
       </c>
-      <c r="X10" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X10" s="22"/>
       <c r="Y10">
         <v>1</v>
       </c>
@@ -3444,9 +3426,7 @@
       <c r="W11">
         <v>294</v>
       </c>
-      <c r="X11" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X11" s="22"/>
       <c r="Y11">
         <v>1</v>
       </c>
@@ -3537,9 +3517,7 @@
       <c r="W12">
         <v>295</v>
       </c>
-      <c r="X12" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X12" s="22"/>
       <c r="Y12">
         <v>1</v>
       </c>
@@ -3631,9 +3609,7 @@
       <c r="W13">
         <v>296</v>
       </c>
-      <c r="X13" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X13" s="22"/>
       <c r="Y13">
         <v>1</v>
       </c>
@@ -3726,9 +3702,7 @@
       <c r="W14">
         <v>297</v>
       </c>
-      <c r="X14" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X14" s="22"/>
       <c r="Y14">
         <v>1</v>
       </c>
@@ -3821,8 +3795,8 @@
       <c r="W15">
         <v>298</v>
       </c>
-      <c r="X15" s="22" t="s">
-        <v>35</v>
+      <c r="X15" s="52" t="s">
+        <v>116</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -3845,7 +3819,7 @@
     </row>
     <row r="16" ht="15" spans="1:30">
       <c r="A16" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" s="23">
         <v>6</v>
@@ -3857,19 +3831,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J16" s="23">
         <v>6</v>
@@ -3901,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T16" s="23">
         <v>0</v>
@@ -3910,14 +3884,12 @@
         <v>0</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W16">
         <v>299</v>
       </c>
-      <c r="X16" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X16" s="22"/>
       <c r="Y16">
         <v>1</v>
       </c>
@@ -3939,7 +3911,7 @@
     </row>
     <row r="17" ht="15" spans="1:30">
       <c r="A17" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B17" s="23">
         <v>6</v>
@@ -3951,19 +3923,19 @@
         <v>37</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J17" s="23">
         <v>6</v>
@@ -3972,7 +3944,7 @@
         <v>70</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="22" t="s">
@@ -4000,14 +3972,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W17">
         <v>300</v>
       </c>
-      <c r="X17" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X17" s="22"/>
       <c r="Y17">
         <v>1</v>
       </c>
@@ -4029,7 +3999,7 @@
     </row>
     <row r="18" s="17" customFormat="1" ht="15" spans="1:30">
       <c r="A18" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" s="25">
         <v>6</v>
@@ -4041,19 +4011,19 @@
         <v>37</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J18" s="25">
         <v>6</v>
@@ -4062,10 +4032,10 @@
         <v>57</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>35</v>
@@ -4083,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T18" s="25">
         <v>1</v>
@@ -4092,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W18" s="17">
         <v>301</v>
       </c>
       <c r="X18" s="52" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -4121,7 +4091,7 @@
     </row>
     <row r="19" s="17" customFormat="1" ht="15" spans="1:30">
       <c r="A19" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" s="25">
         <v>6</v>
@@ -4133,16 +4103,16 @@
         <v>37</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>136</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>137</v>
@@ -4154,10 +4124,10 @@
         <v>57</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>35</v>
@@ -4184,13 +4154,13 @@
         <v>0</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W19" s="17">
         <v>301</v>
       </c>
       <c r="X19" s="52" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -4284,9 +4254,7 @@
       <c r="W20">
         <v>302</v>
       </c>
-      <c r="X20" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X20" s="22"/>
       <c r="Y20">
         <v>1</v>
       </c>
@@ -4379,9 +4347,7 @@
       <c r="W21">
         <v>303</v>
       </c>
-      <c r="X21" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X21" s="22"/>
       <c r="Y21">
         <v>1</v>
       </c>
@@ -4474,9 +4440,7 @@
       <c r="W22">
         <v>304</v>
       </c>
-      <c r="X22" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X22" s="22"/>
       <c r="Y22">
         <v>1</v>
       </c>
@@ -4568,9 +4532,7 @@
       <c r="W23">
         <v>305</v>
       </c>
-      <c r="X23" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X23" s="22"/>
       <c r="Y23">
         <v>1</v>
       </c>
@@ -4662,9 +4624,7 @@
       <c r="W24">
         <v>306</v>
       </c>
-      <c r="X24" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X24" s="22"/>
       <c r="Y24">
         <v>1</v>
       </c>
@@ -4757,9 +4717,7 @@
       <c r="W25">
         <v>307</v>
       </c>
-      <c r="X25" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X25" s="22"/>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -4852,9 +4810,7 @@
       <c r="W26">
         <v>308</v>
       </c>
-      <c r="X26" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X26" s="22"/>
       <c r="Y26">
         <v>1</v>
       </c>
@@ -4947,9 +4903,7 @@
       <c r="W27">
         <v>309</v>
       </c>
-      <c r="X27" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X27" s="22"/>
       <c r="Y27">
         <v>1</v>
       </c>
@@ -5027,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T28" s="35">
         <v>0</v>
@@ -5041,9 +4995,7 @@
       <c r="W28">
         <v>310</v>
       </c>
-      <c r="X28" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X28" s="22"/>
       <c r="Y28">
         <v>1</v>
       </c>
@@ -5134,9 +5086,7 @@
       <c r="W29">
         <v>311</v>
       </c>
-      <c r="X29" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X29" s="22"/>
       <c r="Y29">
         <v>1</v>
       </c>
@@ -5229,9 +5179,7 @@
       <c r="W30">
         <v>312</v>
       </c>
-      <c r="X30" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X30" s="22"/>
       <c r="Y30">
         <v>1</v>
       </c>
@@ -5322,9 +5270,7 @@
       <c r="W31">
         <v>313</v>
       </c>
-      <c r="X31" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X31" s="22"/>
       <c r="Y31">
         <v>1</v>
       </c>
@@ -5416,9 +5362,7 @@
       <c r="W32">
         <v>314</v>
       </c>
-      <c r="X32" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X32" s="22"/>
       <c r="Y32">
         <v>1</v>
       </c>
@@ -5509,9 +5453,7 @@
       <c r="W33">
         <v>315</v>
       </c>
-      <c r="X33" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X33" s="22"/>
       <c r="Y33">
         <v>1</v>
       </c>
@@ -5604,9 +5546,7 @@
       <c r="W34">
         <v>316</v>
       </c>
-      <c r="X34" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X34" s="22"/>
       <c r="Y34">
         <v>1</v>
       </c>
@@ -5698,9 +5638,7 @@
       <c r="W35">
         <v>317</v>
       </c>
-      <c r="X35" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X35" s="22"/>
       <c r="Y35">
         <v>1</v>
       </c>
@@ -5792,9 +5730,7 @@
       <c r="W36">
         <v>318</v>
       </c>
-      <c r="X36" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X36" s="22"/>
       <c r="Y36">
         <v>1</v>
       </c>
@@ -5886,9 +5822,7 @@
       <c r="W37">
         <v>319</v>
       </c>
-      <c r="X37" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X37" s="22"/>
       <c r="Y37">
         <v>1</v>
       </c>
@@ -5978,9 +5912,7 @@
       <c r="W38">
         <v>320</v>
       </c>
-      <c r="X38" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X38" s="22"/>
       <c r="Y38">
         <v>1</v>
       </c>
@@ -6072,9 +6004,7 @@
       <c r="W39">
         <v>321</v>
       </c>
-      <c r="X39" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X39" s="22"/>
       <c r="Y39">
         <v>1</v>
       </c>
@@ -6167,9 +6097,7 @@
       <c r="W40">
         <v>322</v>
       </c>
-      <c r="X40" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X40" s="22"/>
       <c r="Y40">
         <v>1</v>
       </c>
@@ -6261,9 +6189,7 @@
       <c r="W41">
         <v>323</v>
       </c>
-      <c r="X41" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X41" s="22"/>
       <c r="Y41">
         <v>1</v>
       </c>
@@ -6341,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T42" s="23">
         <v>0</v>
@@ -6355,9 +6281,7 @@
       <c r="W42">
         <v>324</v>
       </c>
-      <c r="X42" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X42" s="22"/>
       <c r="Y42">
         <v>1</v>
       </c>
@@ -6450,9 +6374,7 @@
       <c r="W43">
         <v>325</v>
       </c>
-      <c r="X43" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X43" s="22"/>
       <c r="Y43">
         <v>1</v>
       </c>
@@ -6545,9 +6467,7 @@
       <c r="W44">
         <v>326</v>
       </c>
-      <c r="X44" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X44" s="22"/>
       <c r="Y44">
         <v>1</v>
       </c>
@@ -6639,9 +6559,7 @@
       <c r="W45">
         <v>327</v>
       </c>
-      <c r="X45" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X45" s="22"/>
       <c r="Y45">
         <v>1</v>
       </c>
@@ -6734,9 +6652,7 @@
       <c r="W46">
         <v>328</v>
       </c>
-      <c r="X46" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X46" s="22"/>
       <c r="Y46">
         <v>1</v>
       </c>
@@ -6829,9 +6745,7 @@
       <c r="W47">
         <v>329</v>
       </c>
-      <c r="X47" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X47" s="22"/>
       <c r="Y47">
         <v>1</v>
       </c>
@@ -6923,9 +6837,7 @@
       <c r="W48">
         <v>330</v>
       </c>
-      <c r="X48" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X48" s="22"/>
       <c r="Y48">
         <v>1</v>
       </c>
@@ -7018,9 +6930,7 @@
       <c r="W49">
         <v>331</v>
       </c>
-      <c r="X49" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X49" s="22"/>
       <c r="Y49">
         <v>1</v>
       </c>
@@ -7113,7 +7023,7 @@
         <v>332</v>
       </c>
       <c r="X50" s="52" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -7202,9 +7112,7 @@
       <c r="W51">
         <v>333</v>
       </c>
-      <c r="X51" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X51" s="22"/>
       <c r="Y51">
         <v>1</v>
       </c>
@@ -7296,9 +7204,7 @@
       <c r="W52">
         <v>334</v>
       </c>
-      <c r="X52" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X52" s="22"/>
       <c r="Y52">
         <v>1</v>
       </c>
@@ -7390,9 +7296,7 @@
       <c r="W53">
         <v>335</v>
       </c>
-      <c r="X53" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X53" s="22"/>
       <c r="Y53">
         <v>1</v>
       </c>
@@ -7484,9 +7388,7 @@
       <c r="W54">
         <v>336</v>
       </c>
-      <c r="X54" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="X54" s="22"/>
       <c r="Y54">
         <v>1</v>
       </c>
@@ -7735,7 +7637,7 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>112</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="347">
   <si>
     <t>operator</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>c:\telcobright\vault\resources\cdr\agni\ip</t>
+  </si>
+  <si>
+    <t>cdr_success</t>
   </si>
   <si>
     <t>null</t>
@@ -2405,10 +2408,10 @@
   <sheetPr/>
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2567,16 +2570,15 @@
       <c r="K2" s="37">
         <v>29</v>
       </c>
-      <c r="L2" s="38" t="str">
-        <f t="array" ref="L2">INDEX(Sheet2!$B$2:$C$21,MATCH(G2,Sheet2!$C$2:C21,0),1)</f>
-        <v>cdr</v>
+      <c r="L2" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="M2" s="39" t="str">
         <f t="array" ref="M2">INDEX(Sheet2!$E$2:$F$21,MATCH(G2,Sheet2!$F$2:F21,0),1)</f>
         <v>.csv</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="23">
         <v>0</v>
@@ -2591,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" s="23">
         <v>0</v>
@@ -2636,22 +2638,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="23">
         <v>1</v>
@@ -2669,13 +2671,13 @@
         <v>.gz</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="23">
         <v>1</v>
@@ -2684,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T3" s="23">
         <v>0</v>
@@ -2720,7 +2722,7 @@
     </row>
     <row r="4" ht="15" spans="1:30">
       <c r="A4" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="23">
         <v>3</v>
@@ -2732,19 +2734,19 @@
         <v>4</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="23">
         <v>3</v>
@@ -2761,7 +2763,7 @@
         <v>.txt</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="23">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" s="23">
         <v>0</v>
@@ -2785,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4">
         <v>287</v>
@@ -2812,7 +2814,7 @@
     </row>
     <row r="5" ht="15" spans="1:30">
       <c r="A5" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="23">
         <v>3</v>
@@ -2821,22 +2823,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" s="23">
         <v>3</v>
@@ -2845,11 +2847,11 @@
         <v>49</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" s="39"/>
       <c r="N5" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="23">
         <v>1</v>
@@ -2864,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" s="23">
         <v>0</v>
@@ -2873,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5">
         <v>288</v>
@@ -2900,7 +2902,7 @@
     </row>
     <row r="6" ht="15" spans="1:30">
       <c r="A6" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="23">
         <v>2</v>
@@ -2912,19 +2914,19 @@
         <v>4</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" s="23">
         <v>2</v>
@@ -2942,7 +2944,7 @@
         <v>.gz</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6" s="23">
         <v>1</v>
@@ -2957,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T6" s="23">
         <v>0</v>
@@ -2966,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6">
         <v>289</v>
@@ -2993,7 +2995,7 @@
     </row>
     <row r="7" ht="15" spans="1:30">
       <c r="A7" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="23">
         <v>2</v>
@@ -3002,22 +3004,22 @@
         <v>9</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J7" s="23">
         <v>2</v>
@@ -3035,7 +3037,7 @@
         <v>.dat</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" s="23">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" s="23">
         <v>0</v>
@@ -3059,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W7">
         <v>290</v>
@@ -3086,7 +3088,7 @@
     </row>
     <row r="8" s="15" customFormat="1" ht="15" spans="1:30">
       <c r="A8" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="25">
         <v>4</v>
@@ -3098,19 +3100,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" s="25">
         <v>4</v>
@@ -3127,7 +3129,7 @@
         <v>.txt</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8" s="25">
         <v>0</v>
@@ -3142,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" s="25">
         <v>0</v>
@@ -3151,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8">
         <v>291</v>
@@ -3178,7 +3180,7 @@
     </row>
     <row r="9" ht="15" spans="1:30">
       <c r="A9" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="23">
         <v>4</v>
@@ -3187,22 +3189,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="23">
         <v>4</v>
@@ -3220,7 +3222,7 @@
         <v>.dat</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" s="23">
         <v>1</v>
@@ -3235,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9" s="23">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9">
         <v>292</v>
@@ -3271,7 +3273,7 @@
     </row>
     <row r="10" ht="15" spans="1:30">
       <c r="A10" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="27">
         <v>12</v>
@@ -3283,17 +3285,17 @@
         <v>4</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O10" s="23">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T10" s="27">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W10">
         <v>293</v>
@@ -3359,7 +3361,7 @@
     </row>
     <row r="11" ht="15" spans="1:30">
       <c r="A11" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" s="27">
         <v>12</v>
@@ -3368,20 +3370,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -3390,14 +3392,14 @@
         <v>68</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11" s="39" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" s="23">
         <v>1</v>
@@ -3412,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T11" s="27">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W11">
         <v>294</v>
@@ -3448,7 +3450,7 @@
     </row>
     <row r="12" ht="15" spans="1:30">
       <c r="A12" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="23">
         <v>12</v>
@@ -3457,22 +3459,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J12" s="23">
         <v>12</v>
@@ -3481,14 +3483,14 @@
         <v>68</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12" s="39" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="23">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T12" s="23">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W12">
         <v>295</v>
@@ -3539,7 +3541,7 @@
     </row>
     <row r="13" s="16" customFormat="1" ht="15" spans="1:30">
       <c r="A13" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="31">
         <v>18</v>
@@ -3551,19 +3553,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J13" s="31">
         <v>18</v>
@@ -3580,7 +3582,7 @@
         <v>.txt</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="31">
         <v>0</v>
@@ -3595,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T13" s="31">
         <v>0</v>
@@ -3604,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W13">
         <v>296</v>
@@ -3631,7 +3633,7 @@
     </row>
     <row r="14" ht="15" spans="1:30">
       <c r="A14" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="23">
         <v>18</v>
@@ -3640,22 +3642,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" s="23">
         <v>18</v>
@@ -3673,7 +3675,7 @@
         <v>.gz</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O14" s="23">
         <v>1</v>
@@ -3688,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T14" s="23">
         <v>0</v>
@@ -3697,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W14">
         <v>297</v>
@@ -3724,7 +3726,7 @@
     </row>
     <row r="15" ht="15" spans="1:30">
       <c r="A15" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="23">
         <v>18</v>
@@ -3733,22 +3735,22 @@
         <v>2</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J15" s="23">
         <v>18</v>
@@ -3766,7 +3768,7 @@
         <v>.log</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O15" s="23">
         <v>1</v>
@@ -3781,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T15" s="23">
         <v>0</v>
@@ -3790,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W15">
         <v>298</v>
       </c>
       <c r="X15" s="52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -3819,7 +3821,7 @@
     </row>
     <row r="16" ht="15" spans="1:30">
       <c r="A16" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="23">
         <v>6</v>
@@ -3831,19 +3833,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J16" s="23">
         <v>6</v>
@@ -3860,7 +3862,7 @@
         <v>.txt</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O16" s="23">
         <v>1</v>
@@ -3875,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T16" s="23">
         <v>0</v>
@@ -3884,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W16">
         <v>299</v>
@@ -3911,7 +3913,7 @@
     </row>
     <row r="17" ht="15" spans="1:30">
       <c r="A17" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="23">
         <v>6</v>
@@ -3920,22 +3922,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J17" s="23">
         <v>6</v>
@@ -3944,11 +3946,11 @@
         <v>70</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" s="39"/>
       <c r="N17" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O17" s="23">
         <v>1</v>
@@ -3963,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" s="23">
         <v>0</v>
@@ -3972,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W17">
         <v>300</v>
@@ -3999,7 +4001,7 @@
     </row>
     <row r="18" s="17" customFormat="1" ht="15" spans="1:30">
       <c r="A18" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" s="25">
         <v>6</v>
@@ -4008,22 +4010,22 @@
         <v>4</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J18" s="25">
         <v>6</v>
@@ -4032,13 +4034,13 @@
         <v>57</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O18" s="25">
         <v>1</v>
@@ -4053,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T18" s="25">
         <v>1</v>
@@ -4062,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W18" s="17">
         <v>301</v>
       </c>
       <c r="X18" s="52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -4091,7 +4093,7 @@
     </row>
     <row r="19" s="17" customFormat="1" ht="15" spans="1:30">
       <c r="A19" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" s="25">
         <v>6</v>
@@ -4100,22 +4102,22 @@
         <v>2</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J19" s="25">
         <v>6</v>
@@ -4124,13 +4126,13 @@
         <v>57</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O19" s="25">
         <v>0</v>
@@ -4145,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T19" s="25">
         <v>1</v>
@@ -4154,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="W19" s="17">
         <v>301</v>
       </c>
       <c r="X19" s="52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -4183,7 +4185,7 @@
     </row>
     <row r="20" ht="15" spans="1:30">
       <c r="A20" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="23">
         <v>7</v>
@@ -4195,19 +4197,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J20" s="23">
         <v>7</v>
@@ -4225,7 +4227,7 @@
         <v>.csv</v>
       </c>
       <c r="N20" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O20" s="23">
         <v>1</v>
@@ -4240,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T20" s="23">
         <v>0</v>
@@ -4249,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W20">
         <v>302</v>
@@ -4276,7 +4278,7 @@
     </row>
     <row r="21" ht="15" spans="1:30">
       <c r="A21" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" s="23">
         <v>7</v>
@@ -4285,22 +4287,22 @@
         <v>1</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J21" s="23">
         <v>7</v>
@@ -4318,7 +4320,7 @@
         <v>.dat</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O21" s="23">
         <v>1</v>
@@ -4333,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T21" s="23">
         <v>0</v>
@@ -4342,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W21">
         <v>303</v>
@@ -4369,7 +4371,7 @@
     </row>
     <row r="22" ht="15" spans="1:30">
       <c r="A22" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="23">
         <v>8</v>
@@ -4381,19 +4383,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J22" s="23">
         <v>8</v>
@@ -4411,7 +4413,7 @@
         <v>.txt</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O22" s="23">
         <v>0</v>
@@ -4426,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T22" s="23">
         <v>0</v>
@@ -4435,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W22">
         <v>304</v>
@@ -4462,7 +4464,7 @@
     </row>
     <row r="23" ht="15" spans="1:30">
       <c r="A23" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23" s="23">
         <v>8</v>
@@ -4471,22 +4473,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J23" s="23">
         <v>8</v>
@@ -4496,14 +4498,14 @@
         <v>17</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="39" t="str">
         <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O23" s="23">
         <v>0</v>
@@ -4518,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T23" s="23">
         <v>0</v>
@@ -4527,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W23">
         <v>305</v>
@@ -4554,7 +4556,7 @@
     </row>
     <row r="24" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A24" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" s="23">
         <v>9</v>
@@ -4566,19 +4568,19 @@
         <v>4</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J24" s="23">
         <v>9</v>
@@ -4595,7 +4597,7 @@
         <v>.txt</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O24" s="23">
         <v>0</v>
@@ -4610,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T24" s="23">
         <v>0</v>
@@ -4619,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W24">
         <v>306</v>
@@ -4646,7 +4648,7 @@
     </row>
     <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A25" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B25" s="23">
         <v>9</v>
@@ -4655,22 +4657,22 @@
         <v>7</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J25" s="23">
         <v>9</v>
@@ -4688,7 +4690,7 @@
         <v>.DAT</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O25" s="23">
         <v>1</v>
@@ -4703,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T25" s="23">
         <v>0</v>
@@ -4712,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W25">
         <v>307</v>
@@ -4739,7 +4741,7 @@
     </row>
     <row r="26" ht="15" spans="1:30">
       <c r="A26" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" s="23">
         <v>10</v>
@@ -4751,19 +4753,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J26" s="23">
         <v>10</v>
@@ -4781,7 +4783,7 @@
         <v>.txt</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O26" s="23">
         <v>1</v>
@@ -4796,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="T26" s="23">
         <v>0</v>
@@ -4805,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W26">
         <v>308</v>
@@ -4832,7 +4834,7 @@
     </row>
     <row r="27" ht="15" spans="1:30">
       <c r="A27" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" s="23">
         <v>10</v>
@@ -4841,22 +4843,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J27" s="23">
         <v>10</v>
@@ -4874,7 +4876,7 @@
         <v>.DAT</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O27" s="23">
         <v>1</v>
@@ -4889,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T27" s="23">
         <v>0</v>
@@ -4898,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W27">
         <v>309</v>
@@ -4925,7 +4927,7 @@
     </row>
     <row r="28" s="19" customFormat="1" ht="15" spans="1:30">
       <c r="A28" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B28" s="35">
         <v>11</v>
@@ -4937,19 +4939,19 @@
         <v>4</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J28" s="35">
         <v>11</v>
@@ -4966,7 +4968,7 @@
         <v>.txt</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O28" s="35">
         <v>0</v>
@@ -4981,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T28" s="35">
         <v>0</v>
@@ -4990,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W28">
         <v>310</v>
@@ -5017,7 +5019,7 @@
     </row>
     <row r="29" ht="15" spans="1:30">
       <c r="A29" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B29" s="23">
         <v>11</v>
@@ -5026,22 +5028,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J29" s="23">
         <v>11</v>
@@ -5050,14 +5052,14 @@
         <v>68</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" s="39" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O29" s="23">
         <v>0</v>
@@ -5072,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T29" s="23">
         <v>0</v>
@@ -5081,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W29">
         <v>311</v>
@@ -5108,7 +5110,7 @@
     </row>
     <row r="30" ht="15" spans="1:30">
       <c r="A30" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B30" s="23">
         <v>24</v>
@@ -5120,19 +5122,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J30" s="23">
         <v>24</v>
@@ -5150,7 +5152,7 @@
         <v>.gz</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O30" s="23">
         <v>1</v>
@@ -5165,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T30" s="23">
         <v>0</v>
@@ -5174,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W30">
         <v>312</v>
@@ -5201,7 +5203,7 @@
     </row>
     <row r="31" ht="15" spans="1:30">
       <c r="A31" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B31" s="23">
         <v>24</v>
@@ -5210,22 +5212,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J31" s="23">
         <v>24</v>
@@ -5234,14 +5236,14 @@
         <v>74</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M31" s="39" t="str">
         <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O31" s="23">
         <v>0</v>
@@ -5256,7 +5258,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T31" s="23">
         <v>0</v>
@@ -5265,14 +5267,14 @@
         <v>0</v>
       </c>
       <c r="V31" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W31">
         <v>313</v>
       </c>
       <c r="X31" s="22"/>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -5292,7 +5294,7 @@
     </row>
     <row r="32" s="19" customFormat="1" ht="15" spans="1:30">
       <c r="A32" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B32" s="35">
         <v>23</v>
@@ -5304,19 +5306,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J32" s="35">
         <v>23</v>
@@ -5333,7 +5335,7 @@
         <v>.csv</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O32" s="35">
         <v>0</v>
@@ -5348,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T32" s="35">
         <v>0</v>
@@ -5357,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W32">
         <v>314</v>
@@ -5384,7 +5386,7 @@
     </row>
     <row r="33" ht="15" spans="1:30">
       <c r="A33" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" s="23">
         <v>23</v>
@@ -5393,22 +5395,22 @@
         <v>1</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J33" s="23">
         <v>23</v>
@@ -5417,14 +5419,14 @@
         <v>75</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M33" s="39" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O33" s="23">
         <v>0</v>
@@ -5439,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T33" s="23">
         <v>0</v>
@@ -5448,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W33">
         <v>315</v>
@@ -5475,7 +5477,7 @@
     </row>
     <row r="34" ht="15" spans="1:30">
       <c r="A34" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B34" s="23">
         <v>15</v>
@@ -5487,19 +5489,19 @@
         <v>4</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J34" s="23">
         <v>15</v>
@@ -5517,7 +5519,7 @@
         <v>.txt</v>
       </c>
       <c r="N34" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O34" s="23">
         <v>1</v>
@@ -5532,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T34" s="23">
         <v>0</v>
@@ -5541,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W34">
         <v>316</v>
@@ -5568,7 +5570,7 @@
     </row>
     <row r="35" ht="15" spans="1:30">
       <c r="A35" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B35" s="23">
         <v>15</v>
@@ -5577,22 +5579,22 @@
         <v>1</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J35" s="23">
         <v>15</v>
@@ -5602,14 +5604,14 @@
         <v>3</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" s="39" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N35" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O35" s="23">
         <v>0</v>
@@ -5624,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T35" s="23">
         <v>0</v>
@@ -5633,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="W35">
         <v>317</v>
@@ -5660,7 +5662,7 @@
     </row>
     <row r="36" ht="15" spans="1:30">
       <c r="A36" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="23">
         <v>16</v>
@@ -5672,19 +5674,19 @@
         <v>4</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J36" s="23">
         <v>16</v>
@@ -5701,7 +5703,7 @@
         <v>.txt</v>
       </c>
       <c r="N36" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O36" s="23">
         <v>0</v>
@@ -5716,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T36" s="23">
         <v>0</v>
@@ -5725,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W36">
         <v>318</v>
@@ -5752,7 +5754,7 @@
     </row>
     <row r="37" ht="15" spans="1:30">
       <c r="A37" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B37" s="23">
         <v>16</v>
@@ -5761,22 +5763,22 @@
         <v>2</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J37" s="23">
         <v>16</v>
@@ -5786,14 +5788,14 @@
         <v>3</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M37" s="39" t="str">
         <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N37" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O37" s="23">
         <v>0</v>
@@ -5808,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T37" s="23">
         <v>0</v>
@@ -5817,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="W37">
         <v>319</v>
@@ -5844,7 +5846,7 @@
     </row>
     <row r="38" ht="15" spans="1:30">
       <c r="A38" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B38" s="23">
         <v>17</v>
@@ -5856,19 +5858,19 @@
         <v>4</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J38" s="23">
         <v>17</v>
@@ -5880,10 +5882,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N38" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O38" s="23">
         <v>0</v>
@@ -5898,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T38" s="23">
         <v>0</v>
@@ -5907,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W38">
         <v>320</v>
@@ -5934,7 +5936,7 @@
     </row>
     <row r="39" ht="15" spans="1:30">
       <c r="A39" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B39" s="23">
         <v>17</v>
@@ -5943,22 +5945,22 @@
         <v>1</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J39" s="23">
         <v>17</v>
@@ -5968,14 +5970,14 @@
         <v>17</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M39" s="39" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
         <v>.DAT</v>
       </c>
       <c r="N39" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O39" s="23">
         <v>1</v>
@@ -5990,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T39" s="23">
         <v>0</v>
@@ -5999,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W39">
         <v>321</v>
@@ -6026,7 +6028,7 @@
     </row>
     <row r="40" ht="15" spans="1:30">
       <c r="A40" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B40" s="23">
         <v>20</v>
@@ -6038,19 +6040,19 @@
         <v>4</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J40" s="23">
         <v>20</v>
@@ -6068,7 +6070,7 @@
         <v>.csv</v>
       </c>
       <c r="N40" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O40" s="23">
         <v>1</v>
@@ -6083,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T40" s="23">
         <v>0</v>
@@ -6092,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W40">
         <v>322</v>
@@ -6119,7 +6121,7 @@
     </row>
     <row r="41" ht="15" spans="1:30">
       <c r="A41" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B41" s="23">
         <v>20</v>
@@ -6128,22 +6130,22 @@
         <v>1</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J41" s="23">
         <v>20</v>
@@ -6153,14 +6155,14 @@
         <v>3</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M41" s="39" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N41" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O41" s="23">
         <v>0</v>
@@ -6175,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T41" s="23">
         <v>0</v>
@@ -6184,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W41">
         <v>323</v>
@@ -6211,7 +6213,7 @@
     </row>
     <row r="42" ht="15" spans="1:30">
       <c r="A42" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B42" s="23">
         <v>21</v>
@@ -6223,19 +6225,19 @@
         <v>4</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J42" s="23">
         <v>21</v>
@@ -6252,7 +6254,7 @@
         <v>.txt</v>
       </c>
       <c r="N42" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O42" s="23">
         <v>0</v>
@@ -6267,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T42" s="23">
         <v>0</v>
@@ -6276,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W42">
         <v>324</v>
@@ -6303,7 +6305,7 @@
     </row>
     <row r="43" ht="15" spans="1:30">
       <c r="A43" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B43" s="23">
         <v>21</v>
@@ -6312,22 +6314,22 @@
         <v>1</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J43" s="23">
         <v>21</v>
@@ -6345,7 +6347,7 @@
         <v>.dat</v>
       </c>
       <c r="N43" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O43" s="23">
         <v>0</v>
@@ -6360,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T43" s="23">
         <v>0</v>
@@ -6369,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W43">
         <v>325</v>
@@ -6396,7 +6398,7 @@
     </row>
     <row r="44" ht="15" spans="1:30">
       <c r="A44" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B44" s="23">
         <v>19</v>
@@ -6408,19 +6410,19 @@
         <v>4</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J44" s="23">
         <v>19</v>
@@ -6438,7 +6440,7 @@
         <v>.txt</v>
       </c>
       <c r="N44" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O44" s="23">
         <v>1</v>
@@ -6453,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T44" s="23">
         <v>0</v>
@@ -6462,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W44">
         <v>326</v>
@@ -6489,7 +6491,7 @@
     </row>
     <row r="45" ht="15" spans="1:30">
       <c r="A45" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B45" s="23">
         <v>19</v>
@@ -6498,22 +6500,22 @@
         <v>1</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J45" s="23">
         <v>19</v>
@@ -6523,14 +6525,14 @@
         <v>3</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M45" s="39" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
         <v>.dat</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O45" s="23">
         <v>0</v>
@@ -6545,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T45" s="23">
         <v>0</v>
@@ -6554,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W45">
         <v>327</v>
@@ -6581,7 +6583,7 @@
     </row>
     <row r="46" ht="15" spans="1:30">
       <c r="A46" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" s="23">
         <v>26</v>
@@ -6593,19 +6595,19 @@
         <v>4</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J46" s="23">
         <v>26</v>
@@ -6623,7 +6625,7 @@
         <v>.gz</v>
       </c>
       <c r="N46" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O46" s="23">
         <v>1</v>
@@ -6638,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T46" s="23">
         <v>0</v>
@@ -6647,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W46">
         <v>328</v>
@@ -6674,7 +6676,7 @@
     </row>
     <row r="47" ht="15" spans="1:30">
       <c r="A47" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="23">
         <v>26</v>
@@ -6683,22 +6685,22 @@
         <v>9</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J47" s="23">
         <v>26</v>
@@ -6716,7 +6718,7 @@
         <v>.DAT</v>
       </c>
       <c r="N47" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O47" s="23">
         <v>0</v>
@@ -6731,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T47" s="23">
         <v>0</v>
@@ -6740,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W47">
         <v>329</v>
@@ -6767,7 +6769,7 @@
     </row>
     <row r="48" s="15" customFormat="1" ht="15" spans="1:30">
       <c r="A48" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" s="25">
         <v>22</v>
@@ -6779,19 +6781,19 @@
         <v>4</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J48" s="25">
         <v>22</v>
@@ -6808,7 +6810,7 @@
         <v>.txt</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O48" s="25">
         <v>0</v>
@@ -6823,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T48" s="25">
         <v>0</v>
@@ -6832,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W48">
         <v>330</v>
@@ -6859,7 +6861,7 @@
     </row>
     <row r="49" ht="15" spans="1:30">
       <c r="A49" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" s="23">
         <v>22</v>
@@ -6868,22 +6870,22 @@
         <v>1</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J49" s="23">
         <v>22</v>
@@ -6901,7 +6903,7 @@
         <v>.dat</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O49" s="23">
         <v>1</v>
@@ -6916,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T49" s="23">
         <v>0</v>
@@ -6925,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="V49" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W49">
         <v>331</v>
@@ -6952,7 +6954,7 @@
     </row>
     <row r="50" ht="15" spans="1:30">
       <c r="A50" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B50" s="23">
         <v>22</v>
@@ -6961,22 +6963,22 @@
         <v>2</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J50" s="23">
         <v>22</v>
@@ -6993,7 +6995,7 @@
         <v>.log</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O50" s="23">
         <v>0</v>
@@ -7008,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T50" s="23">
         <v>0</v>
@@ -7017,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="V50" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W50">
         <v>332</v>
       </c>
       <c r="X50" s="52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -7046,7 +7048,7 @@
     </row>
     <row r="51" s="20" customFormat="1" ht="15" spans="1:30">
       <c r="A51" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B51" s="36">
         <v>25</v>
@@ -7058,19 +7060,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H51" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J51" s="36">
         <v>25</v>
@@ -7083,7 +7085,7 @@
       </c>
       <c r="M51" s="50"/>
       <c r="N51" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O51" s="36">
         <v>0</v>
@@ -7098,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T51" s="36">
         <v>0</v>
@@ -7107,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W51">
         <v>333</v>
@@ -7134,7 +7136,7 @@
     </row>
     <row r="52" ht="15" spans="1:30">
       <c r="A52" s="22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B52" s="23">
         <v>25</v>
@@ -7143,22 +7145,22 @@
         <v>1</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J52" s="23">
         <v>25</v>
@@ -7175,7 +7177,7 @@
         <v>.dat</v>
       </c>
       <c r="N52" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O52" s="23">
         <v>0</v>
@@ -7190,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T52" s="23">
         <v>0</v>
@@ -7199,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W52">
         <v>334</v>
@@ -7226,7 +7228,7 @@
     </row>
     <row r="53" ht="15" spans="1:30">
       <c r="A53" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B53" s="23">
         <v>27</v>
@@ -7238,19 +7240,19 @@
         <v>4</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J53" s="23">
         <v>27</v>
@@ -7267,7 +7269,7 @@
         <v>.csv</v>
       </c>
       <c r="N53" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O53" s="23">
         <v>0</v>
@@ -7282,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T53" s="23">
         <v>0</v>
@@ -7291,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W53">
         <v>335</v>
@@ -7318,7 +7320,7 @@
     </row>
     <row r="54" ht="15" spans="1:30">
       <c r="A54" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B54" s="23">
         <v>27</v>
@@ -7327,22 +7329,22 @@
         <v>1</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J54" s="23">
         <v>27</v>
@@ -7359,7 +7361,7 @@
         <v>.dat</v>
       </c>
       <c r="N54" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O54" s="23">
         <v>1</v>
@@ -7374,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T54" s="23">
         <v>0</v>
@@ -7383,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W54">
         <v>336</v>
@@ -7409,7 +7411,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:V53">
+  <sortState ref="A2:W53">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7437,24 +7439,24 @@
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7476,102 +7478,102 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="9">
         <v>31</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>32</v>
@@ -7586,68 +7588,68 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="2:9">
       <c r="B7" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9">
         <v>27</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="2:9">
       <c r="B9" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="2:9">
@@ -7655,41 +7657,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="2:9">
       <c r="B11" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="2:9">
@@ -7797,7 +7799,7 @@
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1" spans="3:3">
       <c r="C25" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowWidth="20490" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="351">
   <si>
     <t>operator</t>
   </si>
@@ -332,7 +332,7 @@
     <t>z3W6WRwAw_&amp;7cvS5</t>
   </si>
   <si>
-    <t>h:\telcobright\vault\resources\cdr\crossworld\ip</t>
+    <t>F:\telcobright\vault\resources\cdr\crossworld\ip</t>
   </si>
   <si>
     <t>vault.Cataleya</t>
@@ -347,10 +347,7 @@
     <t>77u*pznYM670</t>
   </si>
   <si>
-    <t>h:\telcobright\vault\resources\cdr\crossworld\tdm</t>
-  </si>
-  <si>
-    <t>crossworld_10.154.150.34_GENBAND</t>
+    <t>F:\telcobright\vault\resources\cdr\crossworld\tdm</t>
   </si>
   <si>
     <t>10.154.150.40</t>
@@ -359,583 +356,598 @@
     <t>crossworld_tdm1</t>
   </si>
   <si>
+    <t>TELCOBRIDGE_CTG</t>
+  </si>
+  <si>
+    <t>sEplwon8tho_hap</t>
+  </si>
+  <si>
+    <t>F:\telcobright\vault\resources\cdr\crossworld\tdm1\CTG</t>
+  </si>
+  <si>
+    <t>CWTEL</t>
+  </si>
+  <si>
+    <t>.log</t>
+  </si>
+  <si>
+    <t>Vault.TelcobridgeCTG</t>
+  </si>
+  <si>
+    <t>telcobridge</t>
+  </si>
+  <si>
+    <t>TELCOBRIDGE_KHL</t>
+  </si>
+  <si>
+    <t>F:\telcobright\vault\resources\cdr\crossworld\tdm1\KHL</t>
+  </si>
+  <si>
+    <t>Vault.TelcobridgeKHL</t>
+  </si>
+  <si>
+    <t>gaziNetworks</t>
+  </si>
+  <si>
+    <t>10.255.200.10</t>
+  </si>
+  <si>
+    <t>gaziNetworks_ip</t>
+  </si>
+  <si>
+    <t>Gazi71network#</t>
+  </si>
+  <si>
+    <t>d:\telcobright\vault\resources\cdr\gaziNetworks\ip</t>
+  </si>
+  <si>
+    <t>Vault.cataleya</t>
+  </si>
+  <si>
+    <t>10.154.150.10</t>
+  </si>
+  <si>
+    <t>gaziNetworks_tdm</t>
+  </si>
+  <si>
+    <t>iRX6IRZsPP8gfnW</t>
+  </si>
+  <si>
+    <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm</t>
+  </si>
+  <si>
+    <t>GAZI</t>
+  </si>
+  <si>
+    <t>10.154.150.9</t>
+  </si>
+  <si>
+    <t>gaziNetworks_tdm1</t>
+  </si>
+  <si>
+    <t>TELCOBRIDGE_KHULNA</t>
+  </si>
+  <si>
+    <t>RitUtipi9Ras25je</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\Khulna</t>
+  </si>
+  <si>
+    <t>GNL</t>
+  </si>
+  <si>
+    <t>Vault.TelcobridgeKhulna</t>
+  </si>
+  <si>
+    <t>TELCOBRIDGE_BOGRA</t>
+  </si>
+  <si>
+    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
+  </si>
+  <si>
+    <t>Vault.TelcobridgeBogra</t>
+  </si>
+  <si>
+    <t>getco</t>
+  </si>
+  <si>
+    <t>10.255.200.21</t>
+  </si>
+  <si>
+    <t>getco_ip</t>
+  </si>
+  <si>
+    <t>EBg)B"g5Jn3Mu"_q</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\getco\ip</t>
+  </si>
+  <si>
+    <t>getco_10.255.200.21_REVE</t>
+  </si>
+  <si>
+    <t>10.154.150.21</t>
+  </si>
+  <si>
+    <t>getco_tdm</t>
+  </si>
+  <si>
+    <t>@fFSVt463NKk</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\getco\tdm</t>
+  </si>
+  <si>
+    <t>getco_10.154.150.21_HUWAEI</t>
+  </si>
+  <si>
+    <t>imamNetwork</t>
+  </si>
+  <si>
+    <t>10.255.200.22</t>
+  </si>
+  <si>
+    <t>imamNetwork_ip</t>
+  </si>
+  <si>
+    <t>XB\+t~[!)!3a#r8n</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\imamNetwork\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.22</t>
+  </si>
+  <si>
+    <t>imamNetwork_tdm</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>$*cA2zy90QlO</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\imamNetwork\tdm</t>
+  </si>
+  <si>
+    <t>DHK</t>
+  </si>
+  <si>
+    <t>Vault.Zte</t>
+  </si>
+  <si>
+    <t>jibonDhara</t>
+  </si>
+  <si>
+    <t>10.255.200.23</t>
+  </si>
+  <si>
+    <t>jibonDhara_ip</t>
+  </si>
+  <si>
+    <t>6[.3hb2U=\Avj+6n</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\jibonDhara\ip</t>
+  </si>
+  <si>
+    <t>Vault.JslcataleyaDhk</t>
+  </si>
+  <si>
+    <t>10.154.150.23</t>
+  </si>
+  <si>
+    <t>jibonDhara_tdm</t>
+  </si>
+  <si>
+    <t>N@774HA6Vi2J</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\jibonDhara\tdm</t>
+  </si>
+  <si>
+    <t>Vault.JslZteDhk</t>
+  </si>
+  <si>
+    <t>mmCommunications</t>
+  </si>
+  <si>
+    <t>10.255.200.24</t>
+  </si>
+  <si>
+    <t>mmCommunications_ip</t>
+  </si>
+  <si>
+    <t>S?Rs&amp;v2$'kZ"_+ex</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\mmCommunications\ip</t>
+  </si>
+  <si>
+    <t>mmCommunications_10.255.200.24_CATALEYA</t>
+  </si>
+  <si>
+    <t>mmCommunications_tdm</t>
+  </si>
+  <si>
+    <t>v&amp;8DhE29A9G%</t>
+  </si>
+  <si>
+    <t>f:\telcobright\vault\resources\cdr\mmCommunications\tdm</t>
+  </si>
+  <si>
+    <t>mmCommunications_10.255.200.24_ZTE</t>
+  </si>
+  <si>
+    <t>mnh</t>
+  </si>
+  <si>
+    <t>10.255.200.25</t>
+  </si>
+  <si>
+    <t>mnh_ip</t>
+  </si>
+  <si>
+    <t>Q`"8Te^T"L6cvK]V</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\mnh\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.25</t>
+  </si>
+  <si>
+    <t>mnh_tdm</t>
+  </si>
+  <si>
+    <t>vGadKQ*N&amp;646</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\mnh\tdm</t>
+  </si>
+  <si>
+    <t>b,c</t>
+  </si>
+  <si>
+    <t>mothertelecom</t>
+  </si>
+  <si>
+    <t>10.255.200.55</t>
+  </si>
+  <si>
+    <t>mothertelecom_ip</t>
+  </si>
+  <si>
+    <t>h"4FPj.\]Xs7R*yA</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\mothertelecom\ip</t>
+  </si>
+  <si>
+    <t>vaultDialogic</t>
+  </si>
+  <si>
+    <t>10.154.150.55</t>
+  </si>
+  <si>
+    <t>mothertelecom_tdm</t>
+  </si>
+  <si>
+    <t>NOKIA</t>
+  </si>
+  <si>
+    <t>b07G7uf$Rt24</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\mothertelecom\tdm</t>
+  </si>
+  <si>
+    <t>vault.Nokia</t>
+  </si>
+  <si>
+    <t>newGenerationTelecom</t>
+  </si>
+  <si>
+    <t>10.255.200.54</t>
+  </si>
+  <si>
+    <t>newGenerTelecom_ip</t>
+  </si>
+  <si>
+    <t>`D2j+fP{bXj,H#6~</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\ip</t>
+  </si>
+  <si>
+    <t>vault.Reve</t>
+  </si>
+  <si>
+    <t>10.154.150.54</t>
+  </si>
+  <si>
+    <t>newGenerTelecom_tdm</t>
+  </si>
+  <si>
+    <t>X57T0LYt@4sd</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\tdm</t>
+  </si>
+  <si>
+    <t>Vault.Nokia</t>
+  </si>
+  <si>
+    <t>paradise</t>
+  </si>
+  <si>
+    <t>10.255.200.36</t>
+  </si>
+  <si>
+    <t>paradise_ip</t>
+  </si>
+  <si>
+    <t>G5_(XnTV[DK++_\k</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\paradise\ip</t>
+  </si>
+  <si>
+    <t>paradise_10.255.200.36_CATALEYA</t>
+  </si>
+  <si>
+    <t>10.154.150.36</t>
+  </si>
+  <si>
+    <t>paradise_tdm</t>
+  </si>
+  <si>
+    <t>KqM0of^j6Q6^</t>
+  </si>
+  <si>
+    <t>g:\telcobright\vault\resources\cdr\paradise\tdm</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>10.255.200.37</t>
+  </si>
+  <si>
+    <t>purple_ip</t>
+  </si>
+  <si>
+    <t>gDa=sGR2anV5h'72</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\purple\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.37</t>
+  </si>
+  <si>
+    <t>purple_tdm</t>
+  </si>
+  <si>
+    <t>5jg5I$f262&amp;7</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\purple\tdm</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>vault.Huwaei</t>
+  </si>
+  <si>
+    <t>ringTech</t>
+  </si>
+  <si>
+    <t>10.255.200.38</t>
+  </si>
+  <si>
+    <t>ringTech_ip</t>
+  </si>
+  <si>
+    <t>GNEW</t>
+  </si>
+  <si>
+    <t>Hm$vRDZ"9$#ArCmy</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\ringTech\ip</t>
+  </si>
+  <si>
+    <t>.cdr</t>
+  </si>
+  <si>
+    <t>vault.GNEW</t>
+  </si>
+  <si>
+    <t>10.154.150.38</t>
+  </si>
+  <si>
+    <t>ringTech_tdm</t>
+  </si>
+  <si>
+    <t>bq73k9F$4w95</t>
+  </si>
+  <si>
+    <t>h:\telcobright\vault\resources\cdr\ringTech\tdm</t>
+  </si>
+  <si>
+    <t>Haseen</t>
+  </si>
+  <si>
+    <t>vaultZte</t>
+  </si>
+  <si>
+    <t>sheba</t>
+  </si>
+  <si>
+    <t>10.255.200.51</t>
+  </si>
+  <si>
+    <t>sheba_ip</t>
+  </si>
+  <si>
+    <t>]V!2$Q*5L!SvX&gt;qn</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\sheba\ip</t>
+  </si>
+  <si>
+    <t>sheba_10.255.200.51_REVE</t>
+  </si>
+  <si>
+    <t>10.154.150.51</t>
+  </si>
+  <si>
+    <t>sheba_tdm</t>
+  </si>
+  <si>
+    <t>6ri6S*He829^</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\sheba\tdm</t>
+  </si>
+  <si>
+    <t>ICX</t>
+  </si>
+  <si>
+    <t>softex</t>
+  </si>
+  <si>
+    <t>10.255.200.52</t>
+  </si>
+  <si>
+    <t>softex_ip</t>
+  </si>
+  <si>
+    <t>8B^3j;Np7Qm@vwG*</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\softex\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.52</t>
+  </si>
+  <si>
+    <t>softex_tdm</t>
+  </si>
+  <si>
+    <t>eof4FT20^lUL</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\softex\tdm</t>
+  </si>
+  <si>
+    <t>srTelecom</t>
+  </si>
+  <si>
+    <t>10.255.200.35</t>
+  </si>
+  <si>
+    <t>srTelecom_ip</t>
+  </si>
+  <si>
+    <t>TYSDP*Fp@w\37a,;</t>
+  </si>
+  <si>
+    <t>c:\telcobright\vault\resources\cdr\srTelecom\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.35</t>
+  </si>
+  <si>
+    <t>srTelecom_tdm</t>
+  </si>
+  <si>
+    <t>q9%0p3la#WO8</t>
+  </si>
+  <si>
+    <t>c:\telcobright\vault\resources\cdr\srTelecom\tdm</t>
+  </si>
+  <si>
+    <t>SRT</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>10.255.200.57</t>
+  </si>
+  <si>
+    <t>summit_ip</t>
+  </si>
+  <si>
+    <t>MdReMz!rm$&amp;KJh7{</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\summit\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.57</t>
+  </si>
+  <si>
+    <t>summit_tdm</t>
+  </si>
+  <si>
+    <t>g*GVC$HG1110</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\summit\tdm</t>
+  </si>
+  <si>
+    <t>vault.ZTE</t>
+  </si>
+  <si>
+    <t>teleExchange</t>
+  </si>
+  <si>
+    <t>10.255.200.53</t>
+  </si>
+  <si>
+    <t>teleExchange_ip</t>
+  </si>
+  <si>
+    <t>6n=Mu)d.M[;&gt;&lt;~6z</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.53</t>
+  </si>
+  <si>
+    <t>teleExchange_tdm</t>
+  </si>
+  <si>
+    <t>102UQ1a&amp;5*nY</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
+  </si>
+  <si>
+    <t>teleExchange_10.154.150.53_HUWAEI</t>
+  </si>
+  <si>
+    <t>10.154.150.60</t>
+  </si>
+  <si>
+    <t>teleExchange_tdm1</t>
+  </si>
+  <si>
     <t>TELCOBRIDGE</t>
-  </si>
-  <si>
-    <t>sEplwon8tho_hap</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\crossworld\tdm1</t>
-  </si>
-  <si>
-    <t>crossworld_10.154.150.40_TELCOBRIDGE</t>
-  </si>
-  <si>
-    <t>telcobridge</t>
-  </si>
-  <si>
-    <t>gaziNetworks</t>
-  </si>
-  <si>
-    <t>10.255.200.10</t>
-  </si>
-  <si>
-    <t>gaziNetworks_ip</t>
-  </si>
-  <si>
-    <t>Gazi71network#</t>
-  </si>
-  <si>
-    <t>d:\telcobright\vault\resources\cdr\gaziNetworks\ip</t>
-  </si>
-  <si>
-    <t>Vault.cataleya</t>
-  </si>
-  <si>
-    <t>10.154.150.10</t>
-  </si>
-  <si>
-    <t>gaziNetworks_tdm</t>
-  </si>
-  <si>
-    <t>iRX6IRZsPP8gfnW</t>
-  </si>
-  <si>
-    <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm</t>
-  </si>
-  <si>
-    <t>GAZI</t>
-  </si>
-  <si>
-    <t>10.154.150.9</t>
-  </si>
-  <si>
-    <t>gaziNetworks_tdm1</t>
-  </si>
-  <si>
-    <t>TELCOBRIDGE_KHULNA</t>
-  </si>
-  <si>
-    <t>RitUtipi9Ras25je</t>
-  </si>
-  <si>
-    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\Khulna</t>
-  </si>
-  <si>
-    <t>GNL</t>
-  </si>
-  <si>
-    <t>.log</t>
-  </si>
-  <si>
-    <t>Vault.TelcobridgeKhulna</t>
-  </si>
-  <si>
-    <t>TELCOBRIDGE_BOGRA</t>
-  </si>
-  <si>
-    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
-  </si>
-  <si>
-    <t>Vault.TelcobridgeBogra</t>
-  </si>
-  <si>
-    <t>getco</t>
-  </si>
-  <si>
-    <t>10.255.200.21</t>
-  </si>
-  <si>
-    <t>getco_ip</t>
-  </si>
-  <si>
-    <t>EBg)B"g5Jn3Mu"_q</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\getco\ip</t>
-  </si>
-  <si>
-    <t>getco_10.255.200.21_REVE</t>
-  </si>
-  <si>
-    <t>10.154.150.21</t>
-  </si>
-  <si>
-    <t>getco_tdm</t>
-  </si>
-  <si>
-    <t>@fFSVt463NKk</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\getco\tdm</t>
-  </si>
-  <si>
-    <t>getco_10.154.150.21_HUWAEI</t>
-  </si>
-  <si>
-    <t>imamNetwork</t>
-  </si>
-  <si>
-    <t>10.255.200.22</t>
-  </si>
-  <si>
-    <t>imamNetwork_ip</t>
-  </si>
-  <si>
-    <t>XB\+t~[!)!3a#r8n</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\imamNetwork\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.22</t>
-  </si>
-  <si>
-    <t>imamNetwork_tdm</t>
-  </si>
-  <si>
-    <t>ZTE</t>
-  </si>
-  <si>
-    <t>$*cA2zy90QlO</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\imamNetwork\tdm</t>
-  </si>
-  <si>
-    <t>DHK</t>
-  </si>
-  <si>
-    <t>Vault.Zte</t>
-  </si>
-  <si>
-    <t>jibonDhara</t>
-  </si>
-  <si>
-    <t>10.255.200.23</t>
-  </si>
-  <si>
-    <t>jibonDhara_ip</t>
-  </si>
-  <si>
-    <t>6[.3hb2U=\Avj+6n</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\jibonDhara\ip</t>
-  </si>
-  <si>
-    <t>Vault.JslcataleyaDhk</t>
-  </si>
-  <si>
-    <t>10.154.150.23</t>
-  </si>
-  <si>
-    <t>jibonDhara_tdm</t>
-  </si>
-  <si>
-    <t>N@774HA6Vi2J</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\jibonDhara\tdm</t>
-  </si>
-  <si>
-    <t>Vault.JslZteDhk</t>
-  </si>
-  <si>
-    <t>mmCommunications</t>
-  </si>
-  <si>
-    <t>10.255.200.24</t>
-  </si>
-  <si>
-    <t>mmCommunications_ip</t>
-  </si>
-  <si>
-    <t>S?Rs&amp;v2$'kZ"_+ex</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\mmCommunications\ip</t>
-  </si>
-  <si>
-    <t>mmCommunications_10.255.200.24_CATALEYA</t>
-  </si>
-  <si>
-    <t>mmCommunications_tdm</t>
-  </si>
-  <si>
-    <t>v&amp;8DhE29A9G%</t>
-  </si>
-  <si>
-    <t>f:\telcobright\vault\resources\cdr\mmCommunications\tdm</t>
-  </si>
-  <si>
-    <t>mmCommunications_10.255.200.24_ZTE</t>
-  </si>
-  <si>
-    <t>mnh</t>
-  </si>
-  <si>
-    <t>10.255.200.25</t>
-  </si>
-  <si>
-    <t>mnh_ip</t>
-  </si>
-  <si>
-    <t>Q`"8Te^T"L6cvK]V</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\mnh\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.25</t>
-  </si>
-  <si>
-    <t>mnh_tdm</t>
-  </si>
-  <si>
-    <t>vGadKQ*N&amp;646</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\mnh\tdm</t>
-  </si>
-  <si>
-    <t>b,c</t>
-  </si>
-  <si>
-    <t>mothertelecom</t>
-  </si>
-  <si>
-    <t>10.255.200.55</t>
-  </si>
-  <si>
-    <t>mothertelecom_ip</t>
-  </si>
-  <si>
-    <t>h"4FPj.\]Xs7R*yA</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\mothertelecom\ip</t>
-  </si>
-  <si>
-    <t>vaultDialogic</t>
-  </si>
-  <si>
-    <t>10.154.150.55</t>
-  </si>
-  <si>
-    <t>mothertelecom_tdm</t>
-  </si>
-  <si>
-    <t>NOKIA</t>
-  </si>
-  <si>
-    <t>b07G7uf$Rt24</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\mothertelecom\tdm</t>
-  </si>
-  <si>
-    <t>vault.Nokia</t>
-  </si>
-  <si>
-    <t>newGenerationTelecom</t>
-  </si>
-  <si>
-    <t>10.255.200.54</t>
-  </si>
-  <si>
-    <t>newGenerTelecom_ip</t>
-  </si>
-  <si>
-    <t>`D2j+fP{bXj,H#6~</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\ip</t>
-  </si>
-  <si>
-    <t>vault.Reve</t>
-  </si>
-  <si>
-    <t>10.154.150.54</t>
-  </si>
-  <si>
-    <t>newGenerTelecom_tdm</t>
-  </si>
-  <si>
-    <t>X57T0LYt@4sd</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\newGenerationTelecom\tdm</t>
-  </si>
-  <si>
-    <t>Vault.Nokia</t>
-  </si>
-  <si>
-    <t>paradise</t>
-  </si>
-  <si>
-    <t>10.255.200.36</t>
-  </si>
-  <si>
-    <t>paradise_ip</t>
-  </si>
-  <si>
-    <t>G5_(XnTV[DK++_\k</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\paradise\ip</t>
-  </si>
-  <si>
-    <t>paradise_10.255.200.36_CATALEYA</t>
-  </si>
-  <si>
-    <t>10.154.150.36</t>
-  </si>
-  <si>
-    <t>paradise_tdm</t>
-  </si>
-  <si>
-    <t>KqM0of^j6Q6^</t>
-  </si>
-  <si>
-    <t>g:\telcobright\vault\resources\cdr\paradise\tdm</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>10.255.200.37</t>
-  </si>
-  <si>
-    <t>purple_ip</t>
-  </si>
-  <si>
-    <t>gDa=sGR2anV5h'72</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\purple\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.37</t>
-  </si>
-  <si>
-    <t>purple_tdm</t>
-  </si>
-  <si>
-    <t>5jg5I$f262&amp;7</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\purple\tdm</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>vault.Huwaei</t>
-  </si>
-  <si>
-    <t>ringTech</t>
-  </si>
-  <si>
-    <t>10.255.200.38</t>
-  </si>
-  <si>
-    <t>ringTech_ip</t>
-  </si>
-  <si>
-    <t>GNEW</t>
-  </si>
-  <si>
-    <t>Hm$vRDZ"9$#ArCmy</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\ringTech\ip</t>
-  </si>
-  <si>
-    <t>.cdr</t>
-  </si>
-  <si>
-    <t>vault.GNEW</t>
-  </si>
-  <si>
-    <t>10.154.150.38</t>
-  </si>
-  <si>
-    <t>ringTech_tdm</t>
-  </si>
-  <si>
-    <t>bq73k9F$4w95</t>
-  </si>
-  <si>
-    <t>h:\telcobright\vault\resources\cdr\ringTech\tdm</t>
-  </si>
-  <si>
-    <t>Haseen</t>
-  </si>
-  <si>
-    <t>vaultZte</t>
-  </si>
-  <si>
-    <t>sheba</t>
-  </si>
-  <si>
-    <t>10.255.200.51</t>
-  </si>
-  <si>
-    <t>sheba_ip</t>
-  </si>
-  <si>
-    <t>]V!2$Q*5L!SvX&gt;qn</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\sheba\ip</t>
-  </si>
-  <si>
-    <t>sheba_10.255.200.51_REVE</t>
-  </si>
-  <si>
-    <t>10.154.150.51</t>
-  </si>
-  <si>
-    <t>sheba_tdm</t>
-  </si>
-  <si>
-    <t>6ri6S*He829^</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\sheba\tdm</t>
-  </si>
-  <si>
-    <t>ICX</t>
-  </si>
-  <si>
-    <t>softex</t>
-  </si>
-  <si>
-    <t>10.255.200.52</t>
-  </si>
-  <si>
-    <t>softex_ip</t>
-  </si>
-  <si>
-    <t>8B^3j;Np7Qm@vwG*</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\softex\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.52</t>
-  </si>
-  <si>
-    <t>softex_tdm</t>
-  </si>
-  <si>
-    <t>eof4FT20^lUL</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\softex\tdm</t>
-  </si>
-  <si>
-    <t>srTelecom</t>
-  </si>
-  <si>
-    <t>10.255.200.35</t>
-  </si>
-  <si>
-    <t>srTelecom_ip</t>
-  </si>
-  <si>
-    <t>TYSDP*Fp@w\37a,;</t>
-  </si>
-  <si>
-    <t>c:\telcobright\vault\resources\cdr\srTelecom\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.35</t>
-  </si>
-  <si>
-    <t>srTelecom_tdm</t>
-  </si>
-  <si>
-    <t>q9%0p3la#WO8</t>
-  </si>
-  <si>
-    <t>c:\telcobright\vault\resources\cdr\srTelecom\tdm</t>
-  </si>
-  <si>
-    <t>SRT</t>
-  </si>
-  <si>
-    <t>vault</t>
-  </si>
-  <si>
-    <t>summit</t>
-  </si>
-  <si>
-    <t>10.255.200.57</t>
-  </si>
-  <si>
-    <t>summit_ip</t>
-  </si>
-  <si>
-    <t>MdReMz!rm$&amp;KJh7{</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\summit\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.57</t>
-  </si>
-  <si>
-    <t>summit_tdm</t>
-  </si>
-  <si>
-    <t>g*GVC$HG1110</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\summit\tdm</t>
-  </si>
-  <si>
-    <t>vault.ZTE</t>
-  </si>
-  <si>
-    <t>teleExchange</t>
-  </si>
-  <si>
-    <t>10.255.200.53</t>
-  </si>
-  <si>
-    <t>teleExchange_ip</t>
-  </si>
-  <si>
-    <t>6n=Mu)d.M[;&gt;&lt;~6z</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.53</t>
-  </si>
-  <si>
-    <t>teleExchange_tdm</t>
-  </si>
-  <si>
-    <t>102UQ1a&amp;5*nY</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
-  </si>
-  <si>
-    <t>teleExchange_10.154.150.53_HUWAEI</t>
-  </si>
-  <si>
-    <t>10.154.150.60</t>
-  </si>
-  <si>
-    <t>teleExchange_tdm1</t>
   </si>
   <si>
     <t>9I+wLs=CrUf#6fl</t>
@@ -2406,12 +2418,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3690,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="22" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="T14" s="23">
         <v>0</v>
@@ -3738,34 +3750,31 @@
         <v>38</v>
       </c>
       <c r="E15" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="H15" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="I15" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="J15" s="23">
         <v>18</v>
       </c>
       <c r="K15" s="37">
-        <f t="array" ref="K15">INDEX(Sheet2!$H$2:$I$21,MATCH(G15,Sheet2!$I$2:I37,0),1)</f>
-        <v>37</v>
-      </c>
-      <c r="L15" s="38" t="str">
-        <f t="array" ref="L15">INDEX(Sheet2!$B$2:$C$21,MATCH(G15,Sheet2!$C$2:C52,0),1)</f>
-        <v>cdr</v>
-      </c>
-      <c r="M15" s="39" t="str">
-        <f t="array" ref="M15">INDEX(Sheet2!$E$2:$F$21,MATCH(G15,Sheet2!$F$2:F52,0),1)</f>
-        <v>.log</v>
+        <v>57</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>116</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>36</v>
@@ -3783,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T15" s="23">
         <v>0</v>
@@ -3798,7 +3807,7 @@
         <v>298</v>
       </c>
       <c r="X15" s="52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -3821,45 +3830,43 @@
     </row>
     <row r="16" ht="15" spans="1:30">
       <c r="A16" s="22" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B16" s="23">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="H16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>122</v>
-      </c>
       <c r="J16" s="23">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K16" s="37">
-        <v>32</v>
-      </c>
-      <c r="L16" s="38" t="str">
-        <f t="array" ref="L16">INDEX(Sheet2!$B$2:$C$21,MATCH(G16,Sheet2!$C$2:C29,0),1)</f>
-        <v>esdr</v>
-      </c>
-      <c r="M16" s="39" t="str">
-        <f t="array" ref="M16">INDEX(Sheet2!$E$2:$F$21,MATCH(G16,Sheet2!$F$2:F29,0),1)</f>
-        <v>.txt</v>
+        <v>57</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>116</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>36</v>
@@ -3871,13 +3878,13 @@
         <v>1</v>
       </c>
       <c r="Q16" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="23">
         <v>1</v>
       </c>
       <c r="S16" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T16" s="23">
         <v>0</v>
@@ -3886,12 +3893,14 @@
         <v>0</v>
       </c>
       <c r="V16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="W16">
+        <v>298</v>
+      </c>
+      <c r="X16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="W16">
-        <v>299</v>
-      </c>
-      <c r="X16" s="22"/>
       <c r="Y16">
         <v>1</v>
       </c>
@@ -3913,42 +3922,46 @@
     </row>
     <row r="17" ht="15" spans="1:30">
       <c r="A17" s="22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B17" s="23">
         <v>6</v>
       </c>
       <c r="C17" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E17" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="G17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="I17" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>127</v>
       </c>
       <c r="J17" s="23">
         <v>6</v>
       </c>
       <c r="K17" s="37">
-        <v>70</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="L17" s="38" t="str">
+        <f t="array" ref="L17">INDEX(Sheet2!$B$2:$C$21,MATCH(G17,Sheet2!$C$2:C29,0),1)</f>
+        <v>esdr</v>
+      </c>
+      <c r="M17" s="39" t="str">
+        <f t="array" ref="M17">INDEX(Sheet2!$E$2:$F$21,MATCH(G17,Sheet2!$F$2:F29,0),1)</f>
+        <v>.txt</v>
+      </c>
       <c r="N17" s="22" t="s">
         <v>36</v>
       </c>
@@ -3965,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="T17" s="23">
         <v>0</v>
@@ -3974,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="W17">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X17" s="22"/>
       <c r="Y17">
@@ -3999,79 +4012,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="15" spans="1:30">
-      <c r="A18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="25">
+    <row r="18" ht="15" spans="1:30">
+      <c r="A18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="23">
         <v>6</v>
       </c>
-      <c r="C18" s="25">
-        <v>4</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="I18" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="J18" s="23">
+        <v>6</v>
+      </c>
+      <c r="K18" s="37">
+        <v>70</v>
+      </c>
+      <c r="L18" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="25">
-        <v>6</v>
-      </c>
-      <c r="K18" s="25">
-        <v>57</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" s="17" t="s">
+      <c r="M18" s="39"/>
+      <c r="N18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="25">
-        <v>1</v>
-      </c>
-      <c r="P18" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="25">
-        <v>0</v>
-      </c>
-      <c r="R18" s="25">
-        <v>1</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="T18" s="25">
-        <v>1</v>
-      </c>
-      <c r="U18" s="25">
-        <v>0</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="W18" s="17">
-        <v>301</v>
-      </c>
-      <c r="X18" s="52" t="s">
-        <v>117</v>
-      </c>
+      <c r="O18" s="23">
+        <v>1</v>
+      </c>
+      <c r="P18" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>1</v>
+      </c>
+      <c r="R18" s="23">
+        <v>1</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="23">
+        <v>0</v>
+      </c>
+      <c r="U18" s="23">
+        <v>0</v>
+      </c>
+      <c r="V18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="W18">
+        <v>300</v>
+      </c>
+      <c r="X18" s="22"/>
       <c r="Y18">
         <v>1</v>
       </c>
@@ -4093,31 +4102,31 @@
     </row>
     <row r="19" s="17" customFormat="1" ht="15" spans="1:30">
       <c r="A19" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B19" s="25">
         <v>6</v>
       </c>
       <c r="C19" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G19" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>138</v>
       </c>
       <c r="J19" s="25">
         <v>6</v>
@@ -4126,19 +4135,19 @@
         <v>57</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M19" s="40" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="O19" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="25">
         <v>0</v>
@@ -4156,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="W19" s="17">
         <v>301</v>
       </c>
       <c r="X19" s="52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -4183,80 +4192,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:30">
-      <c r="A20" s="22" t="s">
+    <row r="20" s="17" customFormat="1" ht="15" spans="1:30">
+      <c r="A20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="25">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="23">
-        <v>7</v>
-      </c>
-      <c r="C20" s="23">
-        <v>2</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="H20" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="J20" s="25">
+        <v>6</v>
+      </c>
+      <c r="K20" s="25">
+        <v>57</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>1</v>
+      </c>
+      <c r="S20" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J20" s="23">
-        <v>7</v>
-      </c>
-      <c r="K20" s="37">
-        <f t="array" ref="K20">INDEX(Sheet2!$H$2:$I$21,MATCH(G20,Sheet2!$I$2:I17,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L20" s="38" t="str">
-        <f t="array" ref="L20">INDEX(Sheet2!$B$2:$C$21,MATCH(G20,Sheet2!$C$2:C32,0),1)</f>
-        <v>cdr</v>
-      </c>
-      <c r="M20" s="39" t="str">
-        <f t="array" ref="M20">INDEX(Sheet2!$E$2:$F$21,MATCH(G20,Sheet2!$F$2:F32,0),1)</f>
-        <v>.csv</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="23">
-        <v>1</v>
-      </c>
-      <c r="P20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="23">
-        <v>1</v>
-      </c>
-      <c r="R20" s="23">
-        <v>1</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="T20" s="23">
-        <v>0</v>
-      </c>
-      <c r="U20" s="23">
-        <v>0</v>
-      </c>
-      <c r="V20" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="W20">
-        <v>302</v>
-      </c>
-      <c r="X20" s="22"/>
+      <c r="T20" s="25">
+        <v>1</v>
+      </c>
+      <c r="U20" s="25">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="W20" s="17">
+        <v>301</v>
+      </c>
+      <c r="X20" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="Y20">
         <v>1</v>
       </c>
@@ -4278,46 +4286,46 @@
     </row>
     <row r="21" ht="15" spans="1:30">
       <c r="A21" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B21" s="23">
         <v>7</v>
       </c>
       <c r="C21" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E21" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="I21" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="J21" s="23">
         <v>7</v>
       </c>
       <c r="K21" s="37">
-        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I18,0),1)</f>
-        <v>3</v>
+        <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I17,0),1)</f>
+        <v>28</v>
       </c>
       <c r="L21" s="38" t="str">
-        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C33,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C32,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M21" s="39" t="str">
-        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F33,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F32,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>36</v>
@@ -4335,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T21" s="23">
         <v>0</v>
@@ -4344,10 +4352,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="W21">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X21" s="22"/>
       <c r="Y21">
@@ -4371,55 +4379,55 @@
     </row>
     <row r="22" ht="15" spans="1:30">
       <c r="A22" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="23">
+        <v>7</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="23">
-        <v>8</v>
-      </c>
-      <c r="C22" s="23">
-        <v>2</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="I22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="J22" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" s="37">
-        <f t="array" ref="K22">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G22,[1]Sheet2!$I$2:I19,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I18,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L22" s="38" t="str">
-        <f t="array" ref="L22">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G22,[1]Sheet2!$C$2:C34,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L22">INDEX(Sheet2!$B$2:$C$21,MATCH(G22,Sheet2!$C$2:C33,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M22" s="39" t="str">
-        <f t="array" ref="M22">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G22,[1]Sheet2!$F$2:F34,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F33,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="23">
         <v>1</v>
@@ -4428,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="T22" s="23">
         <v>0</v>
@@ -4437,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="W22">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X22" s="22"/>
       <c r="Y22">
@@ -4464,45 +4472,46 @@
     </row>
     <row r="23" ht="15" spans="1:30">
       <c r="A23" s="22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" s="23">
         <v>8</v>
       </c>
       <c r="C23" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E23" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="G23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="I23" s="22" t="s">
         <v>158</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>160</v>
       </c>
       <c r="J23" s="23">
         <v>8</v>
       </c>
       <c r="K23" s="37">
-        <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I20,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>161</v>
+        <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I19,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L23" s="38" t="str">
+        <f t="array" ref="L23">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G23,[1]Sheet2!$C$2:C34,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M23" s="39" t="str">
-        <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F35,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F34,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>36</v>
@@ -4520,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="22" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="T23" s="23">
         <v>0</v>
@@ -4529,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="W23">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X23" s="22"/>
       <c r="Y23">
@@ -4554,47 +4563,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="1" ht="15" spans="1:30">
+    <row r="24" ht="15" spans="1:30">
       <c r="A24" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="23">
+        <v>8</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="23">
-        <v>9</v>
-      </c>
-      <c r="C24" s="34">
-        <v>18</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="J24" s="23">
+        <v>8</v>
+      </c>
+      <c r="K24" s="37">
+        <f t="array" ref="K24">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G24,[1]Sheet2!$I$2:I20,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L24" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" s="23">
-        <v>9</v>
-      </c>
-      <c r="K24" s="37">
-        <v>30</v>
-      </c>
-      <c r="L24" s="38" t="str">
-        <f t="array" ref="L24">INDEX(Sheet2!$B$2:$C$21,MATCH(G24,Sheet2!$C$2:C36,0),1)</f>
-        <v>esdr</v>
-      </c>
       <c r="M24" s="39" t="str">
-        <f t="array" ref="M24">INDEX(Sheet2!$E$2:$F$21,MATCH(G24,Sheet2!$F$2:F36,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M24">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G24,[1]Sheet2!$F$2:F35,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>36</v>
@@ -4612,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="T24" s="23">
         <v>0</v>
@@ -4621,10 +4630,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="W24">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X24" s="22"/>
       <c r="Y24">
@@ -4648,55 +4657,54 @@
     </row>
     <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A25" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B25" s="23">
         <v>9</v>
       </c>
       <c r="C25" s="34">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E25" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="I25" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="J25" s="23">
         <v>9</v>
       </c>
       <c r="K25" s="37">
-        <f t="array" ref="K25">INDEX(Sheet2!$H$2:$I$21,MATCH(G25,Sheet2!$I$2:I22,0),1)</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L25" s="38" t="str">
-        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C37,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C36,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M25" s="39" t="str">
-        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F37,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F36,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O25" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="23">
         <v>1</v>
@@ -4705,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T25" s="23">
         <v>0</v>
@@ -4714,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W25">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X25" s="22"/>
       <c r="Y25">
@@ -4739,48 +4747,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:30">
+    <row r="26" s="18" customFormat="1" ht="15" spans="1:30">
       <c r="A26" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="23">
+        <v>9</v>
+      </c>
+      <c r="C26" s="34">
+        <v>7</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="23">
-        <v>10</v>
-      </c>
-      <c r="C26" s="23">
-        <v>2</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="I26" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="J26" s="23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K26" s="37">
-        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I23,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I22,0),1)</f>
+        <v>17</v>
       </c>
       <c r="L26" s="38" t="str">
-        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C38,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C37,0),1)</f>
+        <v>ICX</v>
       </c>
       <c r="M26" s="39" t="str">
-        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F38,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F37,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>36</v>
@@ -4798,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T26" s="23">
         <v>0</v>
@@ -4807,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="W26">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X26" s="22"/>
       <c r="Y26">
@@ -4834,46 +4842,46 @@
     </row>
     <row r="27" ht="15" spans="1:30">
       <c r="A27" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B27" s="23">
         <v>10</v>
       </c>
       <c r="C27" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F27" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="22" t="s">
+      <c r="I27" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>182</v>
       </c>
       <c r="J27" s="23">
         <v>10</v>
       </c>
       <c r="K27" s="37">
-        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I24,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I23,0),1)</f>
+        <v>25</v>
       </c>
       <c r="L27" s="38" t="str">
-        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C39,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C38,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M27" s="39" t="str">
-        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F39,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F38,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>36</v>
@@ -4891,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T27" s="23">
         <v>0</v>
@@ -4900,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="W27">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X27" s="22"/>
       <c r="Y27">
@@ -4925,77 +4933,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" s="19" customFormat="1" ht="15" spans="1:30">
-      <c r="A28" s="19" t="s">
+    <row r="28" ht="15" spans="1:30">
+      <c r="A28" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="23">
+        <v>10</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="35">
-        <v>11</v>
-      </c>
-      <c r="C28" s="35">
-        <v>2</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="I28" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="J28" s="23">
+        <v>10</v>
+      </c>
+      <c r="K28" s="37">
+        <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I24,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L28" s="38" t="str">
+        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C39,0),1)</f>
+        <v>ICX</v>
+      </c>
+      <c r="M28" s="39" t="str">
+        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F39,0),1)</f>
+        <v>.DAT</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="23">
+        <v>1</v>
+      </c>
+      <c r="P28" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>1</v>
+      </c>
+      <c r="R28" s="23">
+        <v>1</v>
+      </c>
+      <c r="S28" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="35">
-        <v>11</v>
-      </c>
-      <c r="K28" s="35">
-        <v>730</v>
-      </c>
-      <c r="L28" s="47" t="str">
-        <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C40,0),1)</f>
-        <v>esdr</v>
-      </c>
-      <c r="M28" s="48" t="str">
-        <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F40,0),1)</f>
-        <v>.txt</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="35">
-        <v>0</v>
-      </c>
-      <c r="P28" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="35">
-        <v>1</v>
-      </c>
-      <c r="R28" s="35">
-        <v>1</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="T28" s="35">
-        <v>0</v>
-      </c>
-      <c r="U28" s="35">
-        <v>0</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>184</v>
+      <c r="T28" s="23">
+        <v>0</v>
+      </c>
+      <c r="U28" s="23">
+        <v>0</v>
+      </c>
+      <c r="V28" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="W28">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X28" s="22"/>
       <c r="Y28">
@@ -5017,76 +5026,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:30">
-      <c r="A29" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="23">
+    <row r="29" s="19" customFormat="1" ht="15" spans="1:30">
+      <c r="A29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="35">
         <v>11</v>
       </c>
-      <c r="C29" s="23">
-        <v>1</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="22" t="s">
+      <c r="C29" s="35">
+        <v>2</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="22" t="s">
+      <c r="I29" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="J29" s="23">
+      <c r="J29" s="35">
         <v>11</v>
       </c>
-      <c r="K29" s="37">
-        <v>68</v>
-      </c>
-      <c r="L29" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="M29" s="39" t="str">
-        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F41,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N29" s="22" t="s">
+      <c r="K29" s="35">
+        <v>730</v>
+      </c>
+      <c r="L29" s="47" t="str">
+        <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C40,0),1)</f>
+        <v>esdr</v>
+      </c>
+      <c r="M29" s="48" t="str">
+        <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F40,0),1)</f>
+        <v>.txt</v>
+      </c>
+      <c r="N29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="23">
-        <v>0</v>
-      </c>
-      <c r="P29" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="23">
-        <v>1</v>
-      </c>
-      <c r="R29" s="23">
-        <v>1</v>
-      </c>
-      <c r="S29" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="T29" s="23">
-        <v>0</v>
-      </c>
-      <c r="U29" s="23">
-        <v>0</v>
-      </c>
-      <c r="V29" s="22" t="s">
-        <v>184</v>
+      <c r="O29" s="35">
+        <v>0</v>
+      </c>
+      <c r="P29" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="35">
+        <v>1</v>
+      </c>
+      <c r="R29" s="35">
+        <v>1</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="T29" s="35">
+        <v>0</v>
+      </c>
+      <c r="U29" s="35">
+        <v>0</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="W29">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X29" s="22"/>
       <c r="Y29">
@@ -5110,64 +5120,62 @@
     </row>
     <row r="30" ht="15" spans="1:30">
       <c r="A30" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="23">
+        <v>11</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="23">
-        <v>24</v>
-      </c>
-      <c r="C30" s="23">
-        <v>2</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="22" t="s">
+      <c r="I30" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="J30" s="23">
+        <v>11</v>
+      </c>
+      <c r="K30" s="37">
+        <v>68</v>
+      </c>
+      <c r="L30" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="J30" s="23">
-        <v>24</v>
-      </c>
-      <c r="K30" s="37">
-        <f t="array" ref="K30">INDEX(Sheet2!$H$2:$I$21,MATCH(G30,Sheet2!$I$2:I49,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L30" s="38" t="str">
-        <f t="array" ref="L30">INDEX(Sheet2!$B$2:$C$21,MATCH(G30,Sheet2!$C$2:C64,0),1)</f>
-        <v>sdr</v>
-      </c>
       <c r="M30" s="39" t="str">
-        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F64,0),1)</f>
-        <v>.gz</v>
+        <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F41,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O30" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="23">
         <v>1</v>
       </c>
       <c r="S30" s="22" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="T30" s="23">
         <v>0</v>
@@ -5176,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="V30" s="22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="W30">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X30" s="22"/>
       <c r="Y30">
@@ -5203,62 +5211,64 @@
     </row>
     <row r="31" ht="15" spans="1:30">
       <c r="A31" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B31" s="23">
         <v>24</v>
       </c>
       <c r="C31" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E31" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="I31" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="J31" s="23">
         <v>24</v>
       </c>
       <c r="K31" s="37">
-        <v>74</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>92</v>
+        <f t="array" ref="K31">INDEX(Sheet2!$H$2:$I$21,MATCH(G31,Sheet2!$I$2:I49,0),1)</f>
+        <v>27</v>
+      </c>
+      <c r="L31" s="38" t="str">
+        <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C64,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M31" s="39" t="str">
-        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F65,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F64,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O31" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="23">
         <v>1</v>
       </c>
       <c r="S31" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="T31" s="23">
         <v>0</v>
@@ -5267,14 +5277,14 @@
         <v>0</v>
       </c>
       <c r="V31" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="W31">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X31" s="22"/>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -5292,81 +5302,80 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" s="19" customFormat="1" ht="15" spans="1:30">
-      <c r="A32" s="19" t="s">
+    <row r="32" ht="15" spans="1:30">
+      <c r="A32" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="23">
+        <v>24</v>
+      </c>
+      <c r="C32" s="23">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="35">
-        <v>23</v>
-      </c>
-      <c r="C32" s="35">
-        <v>2</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="I32" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="J32" s="23">
+        <v>24</v>
+      </c>
+      <c r="K32" s="37">
+        <v>74</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="M32" s="39" t="str">
+        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F65,0),1)</f>
+        <v>.DAT</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="23">
+        <v>0</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>1</v>
+      </c>
+      <c r="R32" s="23">
+        <v>1</v>
+      </c>
+      <c r="S32" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="J32" s="35">
-        <v>23</v>
-      </c>
-      <c r="K32" s="35">
-        <v>29</v>
-      </c>
-      <c r="L32" s="47" t="str">
-        <f t="array" ref="L32">INDEX(Sheet2!$B$2:$C$21,MATCH(G32,Sheet2!$C$2:C62,0),1)</f>
-        <v>cdr</v>
-      </c>
-      <c r="M32" s="48" t="str">
-        <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F62,0),1)</f>
-        <v>.csv</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="35">
-        <v>0</v>
-      </c>
-      <c r="P32" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="35">
-        <v>1</v>
-      </c>
-      <c r="R32" s="35">
-        <v>1</v>
-      </c>
-      <c r="S32" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="T32" s="35">
-        <v>0</v>
-      </c>
-      <c r="U32" s="35">
-        <v>0</v>
-      </c>
-      <c r="V32" s="19" t="s">
-        <v>206</v>
+      <c r="T32" s="23">
+        <v>0</v>
+      </c>
+      <c r="U32" s="23">
+        <v>0</v>
+      </c>
+      <c r="V32" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="W32">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X32" s="22"/>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -5384,76 +5393,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:30">
-      <c r="A33" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="23">
+    <row r="33" s="19" customFormat="1" ht="15" spans="1:30">
+      <c r="A33" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="35">
         <v>23</v>
       </c>
-      <c r="C33" s="23">
-        <v>1</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="C33" s="35">
+        <v>2</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="I33" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="J33" s="35">
+        <v>23</v>
+      </c>
+      <c r="K33" s="35">
+        <v>29</v>
+      </c>
+      <c r="L33" s="47" t="str">
+        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C62,0),1)</f>
+        <v>cdr</v>
+      </c>
+      <c r="M33" s="48" t="str">
+        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F62,0),1)</f>
+        <v>.csv</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="35">
+        <v>0</v>
+      </c>
+      <c r="P33" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="35">
+        <v>1</v>
+      </c>
+      <c r="R33" s="35">
+        <v>1</v>
+      </c>
+      <c r="S33" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="I33" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="J33" s="23">
-        <v>23</v>
-      </c>
-      <c r="K33" s="37">
-        <v>75</v>
-      </c>
-      <c r="L33" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="M33" s="39" t="str">
-        <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F63,0),1)</f>
-        <v>.DAT</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33" s="23">
-        <v>0</v>
-      </c>
-      <c r="P33" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="23">
-        <v>1</v>
-      </c>
-      <c r="R33" s="23">
-        <v>1</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="T33" s="23">
-        <v>0</v>
-      </c>
-      <c r="U33" s="23">
-        <v>0</v>
-      </c>
-      <c r="V33" s="22" t="s">
-        <v>206</v>
+      <c r="T33" s="35">
+        <v>0</v>
+      </c>
+      <c r="U33" s="35">
+        <v>0</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="W33">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X33" s="22"/>
       <c r="Y33">
@@ -5477,55 +5487,53 @@
     </row>
     <row r="34" ht="15" spans="1:30">
       <c r="A34" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="23">
+        <v>23</v>
+      </c>
+      <c r="C34" s="23">
+        <v>1</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="23">
-        <v>15</v>
-      </c>
-      <c r="C34" s="23">
-        <v>2</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="22" t="s">
+      <c r="I34" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>221</v>
-      </c>
       <c r="J34" s="23">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K34" s="37">
-        <f t="array" ref="K34">INDEX(Sheet2!$H$2:$I$21,MATCH(G34,Sheet2!$I$2:I29,0),1)</f>
-        <v>25</v>
-      </c>
-      <c r="L34" s="38" t="str">
-        <f t="array" ref="L34">INDEX(Sheet2!$B$2:$C$21,MATCH(G34,Sheet2!$C$2:C44,0),1)</f>
-        <v>esdr</v>
+        <v>75</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="M34" s="39" t="str">
-        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F44,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F63,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O34" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="23">
         <v>1</v>
@@ -5534,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T34" s="23">
         <v>0</v>
@@ -5543,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="V34" s="22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="W34">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X34" s="22"/>
       <c r="Y34">
@@ -5570,54 +5578,55 @@
     </row>
     <row r="35" ht="15" spans="1:30">
       <c r="A35" s="22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B35" s="23">
         <v>15</v>
       </c>
       <c r="C35" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E35" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="I35" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>226</v>
       </c>
       <c r="J35" s="23">
         <v>15</v>
       </c>
       <c r="K35" s="37">
-        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I30,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L35" s="38" t="s">
-        <v>227</v>
+        <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I29,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L35" s="38" t="str">
+        <f t="array" ref="L35">INDEX(Sheet2!$B$2:$C$21,MATCH(G35,Sheet2!$C$2:C44,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M35" s="39" t="str">
-        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F45,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F44,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O35" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="23">
         <v>1</v>
@@ -5626,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="22" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="T35" s="23">
         <v>0</v>
@@ -5635,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="V35" s="22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="W35">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X35" s="22"/>
       <c r="Y35">
@@ -5662,45 +5671,45 @@
     </row>
     <row r="36" ht="15" spans="1:30">
       <c r="A36" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="23">
+        <v>15</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="23">
-        <v>16</v>
-      </c>
-      <c r="C36" s="23">
+      <c r="I36" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="J36" s="23">
+        <v>15</v>
+      </c>
+      <c r="K36" s="37">
+        <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="22" t="s">
+      <c r="L36" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="J36" s="23">
-        <v>16</v>
-      </c>
-      <c r="K36" s="37">
-        <v>30</v>
-      </c>
-      <c r="L36" s="38" t="str">
-        <f t="array" ref="L36">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G36,[1]Sheet2!$C$2:C46,0),1)</f>
-        <v>esdr</v>
-      </c>
       <c r="M36" s="39" t="str">
-        <f t="array" ref="M36">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G36,[1]Sheet2!$F$2:F46,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F45,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>36</v>
@@ -5718,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="22" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="T36" s="23">
         <v>0</v>
@@ -5727,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="V36" s="22" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="W36">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X36" s="22"/>
       <c r="Y36">
@@ -5754,45 +5763,45 @@
     </row>
     <row r="37" ht="15" spans="1:30">
       <c r="A37" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B37" s="23">
         <v>16</v>
       </c>
       <c r="C37" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E37" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="G37" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="22" t="s">
+      <c r="I37" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="J37" s="23">
         <v>16</v>
       </c>
       <c r="K37" s="37">
-        <f t="array" ref="K37">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G37,[1]Sheet2!$I$2:I32,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L37" s="38" t="s">
-        <v>237</v>
+        <v>30</v>
+      </c>
+      <c r="L37" s="38" t="str">
+        <f t="array" ref="L37">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G37,[1]Sheet2!$C$2:C46,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M37" s="39" t="str">
-        <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F47,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F46,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>36</v>
@@ -5810,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="22" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="T37" s="23">
         <v>0</v>
@@ -5819,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="V37" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="W37">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X37" s="22"/>
       <c r="Y37">
@@ -5846,43 +5855,45 @@
     </row>
     <row r="38" ht="15" spans="1:30">
       <c r="A38" s="22" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B38" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="23">
         <v>2</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E38" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" s="23">
+        <v>16</v>
+      </c>
+      <c r="K38" s="37">
+        <f t="array" ref="K38">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G38,[1]Sheet2!$I$2:I32,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L38" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="J38" s="23">
-        <v>17</v>
-      </c>
-      <c r="K38" s="37">
-        <v>56</v>
-      </c>
-      <c r="L38" s="38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>245</v>
+      <c r="M38" s="39" t="str">
+        <f t="array" ref="M38">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G38,[1]Sheet2!$F$2:F47,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>36</v>
@@ -5900,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="T38" s="23">
         <v>0</v>
@@ -5909,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="V38" s="22" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="W38">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X38" s="22"/>
       <c r="Y38">
@@ -5936,54 +5947,52 @@
     </row>
     <row r="39" ht="15" spans="1:30">
       <c r="A39" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B39" s="23">
         <v>17</v>
       </c>
       <c r="C39" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E39" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="I39" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="J39" s="23">
         <v>17</v>
       </c>
       <c r="K39" s="37">
-        <f t="array" ref="K39">INDEX(Sheet2!$H$2:$I$21,MATCH(G39,Sheet2!$I$2:I34,0),1)</f>
-        <v>17</v>
-      </c>
-      <c r="L39" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="M39" s="39" t="str">
-        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G39,Sheet2!$F$2:F49,0),1)</f>
-        <v>.DAT</v>
+        <v>56</v>
+      </c>
+      <c r="L39" s="38">
+        <v>0</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>248</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O39" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="23">
         <v>1</v>
@@ -5992,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T39" s="23">
         <v>0</v>
@@ -6001,10 +6010,10 @@
         <v>0</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="W39">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X39" s="22"/>
       <c r="Y39">
@@ -6028,46 +6037,45 @@
     </row>
     <row r="40" ht="15" spans="1:30">
       <c r="A40" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="23">
+        <v>17</v>
+      </c>
+      <c r="C40" s="23">
+        <v>1</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="I40" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="23">
-        <v>20</v>
-      </c>
-      <c r="C40" s="23">
-        <v>2</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="J40" s="23">
+        <v>17</v>
+      </c>
+      <c r="K40" s="37">
+        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I34,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L40" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="J40" s="23">
-        <v>20</v>
-      </c>
-      <c r="K40" s="37">
-        <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I40,0),1)</f>
-        <v>28</v>
-      </c>
-      <c r="L40" s="38" t="str">
-        <f t="array" ref="L40">INDEX(Sheet2!$B$2:$C$21,MATCH(G40,Sheet2!$C$2:C55,0),1)</f>
-        <v>cdr</v>
-      </c>
       <c r="M40" s="39" t="str">
-        <f t="array" ref="M40">INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F55,0),1)</f>
-        <v>.csv</v>
+        <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F49,0),1)</f>
+        <v>.DAT</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>36</v>
@@ -6085,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T40" s="23">
         <v>0</v>
@@ -6094,10 +6102,10 @@
         <v>0</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="W40">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X40" s="22"/>
       <c r="Y40">
@@ -6121,54 +6129,55 @@
     </row>
     <row r="41" ht="15" spans="1:30">
       <c r="A41" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B41" s="23">
         <v>20</v>
       </c>
       <c r="C41" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E41" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="I41" s="22" t="s">
         <v>260</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="J41" s="23">
         <v>20</v>
       </c>
       <c r="K41" s="37">
-        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I41,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L41" s="38" t="s">
-        <v>263</v>
+        <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I40,0),1)</f>
+        <v>28</v>
+      </c>
+      <c r="L41" s="38" t="str">
+        <f t="array" ref="L41">INDEX(Sheet2!$B$2:$C$21,MATCH(G41,Sheet2!$C$2:C55,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M41" s="39" t="str">
-        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F56,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F55,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O41" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="23">
         <v>1</v>
@@ -6177,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="22" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="T41" s="23">
         <v>0</v>
@@ -6186,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="V41" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="W41">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X41" s="22"/>
       <c r="Y41">
@@ -6213,45 +6222,45 @@
     </row>
     <row r="42" ht="15" spans="1:30">
       <c r="A42" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="23">
+        <v>20</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="23">
-        <v>21</v>
-      </c>
-      <c r="C42" s="23">
-        <v>2</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="I42" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="J42" s="23">
+        <v>20</v>
+      </c>
+      <c r="K42" s="37">
+        <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I41,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L42" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="J42" s="23">
-        <v>21</v>
-      </c>
-      <c r="K42" s="37">
-        <v>30</v>
-      </c>
-      <c r="L42" s="38" t="str">
-        <f t="array" ref="L42">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G42,[1]Sheet2!$C$2:C57,0),1)</f>
-        <v>esdr</v>
-      </c>
       <c r="M42" s="39" t="str">
-        <f t="array" ref="M42">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G42,[1]Sheet2!$F$2:F57,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F56,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>36</v>
@@ -6269,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="22" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="T42" s="23">
         <v>0</v>
@@ -6278,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="V42" s="22" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="W42">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X42" s="22"/>
       <c r="Y42">
@@ -6305,46 +6314,45 @@
     </row>
     <row r="43" ht="15" spans="1:30">
       <c r="A43" s="22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B43" s="23">
         <v>21</v>
       </c>
       <c r="C43" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E43" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="G43" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="22" t="s">
+      <c r="I43" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="J43" s="23">
         <v>21</v>
       </c>
       <c r="K43" s="37">
-        <f t="array" ref="K43">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G43,[1]Sheet2!$I$2:I43,0),1)</f>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L43" s="38" t="str">
-        <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C58,0),1)</f>
-        <v>b</v>
+        <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C57,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M43" s="39" t="str">
-        <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F58,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F57,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>36</v>
@@ -6362,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="22" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="T43" s="23">
         <v>0</v>
@@ -6371,10 +6379,10 @@
         <v>0</v>
       </c>
       <c r="V43" s="22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="W43">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X43" s="22"/>
       <c r="Y43">
@@ -6398,55 +6406,55 @@
     </row>
     <row r="44" ht="15" spans="1:30">
       <c r="A44" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="23">
+        <v>21</v>
+      </c>
+      <c r="C44" s="23">
+        <v>1</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="B44" s="23">
-        <v>19</v>
-      </c>
-      <c r="C44" s="34">
-        <v>2</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="G44" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="I44" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="G44" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>277</v>
-      </c>
       <c r="J44" s="23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K44" s="37">
-        <f t="array" ref="K44">INDEX(Sheet2!$H$2:$I$21,MATCH(G44,Sheet2!$I$2:I38,0),1)</f>
-        <v>25</v>
+        <f t="array" ref="K44">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G44,[1]Sheet2!$I$2:I43,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L44" s="38" t="str">
-        <f t="array" ref="L44">INDEX(Sheet2!$B$2:$C$21,MATCH(G44,Sheet2!$C$2:C53,0),1)</f>
-        <v>esdr</v>
+        <f t="array" ref="L44">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G44,[1]Sheet2!$C$2:C58,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M44" s="39" t="str">
-        <f t="array" ref="M44">INDEX(Sheet2!$E$2:$F$21,MATCH(G44,Sheet2!$F$2:F53,0),1)</f>
-        <v>.txt</v>
+        <f t="array" ref="M44">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G44,[1]Sheet2!$F$2:F58,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O44" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="23">
         <v>1</v>
@@ -6455,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="22" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="T44" s="23">
         <v>0</v>
@@ -6464,10 +6472,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="W44">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X44" s="22"/>
       <c r="Y44">
@@ -6491,54 +6499,55 @@
     </row>
     <row r="45" ht="15" spans="1:30">
       <c r="A45" s="22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B45" s="23">
         <v>19</v>
       </c>
       <c r="C45" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E45" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="G45" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="G45" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" s="22" t="s">
+      <c r="I45" s="22" t="s">
         <v>280</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>281</v>
       </c>
       <c r="J45" s="23">
         <v>19</v>
       </c>
       <c r="K45" s="37">
-        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I39,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L45" s="38" t="s">
-        <v>282</v>
+        <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I38,0),1)</f>
+        <v>25</v>
+      </c>
+      <c r="L45" s="38" t="str">
+        <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C53,0),1)</f>
+        <v>esdr</v>
       </c>
       <c r="M45" s="39" t="str">
-        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F54,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F53,0),1)</f>
+        <v>.txt</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O45" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="23">
         <v>1</v>
@@ -6547,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="22" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="T45" s="23">
         <v>0</v>
@@ -6556,10 +6565,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="W45">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X45" s="22"/>
       <c r="Y45">
@@ -6583,65 +6592,64 @@
     </row>
     <row r="46" ht="15" spans="1:30">
       <c r="A46" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" s="23">
+        <v>19</v>
+      </c>
+      <c r="C46" s="34">
+        <v>1</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I46" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="B46" s="23">
-        <v>26</v>
-      </c>
-      <c r="C46" s="34">
-        <v>10</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="J46" s="23">
+        <v>19</v>
+      </c>
+      <c r="K46" s="37">
+        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I39,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L46" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="M46" s="39" t="str">
+        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F54,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" s="23">
+        <v>0</v>
+      </c>
+      <c r="P46" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>1</v>
+      </c>
+      <c r="R46" s="23">
+        <v>1</v>
+      </c>
+      <c r="S46" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G46" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="J46" s="23">
-        <v>26</v>
-      </c>
-      <c r="K46" s="37">
-        <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I53,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L46" s="38" t="str">
-        <f t="array" ref="L46">INDEX(Sheet2!$B$2:$C$21,MATCH(G46,Sheet2!$C$2:C68,0),1)</f>
-        <v>sdr</v>
-      </c>
-      <c r="M46" s="39" t="str">
-        <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F68,0),1)</f>
-        <v>.gz</v>
-      </c>
-      <c r="N46" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O46" s="23">
-        <v>1</v>
-      </c>
-      <c r="P46" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="23">
-        <v>0</v>
-      </c>
-      <c r="R46" s="23">
-        <v>1</v>
-      </c>
-      <c r="S46" s="22" t="s">
-        <v>65</v>
-      </c>
       <c r="T46" s="23">
         <v>0</v>
       </c>
@@ -6649,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="V46" s="22" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="W46">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="X46" s="22"/>
       <c r="Y46">
@@ -6676,64 +6684,64 @@
     </row>
     <row r="47" ht="15" spans="1:30">
       <c r="A47" s="22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B47" s="23">
         <v>26</v>
       </c>
       <c r="C47" s="34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="G47" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G47" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H47" s="22" t="s">
+      <c r="I47" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="J47" s="23">
         <v>26</v>
       </c>
       <c r="K47" s="37">
-        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I54,0),1)</f>
-        <v>17</v>
+        <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I53,0),1)</f>
+        <v>27</v>
       </c>
       <c r="L47" s="38" t="str">
-        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C69,0),1)</f>
-        <v>ICX</v>
+        <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C68,0),1)</f>
+        <v>sdr</v>
       </c>
       <c r="M47" s="39" t="str">
-        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F69,0),1)</f>
-        <v>.DAT</v>
+        <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F68,0),1)</f>
+        <v>.gz</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O47" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="23">
         <v>1</v>
       </c>
       <c r="S47" s="22" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="T47" s="23">
         <v>0</v>
@@ -6742,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="V47" s="22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="W47">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X47" s="22"/>
       <c r="Y47">
@@ -6767,77 +6775,78 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" s="15" customFormat="1" ht="15" spans="1:30">
-      <c r="A48" s="15" t="s">
+    <row r="48" ht="15" spans="1:30">
+      <c r="A48" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" s="23">
+        <v>26</v>
+      </c>
+      <c r="C48" s="34">
+        <v>9</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="B48" s="25">
-        <v>22</v>
-      </c>
-      <c r="C48" s="25">
-        <v>3</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="15" t="s">
+      <c r="I48" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="J48" s="23">
+        <v>26</v>
+      </c>
+      <c r="K48" s="37">
+        <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I54,0),1)</f>
+        <v>17</v>
+      </c>
+      <c r="L48" s="38" t="str">
+        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C69,0),1)</f>
+        <v>ICX</v>
+      </c>
+      <c r="M48" s="39" t="str">
+        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F69,0),1)</f>
+        <v>.DAT</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="23">
+        <v>0</v>
+      </c>
+      <c r="P48" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>1</v>
+      </c>
+      <c r="R48" s="23">
+        <v>1</v>
+      </c>
+      <c r="S48" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="J48" s="25">
-        <v>22</v>
-      </c>
-      <c r="K48" s="25">
-        <v>72</v>
-      </c>
-      <c r="L48" s="17" t="str">
-        <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C59,0),1)</f>
-        <v>esdr</v>
-      </c>
-      <c r="M48" s="40" t="str">
-        <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F59,0),1)</f>
-        <v>.txt</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48" s="25">
-        <v>0</v>
-      </c>
-      <c r="P48" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="25">
-        <v>1</v>
-      </c>
-      <c r="R48" s="25">
-        <v>1</v>
-      </c>
-      <c r="S48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="T48" s="25">
-        <v>0</v>
-      </c>
-      <c r="U48" s="25">
-        <v>1</v>
-      </c>
-      <c r="V48" s="15" t="s">
-        <v>294</v>
+      <c r="T48" s="23">
+        <v>0</v>
+      </c>
+      <c r="U48" s="23">
+        <v>0</v>
+      </c>
+      <c r="V48" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="W48">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X48" s="22"/>
       <c r="Y48">
@@ -6859,78 +6868,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:30">
-      <c r="A49" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" s="23">
+    <row r="49" s="15" customFormat="1" ht="15" spans="1:30">
+      <c r="A49" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="25">
         <v>22</v>
       </c>
-      <c r="C49" s="23">
-        <v>1</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="22" t="s">
+      <c r="C49" s="25">
+        <v>3</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="G49" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="22" t="s">
+      <c r="I49" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="I49" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="J49" s="23">
+      <c r="J49" s="25">
         <v>22</v>
       </c>
-      <c r="K49" s="37">
-        <f t="array" ref="K49">INDEX(Sheet2!$H$2:$I$21,MATCH(G49,Sheet2!$I$2:I45,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L49" s="38" t="str">
-        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C60,0),1)</f>
-        <v>b</v>
-      </c>
-      <c r="M49" s="39" t="str">
-        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F60,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N49" s="22" t="s">
+      <c r="K49" s="25">
+        <v>72</v>
+      </c>
+      <c r="L49" s="17" t="str">
+        <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C59,0),1)</f>
+        <v>esdr</v>
+      </c>
+      <c r="M49" s="40" t="str">
+        <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F59,0),1)</f>
+        <v>.txt</v>
+      </c>
+      <c r="N49" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="23">
-        <v>1</v>
-      </c>
-      <c r="P49" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="23">
-        <v>1</v>
-      </c>
-      <c r="R49" s="23">
-        <v>1</v>
-      </c>
-      <c r="S49" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="T49" s="23">
-        <v>0</v>
-      </c>
-      <c r="U49" s="23">
-        <v>1</v>
-      </c>
-      <c r="V49" s="22" t="s">
-        <v>294</v>
+      <c r="O49" s="25">
+        <v>0</v>
+      </c>
+      <c r="P49" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="25">
+        <v>1</v>
+      </c>
+      <c r="R49" s="25">
+        <v>1</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="T49" s="25">
+        <v>0</v>
+      </c>
+      <c r="U49" s="25">
+        <v>1</v>
+      </c>
+      <c r="V49" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="W49">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X49" s="22"/>
       <c r="Y49">
@@ -6954,79 +6962,78 @@
     </row>
     <row r="50" ht="15" spans="1:30">
       <c r="A50" s="22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B50" s="23">
         <v>22</v>
       </c>
       <c r="C50" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="I50" s="22" t="s">
         <v>305</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>307</v>
       </c>
       <c r="J50" s="23">
         <v>22</v>
       </c>
       <c r="K50" s="37">
-        <v>570</v>
+        <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I45,0),1)</f>
+        <v>3</v>
       </c>
       <c r="L50" s="38" t="str">
-        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C61,0),1)</f>
-        <v>cdr</v>
+        <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C60,0),1)</f>
+        <v>b</v>
       </c>
       <c r="M50" s="39" t="str">
-        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F61,0),1)</f>
-        <v>.log</v>
-      </c>
-      <c r="N50" s="7" t="s">
+        <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F60,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N50" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O50" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="23">
         <v>1</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="T50" s="23">
         <v>0</v>
       </c>
       <c r="U50" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="W50">
-        <v>332</v>
-      </c>
-      <c r="X50" s="52" t="s">
-        <v>117</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="X50" s="22"/>
       <c r="Y50">
         <v>1</v>
       </c>
@@ -7046,75 +7053,81 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" s="20" customFormat="1" ht="15" spans="1:30">
-      <c r="A51" s="20" t="s">
+    <row r="51" ht="15" spans="1:30">
+      <c r="A51" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="23">
+        <v>22</v>
+      </c>
+      <c r="C51" s="23">
+        <v>2</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="B51" s="36">
-        <v>25</v>
-      </c>
-      <c r="C51" s="36">
-        <v>2</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="20" t="s">
+      <c r="H51" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="I51" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="J51" s="23">
+        <v>22</v>
+      </c>
+      <c r="K51" s="37">
+        <v>570</v>
+      </c>
+      <c r="L51" s="38" t="str">
+        <f t="array" ref="L51">INDEX(Sheet2!$B$2:$C$21,MATCH(G51,Sheet2!$C$2:C61,0),1)</f>
+        <v>cdr</v>
+      </c>
+      <c r="M51" s="39" t="str">
+        <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F61,0),1)</f>
+        <v>.log</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="23">
+        <v>0</v>
+      </c>
+      <c r="P51" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="23">
+        <v>0</v>
+      </c>
+      <c r="R51" s="23">
+        <v>1</v>
+      </c>
+      <c r="S51" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="J51" s="36">
-        <v>25</v>
-      </c>
-      <c r="K51" s="36">
-        <v>73</v>
-      </c>
-      <c r="L51" s="49">
-        <v>20</v>
-      </c>
-      <c r="M51" s="50"/>
-      <c r="N51" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O51" s="36">
-        <v>0</v>
-      </c>
-      <c r="P51" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="36">
-        <v>1</v>
-      </c>
-      <c r="R51" s="36">
-        <v>1</v>
-      </c>
-      <c r="S51" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="T51" s="36">
-        <v>0</v>
-      </c>
-      <c r="U51" s="36">
-        <v>0</v>
-      </c>
-      <c r="V51" s="20" t="s">
-        <v>316</v>
+      <c r="T51" s="23">
+        <v>0</v>
+      </c>
+      <c r="U51" s="23">
+        <v>0</v>
+      </c>
+      <c r="V51" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="W51">
-        <v>333</v>
-      </c>
-      <c r="X51" s="22"/>
+        <v>332</v>
+      </c>
+      <c r="X51" s="52" t="s">
+        <v>118</v>
+      </c>
       <c r="Y51">
         <v>1</v>
       </c>
@@ -7134,77 +7147,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:30">
-      <c r="A52" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B52" s="23">
+    <row r="52" s="20" customFormat="1" ht="15" spans="1:30">
+      <c r="A52" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="36">
         <v>25</v>
       </c>
-      <c r="C52" s="23">
-        <v>1</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="22" t="s">
+      <c r="C52" s="36">
+        <v>2</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="I52" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="G52" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="22" t="s">
+      <c r="J52" s="36">
+        <v>25</v>
+      </c>
+      <c r="K52" s="36">
+        <v>73</v>
+      </c>
+      <c r="L52" s="49">
+        <v>20</v>
+      </c>
+      <c r="M52" s="50"/>
+      <c r="N52" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="36">
+        <v>0</v>
+      </c>
+      <c r="P52" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="36">
+        <v>1</v>
+      </c>
+      <c r="R52" s="36">
+        <v>1</v>
+      </c>
+      <c r="S52" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="T52" s="36">
+        <v>0</v>
+      </c>
+      <c r="U52" s="36">
+        <v>0</v>
+      </c>
+      <c r="V52" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="J52" s="23">
-        <v>25</v>
-      </c>
-      <c r="K52" s="37">
-        <f t="array" ref="K52">INDEX(Sheet2!$H$2:$I$21,MATCH(G52,Sheet2!$I$2:I52,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L52" s="38">
-        <v>2</v>
-      </c>
-      <c r="M52" s="39" t="str">
-        <f t="array" ref="M52">INDEX(Sheet2!$E$2:$F$21,MATCH(G52,Sheet2!$F$2:F67,0),1)</f>
-        <v>.dat</v>
-      </c>
-      <c r="N52" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O52" s="23">
-        <v>0</v>
-      </c>
-      <c r="P52" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="23">
-        <v>1</v>
-      </c>
-      <c r="R52" s="23">
-        <v>1</v>
-      </c>
-      <c r="S52" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="T52" s="23">
-        <v>0</v>
-      </c>
-      <c r="U52" s="23">
-        <v>0</v>
-      </c>
-      <c r="V52" s="22" t="s">
-        <v>316</v>
-      </c>
       <c r="W52">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X52" s="22"/>
       <c r="Y52">
@@ -7228,45 +7237,45 @@
     </row>
     <row r="53" ht="15" spans="1:30">
       <c r="A53" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B53" s="23">
+        <v>25</v>
+      </c>
+      <c r="C53" s="23">
+        <v>1</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="B53" s="23">
-        <v>27</v>
-      </c>
-      <c r="C53" s="23">
+      <c r="F53" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="J53" s="23">
+        <v>25</v>
+      </c>
+      <c r="K53" s="37">
+        <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I52,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L53" s="38">
         <v>2</v>
       </c>
-      <c r="D53" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="J53" s="23">
-        <v>27</v>
-      </c>
-      <c r="K53" s="37">
-        <v>29</v>
-      </c>
-      <c r="L53" s="38" t="str">
-        <f t="array" ref="L53">INDEX(Sheet2!$B$2:$C$21,MATCH(G53,Sheet2!$C$2:C70,0),1)</f>
-        <v>cdr</v>
-      </c>
       <c r="M53" s="39" t="str">
-        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F70,0),1)</f>
-        <v>.csv</v>
+        <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F67,0),1)</f>
+        <v>.dat</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>36</v>
@@ -7284,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="22" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="T53" s="23">
         <v>0</v>
@@ -7293,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="V53" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W53">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X53" s="22"/>
       <c r="Y53">
@@ -7320,16 +7329,16 @@
     </row>
     <row r="54" ht="15" spans="1:30">
       <c r="A54" s="22" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B54" s="23">
         <v>27</v>
       </c>
       <c r="C54" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>326</v>
@@ -7338,7 +7347,7 @@
         <v>327</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>328</v>
@@ -7350,33 +7359,33 @@
         <v>27</v>
       </c>
       <c r="K54" s="37">
-        <f t="array" ref="K54">INDEX(Sheet2!$H$2:$I$21,MATCH(G54,Sheet2!$I$2:I56,0),1)</f>
-        <v>3</v>
-      </c>
-      <c r="L54" s="51">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="L54" s="38" t="str">
+        <f t="array" ref="L54">INDEX(Sheet2!$B$2:$C$21,MATCH(G54,Sheet2!$C$2:C70,0),1)</f>
+        <v>cdr</v>
       </c>
       <c r="M54" s="39" t="str">
-        <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F71,0),1)</f>
-        <v>.dat</v>
+        <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F70,0),1)</f>
+        <v>.csv</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O54" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="23">
         <v>1</v>
       </c>
       <c r="R54" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="22" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="T54" s="23">
         <v>0</v>
@@ -7385,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="W54">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X54" s="22"/>
       <c r="Y54">
@@ -7407,6 +7416,98 @@
         <v>500</v>
       </c>
       <c r="AD54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:30">
+      <c r="A55" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B55" s="23">
+        <v>27</v>
+      </c>
+      <c r="C55" s="23">
+        <v>1</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="J55" s="23">
+        <v>27</v>
+      </c>
+      <c r="K55" s="37">
+        <f t="array" ref="K55">INDEX(Sheet2!$H$2:$I$21,MATCH(G55,Sheet2!$I$2:I56,0),1)</f>
+        <v>3</v>
+      </c>
+      <c r="L55" s="51">
+        <v>2</v>
+      </c>
+      <c r="M55" s="39" t="str">
+        <f t="array" ref="M55">INDEX(Sheet2!$E$2:$F$21,MATCH(G55,Sheet2!$F$2:F71,0),1)</f>
+        <v>.dat</v>
+      </c>
+      <c r="N55" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" s="23">
+        <v>1</v>
+      </c>
+      <c r="P55" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="23">
+        <v>1</v>
+      </c>
+      <c r="R55" s="23">
+        <v>0</v>
+      </c>
+      <c r="S55" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="T55" s="23">
+        <v>0</v>
+      </c>
+      <c r="U55" s="23">
+        <v>0</v>
+      </c>
+      <c r="V55" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="W55">
+        <v>336</v>
+      </c>
+      <c r="X55" s="22"/>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>30</v>
+      </c>
+      <c r="AB55">
+        <v>70000</v>
+      </c>
+      <c r="AC55">
+        <v>500</v>
+      </c>
+      <c r="AD55">
         <v>10</v>
       </c>
     </row>
@@ -7439,24 +7540,24 @@
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7478,14 +7579,14 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>68</v>
@@ -7500,14 +7601,14 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>41</v>
@@ -7522,14 +7623,14 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>49</v>
@@ -7544,36 +7645,36 @@
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>32</v>
@@ -7588,36 +7689,36 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="2:9">
       <c r="B7" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>62</v>
@@ -7632,24 +7733,24 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="2:9">
       <c r="B9" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>113</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="2:9">
@@ -7657,41 +7758,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="2:9">
       <c r="B11" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="2:9">
@@ -7799,7 +7900,7 @@
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1" spans="3:3">
       <c r="C25" s="14" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7200"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -2420,10 +2420,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2636,7 +2636,7 @@
         <v>500</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:30">
@@ -2729,7 +2729,7 @@
         <v>500</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:30">
@@ -2821,7 +2821,7 @@
         <v>500</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:30">
@@ -2909,7 +2909,7 @@
         <v>500</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:30">
@@ -3002,7 +3002,7 @@
         <v>500</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:30">
@@ -3095,7 +3095,7 @@
         <v>500</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="1" ht="15" spans="1:30">
@@ -3187,7 +3187,7 @@
         <v>500</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:30">
@@ -3280,7 +3280,7 @@
         <v>500</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:30">
@@ -3368,7 +3368,7 @@
         <v>500</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:30">
@@ -3457,7 +3457,7 @@
         <v>500</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:30">
@@ -3548,7 +3548,7 @@
         <v>500</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" s="16" customFormat="1" ht="15" spans="1:30">
@@ -3640,7 +3640,7 @@
         <v>500</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:30">
@@ -3733,7 +3733,7 @@
         <v>500</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:30">
@@ -3825,7 +3825,7 @@
         <v>500</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:30">
@@ -3917,7 +3917,7 @@
         <v>500</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:30">
@@ -4009,7 +4009,7 @@
         <v>500</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:30">
@@ -4097,7 +4097,7 @@
         <v>500</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" s="17" customFormat="1" ht="15" spans="1:30">
@@ -4189,7 +4189,7 @@
         <v>500</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" s="17" customFormat="1" ht="15" spans="1:30">
@@ -4281,7 +4281,7 @@
         <v>500</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:30">
@@ -4374,7 +4374,7 @@
         <v>500</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:30">
@@ -4467,7 +4467,7 @@
         <v>500</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:30">
@@ -4560,7 +4560,7 @@
         <v>500</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:30">
@@ -4652,7 +4652,7 @@
         <v>500</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
@@ -4744,7 +4744,7 @@
         <v>500</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" s="18" customFormat="1" ht="15" spans="1:30">
@@ -4837,7 +4837,7 @@
         <v>500</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:30">
@@ -4930,7 +4930,7 @@
         <v>500</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:30">
@@ -5023,7 +5023,7 @@
         <v>500</v>
       </c>
       <c r="AD28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" s="19" customFormat="1" ht="15" spans="1:30">
@@ -5115,7 +5115,7 @@
         <v>500</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:30">
@@ -5206,7 +5206,7 @@
         <v>500</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:30">
@@ -5299,7 +5299,7 @@
         <v>500</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:30">
@@ -5390,7 +5390,7 @@
         <v>500</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" s="19" customFormat="1" ht="15" spans="1:30">
@@ -5482,7 +5482,7 @@
         <v>500</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:30">
@@ -5573,7 +5573,7 @@
         <v>500</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:30">
@@ -5666,7 +5666,7 @@
         <v>500</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:30">
@@ -5758,7 +5758,7 @@
         <v>500</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:30">
@@ -5850,7 +5850,7 @@
         <v>500</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:30">
@@ -5942,7 +5942,7 @@
         <v>500</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:30">
@@ -6032,7 +6032,7 @@
         <v>500</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:30">
@@ -6124,7 +6124,7 @@
         <v>500</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:30">
@@ -6217,7 +6217,7 @@
         <v>500</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:30">
@@ -6309,7 +6309,7 @@
         <v>500</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:30">
@@ -6401,7 +6401,7 @@
         <v>500</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:30">
@@ -6494,7 +6494,7 @@
         <v>500</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:30">
@@ -6587,7 +6587,7 @@
         <v>500</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:30">
@@ -6679,7 +6679,7 @@
         <v>500</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:30">
@@ -6772,7 +6772,7 @@
         <v>500</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:30">
@@ -6865,7 +6865,7 @@
         <v>500</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" s="15" customFormat="1" ht="15" spans="1:30">
@@ -6957,7 +6957,7 @@
         <v>500</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:30">
@@ -7050,7 +7050,7 @@
         <v>500</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:30">
@@ -7144,7 +7144,7 @@
         <v>500</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" s="20" customFormat="1" ht="15" spans="1:30">
@@ -7232,7 +7232,7 @@
         <v>500</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:30">
@@ -7324,7 +7324,7 @@
         <v>500</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:30">
@@ -7416,7 +7416,7 @@
         <v>500</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:30">
@@ -7508,7 +7508,7 @@
         <v>500</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -2420,10 +2420,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AD9" sqref="AD9"/>
+      <selection pane="bottomLeft" activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3810,10 +3810,10 @@
         <v>118</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>30</v>
@@ -3902,10 +3902,10 @@
         <v>118</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>30</v>
@@ -4174,10 +4174,10 @@
         <v>118</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>30</v>
@@ -4266,10 +4266,10 @@
         <v>118</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>30</v>
@@ -7129,10 +7129,10 @@
         <v>118</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>30</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -2420,10 +2420,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y54" sqref="Y54"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2593,10 +2593,10 @@
         <v>36</v>
       </c>
       <c r="O2" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="23">
         <v>1</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -2423,7 +2423,7 @@
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>4</v>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>38</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -2420,10 +2420,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>4</v>
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>38</v>
@@ -2714,10 +2714,10 @@
       </c>
       <c r="X3" s="22"/>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>30</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="351">
   <si>
     <t>operator</t>
   </si>
@@ -2420,10 +2420,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z3" sqref="Z3"/>
+      <selection pane="bottomLeft" activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2778,10 +2778,10 @@
         <v>36</v>
       </c>
       <c r="O4" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="23">
         <v>1</v>
@@ -2866,10 +2866,10 @@
         <v>36</v>
       </c>
       <c r="O5" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="23">
         <v>1</v>
@@ -2894,13 +2894,13 @@
       </c>
       <c r="X5" s="22"/>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AB5">
         <v>70000</v>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="X32" s="22"/>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -6451,10 +6451,10 @@
         <v>36</v>
       </c>
       <c r="O44" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="23">
         <v>1</v>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AB44">
         <v>70000</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="15" t="s">
         <v>297</v>
@@ -7099,10 +7099,10 @@
         <v>36</v>
       </c>
       <c r="O51" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="23">
         <v>0</v>
@@ -7129,10 +7129,10 @@
         <v>118</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>30</v>
@@ -7361,9 +7361,8 @@
       <c r="K54" s="37">
         <v>29</v>
       </c>
-      <c r="L54" s="38" t="str">
-        <f t="array" ref="L54">INDEX(Sheet2!$B$2:$C$21,MATCH(G54,Sheet2!$C$2:C70,0),1)</f>
-        <v>cdr</v>
+      <c r="L54" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="M54" s="39" t="str">
         <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F70,0),1)</f>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="352">
   <si>
     <t>operator</t>
   </si>
@@ -626,7 +626,13 @@
     <t>j:\telcobright\vault\resources\cdr\mothertelecom\ip</t>
   </si>
   <si>
-    <t>vaultDialogic</t>
+    <t>C_sdr</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>vault.Dialogic</t>
   </si>
   <si>
     <t>10.154.150.55</t>
@@ -1056,9 +1062,6 @@
   </si>
   <si>
     <t>cdr</t>
-  </si>
-  <si>
-    <t>.csv</t>
   </si>
   <si>
     <t>CF</t>
@@ -2420,10 +2423,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W54" sqref="W54"/>
+      <selection pane="bottomLeft" activeCell="AG49" sqref="AG49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2593,10 +2596,10 @@
         <v>36</v>
       </c>
       <c r="O2" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="23">
         <v>1</v>
@@ -2621,7 +2624,7 @@
       </c>
       <c r="X2" s="22"/>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -2686,10 +2689,10 @@
         <v>44</v>
       </c>
       <c r="O3" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="23">
         <v>1</v>
@@ -2778,10 +2781,10 @@
         <v>36</v>
       </c>
       <c r="O4" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23">
         <v>1</v>
@@ -2806,7 +2809,7 @@
       </c>
       <c r="X4" s="22"/>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -2866,10 +2869,10 @@
         <v>36</v>
       </c>
       <c r="O5" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="23">
         <v>1</v>
@@ -2894,7 +2897,7 @@
       </c>
       <c r="X5" s="22"/>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -3172,10 +3175,10 @@
       </c>
       <c r="X8" s="22"/>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>30</v>
@@ -3625,7 +3628,7 @@
       </c>
       <c r="X13" s="22"/>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -3966,10 +3969,10 @@
         <v>36</v>
       </c>
       <c r="O17" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="23">
         <v>1</v>
@@ -3994,7 +3997,7 @@
       </c>
       <c r="X17" s="22"/>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -4545,7 +4548,7 @@
       </c>
       <c r="X23" s="22"/>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -4609,10 +4612,10 @@
         <v>36</v>
       </c>
       <c r="O24" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="23">
         <v>1</v>
@@ -5241,25 +5244,22 @@
         <v>24</v>
       </c>
       <c r="K31" s="37">
-        <f t="array" ref="K31">INDEX(Sheet2!$H$2:$I$21,MATCH(G31,Sheet2!$I$2:I49,0),1)</f>
-        <v>27</v>
-      </c>
-      <c r="L31" s="38" t="str">
-        <f t="array" ref="L31">INDEX(Sheet2!$B$2:$C$21,MATCH(G31,Sheet2!$C$2:C64,0),1)</f>
-        <v>sdr</v>
-      </c>
-      <c r="M31" s="39" t="str">
-        <f t="array" ref="M31">INDEX(Sheet2!$E$2:$F$21,MATCH(G31,Sheet2!$F$2:F64,0),1)</f>
-        <v>.gz</v>
+        <v>33</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>203</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O31" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="23">
         <v>0</v>
@@ -5268,10 +5268,10 @@
         <v>1</v>
       </c>
       <c r="S31" s="22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T31" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="23">
         <v>0</v>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="X31" s="22"/>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -5316,19 +5316,19 @@
         <v>38</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J32" s="23">
         <v>24</v>
@@ -5347,10 +5347,10 @@
         <v>36</v>
       </c>
       <c r="O32" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="23">
         <v>1</v>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="T32" s="23">
         <v>0</v>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="X32" s="22"/>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="33" s="19" customFormat="1" ht="15" spans="1:30">
       <c r="A33" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B33" s="35">
         <v>23</v>
@@ -5407,19 +5407,19 @@
         <v>4</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J33" s="35">
         <v>23</v>
@@ -5427,9 +5427,8 @@
       <c r="K33" s="35">
         <v>29</v>
       </c>
-      <c r="L33" s="47" t="str">
-        <f t="array" ref="L33">INDEX(Sheet2!$B$2:$C$21,MATCH(G33,Sheet2!$C$2:C62,0),1)</f>
-        <v>cdr</v>
+      <c r="L33" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="M33" s="48" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F62,0),1)</f>
@@ -5451,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T33" s="35">
         <v>0</v>
@@ -5460,14 +5459,14 @@
         <v>0</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="W33">
         <v>314</v>
       </c>
       <c r="X33" s="22"/>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>1</v>
@@ -5487,7 +5486,7 @@
     </row>
     <row r="34" ht="15" spans="1:30">
       <c r="A34" s="22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B34" s="23">
         <v>23</v>
@@ -5499,19 +5498,19 @@
         <v>38</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J34" s="23">
         <v>23</v>
@@ -5530,10 +5529,10 @@
         <v>36</v>
       </c>
       <c r="O34" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="23">
         <v>1</v>
@@ -5542,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T34" s="23">
         <v>0</v>
@@ -5551,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="W34">
         <v>315</v>
@@ -5578,7 +5577,7 @@
     </row>
     <row r="35" ht="15" spans="1:30">
       <c r="A35" s="22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B35" s="23">
         <v>15</v>
@@ -5590,19 +5589,19 @@
         <v>4</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J35" s="23">
         <v>15</v>
@@ -5635,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="T35" s="23">
         <v>0</v>
@@ -5644,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="W35">
         <v>316</v>
@@ -5671,7 +5670,7 @@
     </row>
     <row r="36" ht="15" spans="1:30">
       <c r="A36" s="22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B36" s="23">
         <v>15</v>
@@ -5683,19 +5682,19 @@
         <v>38</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J36" s="23">
         <v>15</v>
@@ -5705,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M36" s="39" t="str">
         <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F45,0),1)</f>
@@ -5736,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="W36">
         <v>317</v>
@@ -5763,7 +5762,7 @@
     </row>
     <row r="37" ht="15" spans="1:30">
       <c r="A37" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B37" s="23">
         <v>16</v>
@@ -5775,19 +5774,19 @@
         <v>4</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J37" s="23">
         <v>16</v>
@@ -5828,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W37">
         <v>318</v>
@@ -5855,7 +5854,7 @@
     </row>
     <row r="38" ht="15" spans="1:30">
       <c r="A38" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B38" s="23">
         <v>16</v>
@@ -5867,19 +5866,19 @@
         <v>38</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J38" s="23">
         <v>16</v>
@@ -5889,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M38" s="39" t="str">
         <f t="array" ref="M38">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G38,[1]Sheet2!$F$2:F47,0),1)</f>
@@ -5911,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="T38" s="23">
         <v>0</v>
@@ -5920,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W38">
         <v>319</v>
@@ -5947,7 +5946,7 @@
     </row>
     <row r="39" ht="15" spans="1:30">
       <c r="A39" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B39" s="23">
         <v>17</v>
@@ -5959,19 +5958,19 @@
         <v>4</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J39" s="23">
         <v>17</v>
@@ -5983,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>36</v>
@@ -6001,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T39" s="23">
         <v>0</v>
@@ -6010,14 +6009,14 @@
         <v>0</v>
       </c>
       <c r="V39" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="W39">
         <v>320</v>
       </c>
       <c r="X39" s="22"/>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -6037,7 +6036,7 @@
     </row>
     <row r="40" ht="15" spans="1:30">
       <c r="A40" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B40" s="23">
         <v>17</v>
@@ -6049,19 +6048,19 @@
         <v>38</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>161</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J40" s="23">
         <v>17</v>
@@ -6071,7 +6070,7 @@
         <v>17</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M40" s="39" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F49,0),1)</f>
@@ -6093,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="T40" s="23">
         <v>0</v>
@@ -6102,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="W40">
         <v>321</v>
@@ -6129,7 +6128,7 @@
     </row>
     <row r="41" ht="15" spans="1:30">
       <c r="A41" s="22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B41" s="23">
         <v>20</v>
@@ -6141,19 +6140,19 @@
         <v>4</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J41" s="23">
         <v>20</v>
@@ -6186,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="T41" s="23">
         <v>0</v>
@@ -6195,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W41">
         <v>322</v>
@@ -6222,7 +6221,7 @@
     </row>
     <row r="42" ht="15" spans="1:30">
       <c r="A42" s="22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B42" s="23">
         <v>20</v>
@@ -6234,19 +6233,19 @@
         <v>38</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J42" s="23">
         <v>20</v>
@@ -6256,7 +6255,7 @@
         <v>3</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M42" s="39" t="str">
         <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F56,0),1)</f>
@@ -6287,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W42">
         <v>323</v>
@@ -6314,7 +6313,7 @@
     </row>
     <row r="43" ht="15" spans="1:30">
       <c r="A43" s="22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B43" s="23">
         <v>21</v>
@@ -6326,19 +6325,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J43" s="23">
         <v>21</v>
@@ -6379,17 +6378,17 @@
         <v>0</v>
       </c>
       <c r="V43" s="22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="W43">
         <v>324</v>
       </c>
       <c r="X43" s="22"/>
       <c r="Y43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>30</v>
@@ -6398,7 +6397,7 @@
         <v>70000</v>
       </c>
       <c r="AC43">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AD43">
         <v>5</v>
@@ -6406,7 +6405,7 @@
     </row>
     <row r="44" ht="15" spans="1:30">
       <c r="A44" s="22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B44" s="23">
         <v>21</v>
@@ -6418,19 +6417,19 @@
         <v>38</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J44" s="23">
         <v>21</v>
@@ -6472,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="W44">
         <v>325</v>
@@ -6499,7 +6498,7 @@
     </row>
     <row r="45" ht="15" spans="1:30">
       <c r="A45" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B45" s="23">
         <v>19</v>
@@ -6511,19 +6510,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J45" s="23">
         <v>19</v>
@@ -6565,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="W45">
         <v>326</v>
@@ -6592,7 +6591,7 @@
     </row>
     <row r="46" ht="15" spans="1:30">
       <c r="A46" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B46" s="23">
         <v>19</v>
@@ -6604,19 +6603,19 @@
         <v>38</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J46" s="23">
         <v>19</v>
@@ -6626,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M46" s="39" t="str">
         <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F54,0),1)</f>
@@ -6648,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T46" s="23">
         <v>0</v>
@@ -6657,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="W46">
         <v>327</v>
@@ -6684,7 +6683,7 @@
     </row>
     <row r="47" ht="15" spans="1:30">
       <c r="A47" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B47" s="23">
         <v>26</v>
@@ -6696,19 +6695,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J47" s="23">
         <v>26</v>
@@ -6750,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="W47">
         <v>328</v>
@@ -6777,7 +6776,7 @@
     </row>
     <row r="48" ht="15" spans="1:30">
       <c r="A48" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B48" s="23">
         <v>26</v>
@@ -6789,19 +6788,19 @@
         <v>38</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>161</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J48" s="23">
         <v>26</v>
@@ -6834,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="22" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="T48" s="23">
         <v>0</v>
@@ -6843,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="W48">
         <v>329</v>
@@ -6870,7 +6869,7 @@
     </row>
     <row r="49" s="15" customFormat="1" ht="15" spans="1:30">
       <c r="A49" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B49" s="25">
         <v>22</v>
@@ -6882,19 +6881,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J49" s="25">
         <v>22</v>
@@ -6935,14 +6934,14 @@
         <v>0</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="W49">
         <v>330</v>
       </c>
       <c r="X49" s="22"/>
       <c r="Y49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -6962,7 +6961,7 @@
     </row>
     <row r="50" ht="15" spans="1:30">
       <c r="A50" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B50" s="23">
         <v>22</v>
@@ -6974,19 +6973,19 @@
         <v>38</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J50" s="23">
         <v>22</v>
@@ -7019,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="T50" s="23">
         <v>0</v>
@@ -7028,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="V50" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="W50">
         <v>331</v>
@@ -7055,7 +7054,7 @@
     </row>
     <row r="51" ht="15" spans="1:30">
       <c r="A51" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B51" s="23">
         <v>22</v>
@@ -7067,19 +7066,19 @@
         <v>38</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J51" s="23">
         <v>22</v>
@@ -7111,7 +7110,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T51" s="23">
         <v>0</v>
@@ -7120,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="W51">
         <v>332</v>
@@ -7149,7 +7148,7 @@
     </row>
     <row r="52" s="20" customFormat="1" ht="15" spans="1:30">
       <c r="A52" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B52" s="36">
         <v>25</v>
@@ -7161,19 +7160,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J52" s="36">
         <v>25</v>
@@ -7201,7 +7200,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="T52" s="36">
         <v>0</v>
@@ -7210,14 +7209,14 @@
         <v>0</v>
       </c>
       <c r="V52" s="20" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W52">
         <v>333</v>
       </c>
       <c r="X52" s="22"/>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -7237,7 +7236,7 @@
     </row>
     <row r="53" ht="15" spans="1:30">
       <c r="A53" s="22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B53" s="23">
         <v>25</v>
@@ -7249,19 +7248,19 @@
         <v>38</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J53" s="23">
         <v>25</v>
@@ -7281,10 +7280,10 @@
         <v>36</v>
       </c>
       <c r="O53" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="23">
         <v>1</v>
@@ -7293,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="T53" s="23">
         <v>0</v>
@@ -7302,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="22" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W53">
         <v>334</v>
@@ -7329,7 +7328,7 @@
     </row>
     <row r="54" ht="15" spans="1:30">
       <c r="A54" s="22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B54" s="23">
         <v>27</v>
@@ -7341,19 +7340,19 @@
         <v>4</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J54" s="23">
         <v>27</v>
@@ -7384,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="S54" s="22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T54" s="23">
         <v>0</v>
@@ -7393,14 +7392,14 @@
         <v>0</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W54">
         <v>335</v>
       </c>
       <c r="X54" s="22"/>
       <c r="Y54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -7420,7 +7419,7 @@
     </row>
     <row r="55" ht="15" spans="1:30">
       <c r="A55" s="22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B55" s="23">
         <v>27</v>
@@ -7432,19 +7431,19 @@
         <v>38</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J55" s="23">
         <v>27</v>
@@ -7476,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="T55" s="23">
         <v>0</v>
@@ -7485,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W55">
         <v>336</v>
@@ -7539,24 +7538,24 @@
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7578,14 +7577,14 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>68</v>
@@ -7600,14 +7599,14 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>41</v>
@@ -7622,14 +7621,14 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>49</v>
@@ -7644,14 +7643,14 @@
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>161</v>
@@ -7666,14 +7665,14 @@
     </row>
     <row r="6" ht="12.75" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>32</v>
@@ -7688,36 +7687,36 @@
     </row>
     <row r="7" ht="12.75" customHeight="1" spans="2:9">
       <c r="B7" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>62</v>
@@ -7732,24 +7731,24 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="2:9">
       <c r="B9" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="2:9">
@@ -7757,41 +7756,41 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="2:9">
       <c r="B11" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11">
         <v>39</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="2:9">
@@ -7899,7 +7898,7 @@
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1" spans="3:3">
       <c r="C25" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1"/>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowWidth="23040" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -2423,10 +2423,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AG49" sqref="AG49"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3955,7 +3955,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="37">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L17" s="38" t="str">
         <f t="array" ref="L17">INDEX(Sheet2!$B$2:$C$21,MATCH(G17,Sheet2!$C$2:C29,0),1)</f>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -2423,10 +2423,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="31">
         <v>1</v>
@@ -3628,10 +3628,10 @@
       </c>
       <c r="X13" s="22"/>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>30</v>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="23">
         <v>1</v>
@@ -3813,10 +3813,10 @@
         <v>118</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>30</v>
@@ -3905,10 +3905,10 @@
         <v>118</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>30</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -2423,10 +2423,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AB13" sqref="AB13"/>
+      <selection pane="bottomLeft" activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2438,16 +2438,17 @@
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="67" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="15.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="14.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="8.57142857142857" customWidth="1"/>
-    <col min="15" max="15" width="15.5714285714286" customWidth="1"/>
-    <col min="16" max="17" width="18.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="12.5714285714286" customWidth="1"/>
+    <col min="13" max="13" width="16.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="24.2857142857143" customWidth="1"/>
+    <col min="15" max="15" width="16.7142857142857" customWidth="1"/>
+    <col min="16" max="17" width="20" customWidth="1"/>
     <col min="18" max="18" width="16.8571428571429" customWidth="1"/>
     <col min="19" max="19" width="43" customWidth="1"/>
     <col min="20" max="20" width="19.8571428571429" customWidth="1"/>
-    <col min="21" max="21" width="11.2857142857143" customWidth="1"/>
+    <col min="21" max="21" width="12.1428571428571" customWidth="1"/>
     <col min="22" max="22" width="25.4285714285714" customWidth="1"/>
     <col min="23" max="23" width="31.7142857142857" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
@@ -3606,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="31">
         <v>1</v>
@@ -3631,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>30</v>
@@ -3699,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="23">
         <v>1</v>
@@ -6385,10 +6386,10 @@
       </c>
       <c r="X43" s="22"/>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>30</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -1790,7 +1790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1904,6 +1904,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2423,10 +2424,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AT13" sqref="AT13"/>
+      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2624,8 +2625,8 @@
         <v>285</v>
       </c>
       <c r="X2" s="22"/>
-      <c r="Y2">
-        <v>0</v>
+      <c r="Y2" s="53">
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -2717,11 +2718,11 @@
         <v>286</v>
       </c>
       <c r="X3" s="22"/>
-      <c r="Y3">
-        <v>0</v>
+      <c r="Y3" s="53">
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>30</v>
@@ -2809,8 +2810,8 @@
         <v>287</v>
       </c>
       <c r="X4" s="22"/>
-      <c r="Y4">
-        <v>0</v>
+      <c r="Y4" s="53">
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -2897,14 +2898,14 @@
         <v>288</v>
       </c>
       <c r="X5" s="22"/>
-      <c r="Y5">
+      <c r="Y5" s="53">
         <v>1</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB5">
         <v>70000</v>
@@ -2990,7 +2991,7 @@
         <v>289</v>
       </c>
       <c r="X6" s="22"/>
-      <c r="Y6">
+      <c r="Y6" s="53">
         <v>1</v>
       </c>
       <c r="Z6">
@@ -3083,7 +3084,7 @@
         <v>290</v>
       </c>
       <c r="X7" s="22"/>
-      <c r="Y7">
+      <c r="Y7" s="53">
         <v>1</v>
       </c>
       <c r="Z7">
@@ -3175,11 +3176,11 @@
         <v>291</v>
       </c>
       <c r="X8" s="22"/>
-      <c r="Y8">
-        <v>0</v>
+      <c r="Y8" s="53">
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>30</v>
@@ -3268,7 +3269,7 @@
         <v>292</v>
       </c>
       <c r="X9" s="22"/>
-      <c r="Y9">
+      <c r="Y9" s="53">
         <v>1</v>
       </c>
       <c r="Z9">
@@ -3356,7 +3357,7 @@
         <v>293</v>
       </c>
       <c r="X10" s="22"/>
-      <c r="Y10">
+      <c r="Y10" s="53">
         <v>1</v>
       </c>
       <c r="Z10">
@@ -3445,7 +3446,7 @@
         <v>294</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11">
+      <c r="Y11" s="53">
         <v>1</v>
       </c>
       <c r="Z11">
@@ -3536,7 +3537,7 @@
         <v>295</v>
       </c>
       <c r="X12" s="22"/>
-      <c r="Y12">
+      <c r="Y12" s="53">
         <v>1</v>
       </c>
       <c r="Z12">
@@ -3628,7 +3629,7 @@
         <v>296</v>
       </c>
       <c r="X13" s="22"/>
-      <c r="Y13">
+      <c r="Y13" s="53">
         <v>1</v>
       </c>
       <c r="Z13">
@@ -3721,7 +3722,7 @@
         <v>297</v>
       </c>
       <c r="X14" s="22"/>
-      <c r="Y14">
+      <c r="Y14" s="53">
         <v>1</v>
       </c>
       <c r="Z14">
@@ -3813,7 +3814,7 @@
       <c r="X15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="53">
         <v>1</v>
       </c>
       <c r="Z15">
@@ -3905,7 +3906,7 @@
       <c r="X16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="53">
         <v>1</v>
       </c>
       <c r="Z16">
@@ -3997,8 +3998,8 @@
         <v>299</v>
       </c>
       <c r="X17" s="22"/>
-      <c r="Y17">
-        <v>0</v>
+      <c r="Y17" s="53">
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -4085,7 +4086,7 @@
         <v>300</v>
       </c>
       <c r="X18" s="22"/>
-      <c r="Y18">
+      <c r="Y18" s="53">
         <v>1</v>
       </c>
       <c r="Z18">
@@ -4177,11 +4178,11 @@
       <c r="X19" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y19">
-        <v>0</v>
+      <c r="Y19" s="53">
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>30</v>
@@ -4269,11 +4270,11 @@
       <c r="X20" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
+      <c r="Y20" s="53">
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>30</v>
@@ -4362,7 +4363,7 @@
         <v>302</v>
       </c>
       <c r="X21" s="22"/>
-      <c r="Y21">
+      <c r="Y21" s="53">
         <v>1</v>
       </c>
       <c r="Z21">
@@ -4455,7 +4456,7 @@
         <v>303</v>
       </c>
       <c r="X22" s="22"/>
-      <c r="Y22">
+      <c r="Y22" s="53">
         <v>1</v>
       </c>
       <c r="Z22">
@@ -4548,8 +4549,8 @@
         <v>304</v>
       </c>
       <c r="X23" s="22"/>
-      <c r="Y23">
-        <v>0</v>
+      <c r="Y23" s="53">
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -4640,7 +4641,7 @@
         <v>305</v>
       </c>
       <c r="X24" s="22"/>
-      <c r="Y24">
+      <c r="Y24" s="53">
         <v>1</v>
       </c>
       <c r="Z24">
@@ -4732,7 +4733,7 @@
         <v>306</v>
       </c>
       <c r="X25" s="22"/>
-      <c r="Y25">
+      <c r="Y25" s="53">
         <v>1</v>
       </c>
       <c r="Z25">
@@ -4825,7 +4826,7 @@
         <v>307</v>
       </c>
       <c r="X26" s="22"/>
-      <c r="Y26">
+      <c r="Y26" s="53">
         <v>1</v>
       </c>
       <c r="Z26">
@@ -4918,7 +4919,7 @@
         <v>308</v>
       </c>
       <c r="X27" s="22"/>
-      <c r="Y27">
+      <c r="Y27" s="53">
         <v>1</v>
       </c>
       <c r="Z27">
@@ -5011,7 +5012,7 @@
         <v>309</v>
       </c>
       <c r="X28" s="22"/>
-      <c r="Y28">
+      <c r="Y28" s="53">
         <v>1</v>
       </c>
       <c r="Z28">
@@ -5103,7 +5104,7 @@
         <v>310</v>
       </c>
       <c r="X29" s="22"/>
-      <c r="Y29">
+      <c r="Y29" s="53">
         <v>1</v>
       </c>
       <c r="Z29">
@@ -5194,7 +5195,7 @@
         <v>311</v>
       </c>
       <c r="X30" s="22"/>
-      <c r="Y30">
+      <c r="Y30" s="53">
         <v>1</v>
       </c>
       <c r="Z30">
@@ -5284,8 +5285,8 @@
         <v>312</v>
       </c>
       <c r="X31" s="22"/>
-      <c r="Y31">
-        <v>0</v>
+      <c r="Y31" s="53">
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -5375,8 +5376,8 @@
         <v>313</v>
       </c>
       <c r="X32" s="22"/>
-      <c r="Y32">
-        <v>0</v>
+      <c r="Y32" s="53">
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -5466,8 +5467,8 @@
         <v>314</v>
       </c>
       <c r="X33" s="22"/>
-      <c r="Y33">
-        <v>0</v>
+      <c r="Y33" s="53">
+        <v>1</v>
       </c>
       <c r="Z33">
         <v>1</v>
@@ -5557,7 +5558,7 @@
         <v>315</v>
       </c>
       <c r="X34" s="22"/>
-      <c r="Y34">
+      <c r="Y34" s="53">
         <v>1</v>
       </c>
       <c r="Z34">
@@ -5650,7 +5651,7 @@
         <v>316</v>
       </c>
       <c r="X35" s="22"/>
-      <c r="Y35">
+      <c r="Y35" s="53">
         <v>1</v>
       </c>
       <c r="Z35">
@@ -5742,7 +5743,7 @@
         <v>317</v>
       </c>
       <c r="X36" s="22"/>
-      <c r="Y36">
+      <c r="Y36" s="53">
         <v>1</v>
       </c>
       <c r="Z36">
@@ -5834,7 +5835,7 @@
         <v>318</v>
       </c>
       <c r="X37" s="22"/>
-      <c r="Y37">
+      <c r="Y37" s="53">
         <v>1</v>
       </c>
       <c r="Z37">
@@ -5926,7 +5927,7 @@
         <v>319</v>
       </c>
       <c r="X38" s="22"/>
-      <c r="Y38">
+      <c r="Y38" s="53">
         <v>1</v>
       </c>
       <c r="Z38">
@@ -6016,8 +6017,8 @@
         <v>320</v>
       </c>
       <c r="X39" s="22"/>
-      <c r="Y39">
-        <v>0</v>
+      <c r="Y39" s="53">
+        <v>1</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -6108,7 +6109,7 @@
         <v>321</v>
       </c>
       <c r="X40" s="22"/>
-      <c r="Y40">
+      <c r="Y40" s="53">
         <v>1</v>
       </c>
       <c r="Z40">
@@ -6201,7 +6202,7 @@
         <v>322</v>
       </c>
       <c r="X41" s="22"/>
-      <c r="Y41">
+      <c r="Y41" s="53">
         <v>1</v>
       </c>
       <c r="Z41">
@@ -6293,7 +6294,7 @@
         <v>323</v>
       </c>
       <c r="X42" s="22"/>
-      <c r="Y42">
+      <c r="Y42" s="53">
         <v>1</v>
       </c>
       <c r="Z42">
@@ -6385,7 +6386,7 @@
         <v>324</v>
       </c>
       <c r="X43" s="22"/>
-      <c r="Y43">
+      <c r="Y43" s="53">
         <v>1</v>
       </c>
       <c r="Z43">
@@ -6478,7 +6479,7 @@
         <v>325</v>
       </c>
       <c r="X44" s="22"/>
-      <c r="Y44">
+      <c r="Y44" s="53">
         <v>1</v>
       </c>
       <c r="Z44">
@@ -6571,7 +6572,7 @@
         <v>326</v>
       </c>
       <c r="X45" s="22"/>
-      <c r="Y45">
+      <c r="Y45" s="53">
         <v>1</v>
       </c>
       <c r="Z45">
@@ -6663,7 +6664,7 @@
         <v>327</v>
       </c>
       <c r="X46" s="22"/>
-      <c r="Y46">
+      <c r="Y46" s="53">
         <v>1</v>
       </c>
       <c r="Z46">
@@ -6756,7 +6757,7 @@
         <v>328</v>
       </c>
       <c r="X47" s="22"/>
-      <c r="Y47">
+      <c r="Y47" s="53">
         <v>1</v>
       </c>
       <c r="Z47">
@@ -6849,7 +6850,7 @@
         <v>329</v>
       </c>
       <c r="X48" s="22"/>
-      <c r="Y48">
+      <c r="Y48" s="53">
         <v>1</v>
       </c>
       <c r="Z48">
@@ -6941,8 +6942,8 @@
         <v>330</v>
       </c>
       <c r="X49" s="22"/>
-      <c r="Y49">
-        <v>0</v>
+      <c r="Y49" s="53">
+        <v>1</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -7034,7 +7035,7 @@
         <v>331</v>
       </c>
       <c r="X50" s="22"/>
-      <c r="Y50">
+      <c r="Y50" s="53">
         <v>1</v>
       </c>
       <c r="Z50">
@@ -7128,7 +7129,7 @@
       <c r="X51" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="Y51">
+      <c r="Y51" s="53">
         <v>1</v>
       </c>
       <c r="Z51">
@@ -7216,8 +7217,8 @@
         <v>333</v>
       </c>
       <c r="X52" s="22"/>
-      <c r="Y52">
-        <v>0</v>
+      <c r="Y52" s="53">
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -7308,7 +7309,7 @@
         <v>334</v>
       </c>
       <c r="X53" s="22"/>
-      <c r="Y53">
+      <c r="Y53" s="53">
         <v>1</v>
       </c>
       <c r="Z53">
@@ -7399,8 +7400,8 @@
         <v>335</v>
       </c>
       <c r="X54" s="22"/>
-      <c r="Y54">
-        <v>0</v>
+      <c r="Y54" s="53">
+        <v>1</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -7491,7 +7492,7 @@
         <v>336</v>
       </c>
       <c r="X55" s="22"/>
-      <c r="Y55">
+      <c r="Y55" s="53">
         <v>1</v>
       </c>
       <c r="Z55">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -2424,10 +2424,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomLeft" activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6943,10 +6943,10 @@
       </c>
       <c r="X49" s="22"/>
       <c r="Y49" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>30</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -809,9 +809,6 @@
     <t>i:\telcobright\vault\resources\cdr\sheba\ip</t>
   </si>
   <si>
-    <t>sheba_10.255.200.51_REVE</t>
-  </si>
-  <si>
     <t>10.154.150.51</t>
   </si>
   <si>
@@ -824,238 +821,241 @@
     <t>i:\telcobright\vault\resources\cdr\sheba\tdm</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>softex</t>
+  </si>
+  <si>
+    <t>10.255.200.52</t>
+  </si>
+  <si>
+    <t>softex_ip</t>
+  </si>
+  <si>
+    <t>8B^3j;Np7Qm@vwG*</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\softex\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.52</t>
+  </si>
+  <si>
+    <t>softex_tdm</t>
+  </si>
+  <si>
+    <t>eof4FT20^lUL</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\softex\tdm</t>
+  </si>
+  <si>
+    <t>srTelecom</t>
+  </si>
+  <si>
+    <t>10.255.200.35</t>
+  </si>
+  <si>
+    <t>srTelecom_ip</t>
+  </si>
+  <si>
+    <t>TYSDP*Fp@w\37a,;</t>
+  </si>
+  <si>
+    <t>c:\telcobright\vault\resources\cdr\srTelecom\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.35</t>
+  </si>
+  <si>
+    <t>srTelecom_tdm</t>
+  </si>
+  <si>
+    <t>q9%0p3la#WO8</t>
+  </si>
+  <si>
+    <t>c:\telcobright\vault\resources\cdr\srTelecom\tdm</t>
+  </si>
+  <si>
+    <t>SRT</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>10.255.200.57</t>
+  </si>
+  <si>
+    <t>summit_ip</t>
+  </si>
+  <si>
+    <t>MdReMz!rm$&amp;KJh7{</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\summit\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.57</t>
+  </si>
+  <si>
+    <t>summit_tdm</t>
+  </si>
+  <si>
+    <t>g*GVC$HG1110</t>
+  </si>
+  <si>
+    <t>j:\telcobright\vault\resources\cdr\summit\tdm</t>
+  </si>
+  <si>
+    <t>vault.ZTE</t>
+  </si>
+  <si>
+    <t>teleExchange</t>
+  </si>
+  <si>
+    <t>10.255.200.53</t>
+  </si>
+  <si>
+    <t>teleExchange_ip</t>
+  </si>
+  <si>
+    <t>6n=Mu)d.M[;&gt;&lt;~6z</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.53</t>
+  </si>
+  <si>
+    <t>teleExchange_tdm</t>
+  </si>
+  <si>
+    <t>102UQ1a&amp;5*nY</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
+  </si>
+  <si>
+    <t>teleExchange_10.154.150.53_HUWAEI</t>
+  </si>
+  <si>
+    <t>10.154.150.60</t>
+  </si>
+  <si>
+    <t>teleExchange_tdm1</t>
+  </si>
+  <si>
+    <t>TELCOBRIDGE</t>
+  </si>
+  <si>
+    <t>9I+wLs=CrUf#6fl</t>
+  </si>
+  <si>
+    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm1</t>
+  </si>
+  <si>
+    <t>Vault.Telcobridge</t>
+  </si>
+  <si>
+    <t>telePlusNewyork</t>
+  </si>
+  <si>
+    <t>10.255.200.56</t>
+  </si>
+  <si>
+    <t>telePlusNewyork_ip</t>
+  </si>
+  <si>
+    <t>WTL</t>
+  </si>
+  <si>
+    <t>z5&lt;JN+Hy&lt;ME;CdN+</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\ip</t>
+  </si>
+  <si>
+    <t>vault.WTL</t>
+  </si>
+  <si>
+    <t>telePlusNetwork</t>
+  </si>
+  <si>
+    <t>10.154.150.56</t>
+  </si>
+  <si>
+    <t>telePlusNewyork_tdm</t>
+  </si>
+  <si>
+    <t>^E9cB9@r1lL7</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\tdm</t>
+  </si>
+  <si>
+    <t>voiceTel</t>
+  </si>
+  <si>
+    <t>10.255.200.58</t>
+  </si>
+  <si>
+    <t>voiceTel_ip</t>
+  </si>
+  <si>
+    <t>t$"Zqe=7=;qjc9mS</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\voiceTel\ip</t>
+  </si>
+  <si>
+    <t>10.154.150.58</t>
+  </si>
+  <si>
+    <t>voiceTel_tdm</t>
+  </si>
+  <si>
+    <t>7ssLh!Evz612</t>
+  </si>
+  <si>
+    <t>e:\telcobright\vault\resources\cdr\voiceTel\tdm</t>
+  </si>
+  <si>
+    <t>PREF</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>idCDRformat</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>.dat</t>
+  </si>
+  <si>
+    <t>VCDR</t>
+  </si>
+  <si>
+    <t>.gz</t>
+  </si>
+  <si>
+    <t>esdr</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
     <t>ICX</t>
-  </si>
-  <si>
-    <t>softex</t>
-  </si>
-  <si>
-    <t>10.255.200.52</t>
-  </si>
-  <si>
-    <t>softex_ip</t>
-  </si>
-  <si>
-    <t>8B^3j;Np7Qm@vwG*</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\softex\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.52</t>
-  </si>
-  <si>
-    <t>softex_tdm</t>
-  </si>
-  <si>
-    <t>eof4FT20^lUL</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\softex\tdm</t>
-  </si>
-  <si>
-    <t>srTelecom</t>
-  </si>
-  <si>
-    <t>10.255.200.35</t>
-  </si>
-  <si>
-    <t>srTelecom_ip</t>
-  </si>
-  <si>
-    <t>TYSDP*Fp@w\37a,;</t>
-  </si>
-  <si>
-    <t>c:\telcobright\vault\resources\cdr\srTelecom\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.35</t>
-  </si>
-  <si>
-    <t>srTelecom_tdm</t>
-  </si>
-  <si>
-    <t>q9%0p3la#WO8</t>
-  </si>
-  <si>
-    <t>c:\telcobright\vault\resources\cdr\srTelecom\tdm</t>
-  </si>
-  <si>
-    <t>SRT</t>
-  </si>
-  <si>
-    <t>vault</t>
-  </si>
-  <si>
-    <t>summit</t>
-  </si>
-  <si>
-    <t>10.255.200.57</t>
-  </si>
-  <si>
-    <t>summit_ip</t>
-  </si>
-  <si>
-    <t>MdReMz!rm$&amp;KJh7{</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\summit\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.57</t>
-  </si>
-  <si>
-    <t>summit_tdm</t>
-  </si>
-  <si>
-    <t>g*GVC$HG1110</t>
-  </si>
-  <si>
-    <t>j:\telcobright\vault\resources\cdr\summit\tdm</t>
-  </si>
-  <si>
-    <t>vault.ZTE</t>
-  </si>
-  <si>
-    <t>teleExchange</t>
-  </si>
-  <si>
-    <t>10.255.200.53</t>
-  </si>
-  <si>
-    <t>teleExchange_ip</t>
-  </si>
-  <si>
-    <t>6n=Mu)d.M[;&gt;&lt;~6z</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.53</t>
-  </si>
-  <si>
-    <t>teleExchange_tdm</t>
-  </si>
-  <si>
-    <t>102UQ1a&amp;5*nY</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm</t>
-  </si>
-  <si>
-    <t>teleExchange_10.154.150.53_HUWAEI</t>
-  </si>
-  <si>
-    <t>10.154.150.60</t>
-  </si>
-  <si>
-    <t>teleExchange_tdm1</t>
-  </si>
-  <si>
-    <t>TELCOBRIDGE</t>
-  </si>
-  <si>
-    <t>9I+wLs=CrUf#6fl</t>
-  </si>
-  <si>
-    <t>i:\telcobright\vault\resources\cdr\teleExchange\tdm1</t>
-  </si>
-  <si>
-    <t>Vault.Telcobridge</t>
-  </si>
-  <si>
-    <t>telePlusNewyork</t>
-  </si>
-  <si>
-    <t>10.255.200.56</t>
-  </si>
-  <si>
-    <t>telePlusNewyork_ip</t>
-  </si>
-  <si>
-    <t>WTL</t>
-  </si>
-  <si>
-    <t>z5&lt;JN+Hy&lt;ME;CdN+</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\ip</t>
-  </si>
-  <si>
-    <t>vault.WTL</t>
-  </si>
-  <si>
-    <t>telePlusNetwork</t>
-  </si>
-  <si>
-    <t>10.154.150.56</t>
-  </si>
-  <si>
-    <t>telePlusNewyork_tdm</t>
-  </si>
-  <si>
-    <t>^E9cB9@r1lL7</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\telePlusNewyork\tdm</t>
-  </si>
-  <si>
-    <t>voiceTel</t>
-  </si>
-  <si>
-    <t>10.255.200.58</t>
-  </si>
-  <si>
-    <t>voiceTel_ip</t>
-  </si>
-  <si>
-    <t>t$"Zqe=7=;qjc9mS</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\voiceTel\ip</t>
-  </si>
-  <si>
-    <t>10.154.150.58</t>
-  </si>
-  <si>
-    <t>voiceTel_tdm</t>
-  </si>
-  <si>
-    <t>7ssLh!Evz612</t>
-  </si>
-  <si>
-    <t>e:\telcobright\vault\resources\cdr\voiceTel\tdm</t>
-  </si>
-  <si>
-    <t>PREF</t>
-  </si>
-  <si>
-    <t>SWITCH</t>
-  </si>
-  <si>
-    <t>EXT</t>
-  </si>
-  <si>
-    <t>idCDRformat</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>.dat</t>
-  </si>
-  <si>
-    <t>VCDR</t>
-  </si>
-  <si>
-    <t>.gz</t>
-  </si>
-  <si>
-    <t>esdr</t>
-  </si>
-  <si>
-    <t>.txt</t>
   </si>
   <si>
     <t>.DAT</t>
@@ -2424,10 +2424,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W45" sqref="W45"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5440,10 +5440,10 @@
         <v>36</v>
       </c>
       <c r="O33" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="35">
         <v>1</v>
@@ -5531,10 +5531,10 @@
         <v>36</v>
       </c>
       <c r="O34" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="23">
         <v>1</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="22" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="T41" s="23">
         <v>0</v>
@@ -6235,19 +6235,19 @@
         <v>38</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>265</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H42" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I42" s="22" t="s">
         <v>266</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>267</v>
       </c>
       <c r="J42" s="23">
         <v>20</v>
@@ -6257,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M42" s="39" t="str">
         <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F56,0),1)</f>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="43" ht="15" spans="1:30">
       <c r="A43" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" s="23">
         <v>21</v>
@@ -6327,19 +6327,19 @@
         <v>4</v>
       </c>
       <c r="E43" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>271</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H43" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="I43" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>273</v>
       </c>
       <c r="J43" s="23">
         <v>21</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W43">
         <v>324</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="44" ht="15" spans="1:30">
       <c r="A44" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44" s="23">
         <v>21</v>
@@ -6419,19 +6419,19 @@
         <v>38</v>
       </c>
       <c r="E44" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>274</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>275</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H44" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="I44" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>277</v>
       </c>
       <c r="J44" s="23">
         <v>21</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W44">
         <v>325</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="45" ht="15" spans="1:30">
       <c r="A45" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45" s="23">
         <v>19</v>
@@ -6512,19 +6512,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>280</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H45" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I45" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="J45" s="23">
         <v>19</v>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W45">
         <v>326</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="46" ht="15" spans="1:30">
       <c r="A46" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46" s="23">
         <v>19</v>
@@ -6605,19 +6605,19 @@
         <v>38</v>
       </c>
       <c r="E46" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="22" t="s">
         <v>283</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H46" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I46" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>286</v>
       </c>
       <c r="J46" s="23">
         <v>19</v>
@@ -6627,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M46" s="39" t="str">
         <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F54,0),1)</f>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T46" s="23">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W46">
         <v>327</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="47" ht="15" spans="1:30">
       <c r="A47" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B47" s="23">
         <v>26</v>
@@ -6697,19 +6697,19 @@
         <v>4</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>291</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" s="22" t="s">
         <v>292</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>293</v>
       </c>
       <c r="J47" s="23">
         <v>26</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W47">
         <v>328</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="48" ht="15" spans="1:30">
       <c r="A48" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48" s="23">
         <v>26</v>
@@ -6790,19 +6790,19 @@
         <v>38</v>
       </c>
       <c r="E48" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F48" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>161</v>
       </c>
       <c r="H48" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="I48" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="J48" s="23">
         <v>26</v>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T48" s="23">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W48">
         <v>329</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="49" s="15" customFormat="1" ht="15" spans="1:30">
       <c r="A49" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B49" s="25">
         <v>22</v>
@@ -6883,19 +6883,19 @@
         <v>4</v>
       </c>
       <c r="E49" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>301</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="J49" s="25">
         <v>22</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W49">
         <v>330</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="50" ht="15" spans="1:30">
       <c r="A50" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B50" s="23">
         <v>22</v>
@@ -6975,19 +6975,19 @@
         <v>38</v>
       </c>
       <c r="E50" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="22" t="s">
         <v>304</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>305</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H50" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I50" s="22" t="s">
         <v>306</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>307</v>
       </c>
       <c r="J50" s="23">
         <v>22</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T50" s="23">
         <v>0</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="V50" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W50">
         <v>331</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="51" ht="15" spans="1:30">
       <c r="A51" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B51" s="23">
         <v>22</v>
@@ -7068,19 +7068,19 @@
         <v>38</v>
       </c>
       <c r="E51" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="F51" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="G51" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="H51" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="I51" s="22" t="s">
         <v>312</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>313</v>
       </c>
       <c r="J51" s="23">
         <v>22</v>
@@ -7112,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T51" s="23">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W51">
         <v>332</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="52" s="20" customFormat="1" ht="15" spans="1:30">
       <c r="A52" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B52" s="36">
         <v>25</v>
@@ -7162,19 +7162,19 @@
         <v>4</v>
       </c>
       <c r="E52" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="G52" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="H52" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="I52" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>320</v>
       </c>
       <c r="J52" s="36">
         <v>25</v>
@@ -7202,16 +7202,16 @@
         <v>1</v>
       </c>
       <c r="S52" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="T52" s="36">
+        <v>0</v>
+      </c>
+      <c r="U52" s="36">
+        <v>0</v>
+      </c>
+      <c r="V52" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="T52" s="36">
-        <v>0</v>
-      </c>
-      <c r="U52" s="36">
-        <v>0</v>
-      </c>
-      <c r="V52" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="W52">
         <v>333</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="53" ht="15" spans="1:30">
       <c r="A53" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B53" s="23">
         <v>25</v>
@@ -7250,19 +7250,19 @@
         <v>38</v>
       </c>
       <c r="E53" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F53" s="22" t="s">
         <v>323</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>324</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H53" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="I53" s="22" t="s">
         <v>325</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>326</v>
       </c>
       <c r="J53" s="23">
         <v>25</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W53">
         <v>334</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="54" ht="15" spans="1:30">
       <c r="A54" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B54" s="23">
         <v>27</v>
@@ -7342,19 +7342,19 @@
         <v>4</v>
       </c>
       <c r="E54" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="F54" s="22" t="s">
         <v>328</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>329</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>32</v>
       </c>
       <c r="H54" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="I54" s="22" t="s">
         <v>330</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>331</v>
       </c>
       <c r="J54" s="23">
         <v>27</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W54">
         <v>335</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="55" ht="15" spans="1:30">
       <c r="A55" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B55" s="23">
         <v>27</v>
@@ -7433,19 +7433,19 @@
         <v>38</v>
       </c>
       <c r="E55" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F55" s="22" t="s">
         <v>332</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>333</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H55" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I55" s="22" t="s">
         <v>334</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>335</v>
       </c>
       <c r="J55" s="23">
         <v>27</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W55">
         <v>336</v>
@@ -7540,24 +7540,24 @@
     <row r="1" ht="12.75" customHeight="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -7579,14 +7579,14 @@
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>68</v>
@@ -7601,14 +7601,14 @@
     </row>
     <row r="3" ht="12.75" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>41</v>
@@ -7623,14 +7623,14 @@
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="2:9">
       <c r="B4" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>49</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="2:9">
       <c r="B5" s="6" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>161</v>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>62</v>
@@ -7736,21 +7736,21 @@
         <v>347</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
         <v>37</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="2:9">
@@ -7758,19 +7758,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11">
         <v>38</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="2:9">

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowWidth="23040" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -2424,10 +2424,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomLeft" activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2691,10 +2691,10 @@
         <v>44</v>
       </c>
       <c r="O3" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="23">
         <v>1</v>
@@ -2783,10 +2783,10 @@
         <v>36</v>
       </c>
       <c r="O4" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="23">
         <v>1</v>
@@ -2871,10 +2871,10 @@
         <v>36</v>
       </c>
       <c r="O5" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="23">
         <v>1</v>
@@ -3242,10 +3242,10 @@
         <v>36</v>
       </c>
       <c r="O9" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="23">
         <v>1</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="26" t="s">
         <v>83</v>
@@ -3419,10 +3419,10 @@
         <v>36</v>
       </c>
       <c r="O11" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="27">
         <v>1</v>
@@ -3971,10 +3971,10 @@
         <v>36</v>
       </c>
       <c r="O17" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="23">
         <v>1</v>
@@ -4059,10 +4059,10 @@
         <v>36</v>
       </c>
       <c r="O18" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="23">
         <v>1</v>
@@ -4241,10 +4241,10 @@
         <v>36</v>
       </c>
       <c r="O20" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="25">
         <v>0</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -413,7 +413,7 @@
     <t>iRX6IRZsPP8gfnW</t>
   </si>
   <si>
-    <t>d:\telcobright\vault\resources\cdr\gaziNetworks\tdm</t>
+    <t>U:\telcobright\vault\resources\cdr\gaziNetworks\tdm</t>
   </si>
   <si>
     <t>GAZI</t>
@@ -431,7 +431,7 @@
     <t>RitUtipi9Ras25je</t>
   </si>
   <si>
-    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\Khulna</t>
+    <t>U:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\Khulna</t>
   </si>
   <si>
     <t>GNL</t>
@@ -443,7 +443,7 @@
     <t>TELCOBRIDGE_BOGRA</t>
   </si>
   <si>
-    <t>D:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
+    <t>U:\telcobright\vault\resources\CDR\gazinetworks\tdmKhlBogra\bogra</t>
   </si>
   <si>
     <t>Vault.TelcobridgeBogra</t>
@@ -2424,10 +2424,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AF29" sqref="AF29"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2783,10 +2783,10 @@
         <v>36</v>
       </c>
       <c r="O4" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23">
         <v>1</v>
@@ -2871,10 +2871,10 @@
         <v>36</v>
       </c>
       <c r="O5" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="23">
         <v>1</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -2424,10 +2424,10 @@
   <sheetPr/>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4059,10 +4059,10 @@
         <v>36</v>
       </c>
       <c r="O18" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="23">
         <v>1</v>
@@ -4241,10 +4241,10 @@
         <v>36</v>
       </c>
       <c r="O20" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="25">
         <v>0</v>

--- a/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
+++ b/TelcobrightVS13/Projects/UtilInstallConfig/config/cas/_helper/casOperatorInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20404"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\TelcobrightProject\TelcobrightVS13\Projects\UtilInstallConfig\config\cas\_helper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F73FE8-0096-4DF4-8A55-9AE607868F40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NE automation data" sheetId="3" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1079,14 +1085,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1200,129 +1200,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,7 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,164 +1274,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1584,213 +1313,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1829,22 +1361,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="19"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1853,19 +1382,19 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1875,7 +1404,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1885,19 +1414,19 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1905,69 +1434,34 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NE automation data"/>
@@ -1983,16 +1477,12 @@
           <cell r="C2" t="str">
             <v>HUWAEI</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="E2" t="str">
             <v>.dat</v>
           </cell>
           <cell r="F2" t="str">
             <v>HUWAEI</v>
           </cell>
-        </row>
-        <row r="2">
           <cell r="H2">
             <v>3</v>
           </cell>
@@ -2007,16 +1497,12 @@
           <cell r="C3" t="str">
             <v>GENBAND</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="E3" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F3" t="str">
             <v>GENBAND</v>
           </cell>
-        </row>
-        <row r="3">
           <cell r="H3">
             <v>31</v>
           </cell>
@@ -2031,16 +1517,12 @@
           <cell r="C4" t="str">
             <v>CATALEYA</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="E4" t="str">
             <v>.txt</v>
           </cell>
           <cell r="F4" t="str">
             <v>CATALEYA</v>
           </cell>
-        </row>
-        <row r="4">
           <cell r="H4">
             <v>25</v>
           </cell>
@@ -2055,16 +1537,12 @@
           <cell r="C5" t="str">
             <v>ZTE</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="E5" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F5" t="str">
             <v>ZTE</v>
           </cell>
-        </row>
-        <row r="5">
           <cell r="H5">
             <v>17</v>
           </cell>
@@ -2079,16 +1557,12 @@
           <cell r="C6" t="str">
             <v>REVE</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="E6" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F6" t="str">
             <v>REVE</v>
           </cell>
-        </row>
-        <row r="6">
           <cell r="H6">
             <v>28</v>
           </cell>
@@ -2103,16 +1577,12 @@
           <cell r="C7" t="str">
             <v>NOKIA</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="E7" t="str">
             <v>.DAT</v>
           </cell>
           <cell r="F7" t="str">
             <v>NOKIA</v>
           </cell>
-        </row>
-        <row r="7">
           <cell r="H7">
             <v>36</v>
           </cell>
@@ -2127,16 +1597,12 @@
           <cell r="C8" t="str">
             <v>DIALOGIC</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="E8" t="str">
             <v>.gz</v>
           </cell>
           <cell r="F8" t="str">
             <v>DIALOGIC</v>
           </cell>
-        </row>
-        <row r="8">
           <cell r="H8">
             <v>27</v>
           </cell>
@@ -2151,16 +1617,12 @@
           <cell r="C9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="E9" t="str">
             <v>.log</v>
           </cell>
           <cell r="F9" t="str">
             <v>TELCOBRIDGE</v>
           </cell>
-        </row>
-        <row r="9">
           <cell r="H9">
             <v>37</v>
           </cell>
@@ -2175,13 +1637,9 @@
           <cell r="C10" t="str">
             <v>WTL</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="F10" t="str">
             <v>WTL</v>
           </cell>
-        </row>
-        <row r="10">
           <cell r="H10">
             <v>38</v>
           </cell>
@@ -2196,16 +1654,12 @@
           <cell r="C11" t="str">
             <v>GNEW</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="E11" t="str">
             <v>.csv</v>
           </cell>
           <cell r="F11" t="str">
             <v>GNEW</v>
           </cell>
-        </row>
-        <row r="11">
           <cell r="H11">
             <v>39</v>
           </cell>
@@ -2416,216 +1870,215 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="13.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="67" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="14.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="12.5714285714286" customWidth="1"/>
-    <col min="13" max="13" width="16.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="24.2857142857143" customWidth="1"/>
-    <col min="15" max="15" width="16.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
     <col min="16" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="16.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
     <col min="19" max="19" width="43" customWidth="1"/>
-    <col min="20" max="20" width="19.8571428571429" customWidth="1"/>
-    <col min="21" max="21" width="12.1428571428571" customWidth="1"/>
-    <col min="22" max="22" width="25.4285714285714" customWidth="1"/>
-    <col min="23" max="23" width="31.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="20.5714285714286" customWidth="1"/>
-    <col min="26" max="26" width="25.4285714285714" customWidth="1"/>
-    <col min="27" max="27" width="48.5714285714286" customWidth="1"/>
-    <col min="28" max="28" width="45.7142857142857" customWidth="1"/>
-    <col min="29" max="29" width="46.5714285714286" customWidth="1"/>
-    <col min="30" max="30" width="32.7142857142857" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" customWidth="1"/>
+    <col min="26" max="26" width="25.42578125" customWidth="1"/>
+    <col min="27" max="27" width="48.5703125" customWidth="1"/>
+    <col min="28" max="28" width="45.7109375" customWidth="1"/>
+    <col min="29" max="29" width="46.5703125" customWidth="1"/>
+    <col min="30" max="30" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:30">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:30" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="21" t="s">
+      <c r="V1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:30">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:30" ht="15">
+      <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="37">
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="36">
         <v>29</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="39" t="str">
+      <c r="M2" s="38" t="str">
         <f t="array" ref="M2">INDEX(Sheet2!$E$2:$F$21,MATCH(G2,Sheet2!$F$2:F21,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="23">
-        <v>0</v>
-      </c>
-      <c r="P2" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="23">
-        <v>1</v>
-      </c>
-      <c r="R2" s="23">
-        <v>1</v>
-      </c>
-      <c r="S2" s="22" t="s">
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>1</v>
+      </c>
+      <c r="R2" s="22">
+        <v>1</v>
+      </c>
+      <c r="S2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="23">
-        <v>0</v>
-      </c>
-      <c r="U2" s="23">
-        <v>0</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22">
+        <v>0</v>
+      </c>
+      <c r="V2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="W2">
         <v>285</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="53">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="52">
         <v>1</v>
       </c>
       <c r="Z2">
@@ -2644,81 +2097,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:30">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:30" ht="15">
+      <c r="A3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="23">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="23">
-        <v>1</v>
-      </c>
-      <c r="K3" s="37">
+      <c r="J3" s="22">
+        <v>1</v>
+      </c>
+      <c r="K3" s="36">
         <f t="array" ref="K3">INDEX(Sheet2!$H$2:$I$21,MATCH(G3,Sheet2!$I$2:I7,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L3" s="38" t="str">
+      <c r="L3" s="37" t="str">
         <f t="array" ref="L3">INDEX(Sheet2!$B$2:$C$21,MATCH(G3,Sheet2!$C$2:C22,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M3" s="39" t="str">
+      <c r="M3" s="38" t="str">
         <f t="array" ref="M3">INDEX(Sheet2!$E$2:$F$21,MATCH(G3,Sheet2!$F$2:F22,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="23">
-        <v>0</v>
-      </c>
-      <c r="P3" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="23">
-        <v>1</v>
-      </c>
-      <c r="R3" s="23">
-        <v>1</v>
-      </c>
-      <c r="S3" s="22" t="s">
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>1</v>
+      </c>
+      <c r="R3" s="22">
+        <v>1</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="23">
-        <v>0</v>
-      </c>
-      <c r="U3" s="23">
-        <v>0</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="21" t="s">
         <v>29</v>
       </c>
       <c r="W3">
         <v>286</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="53">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="52">
         <v>1</v>
       </c>
       <c r="Z3">
@@ -2737,80 +2190,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:30">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:30" ht="15">
+      <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>3</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="36">
         <v>690</v>
       </c>
-      <c r="L4" s="38" t="str">
+      <c r="L4" s="37" t="str">
         <f t="array" ref="L4">INDEX(Sheet2!$B$2:$C$21,MATCH(G4,Sheet2!$C$2:C25,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="38" t="str">
         <f t="array" ref="M4">INDEX(Sheet2!$E$2:$F$21,MATCH(G4,Sheet2!$F$2:F25,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>1</v>
-      </c>
-      <c r="R4" s="23">
-        <v>1</v>
-      </c>
-      <c r="S4" s="22" t="s">
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>1</v>
+      </c>
+      <c r="R4" s="22">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="23">
-        <v>0</v>
-      </c>
-      <c r="U4" s="23">
-        <v>0</v>
-      </c>
-      <c r="V4" s="22" t="s">
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21" t="s">
         <v>46</v>
       </c>
       <c r="W4">
         <v>287</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="53">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="52">
         <v>1</v>
       </c>
       <c r="Z4">
@@ -2829,76 +2282,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:30">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:30" ht="15">
+      <c r="A5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>3</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="36">
         <v>49</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="22" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="23">
-        <v>1</v>
-      </c>
-      <c r="P5" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>1</v>
-      </c>
-      <c r="R5" s="23">
-        <v>1</v>
-      </c>
-      <c r="S5" s="22" t="s">
+      <c r="O5" s="22">
+        <v>1</v>
+      </c>
+      <c r="P5" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>1</v>
+      </c>
+      <c r="R5" s="22">
+        <v>1</v>
+      </c>
+      <c r="S5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="23">
-        <v>0</v>
-      </c>
-      <c r="U5" s="23">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22" t="s">
+      <c r="T5" s="22">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="s">
         <v>46</v>
       </c>
       <c r="W5">
         <v>288</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="53">
+      <c r="X5" s="21"/>
+      <c r="Y5" s="52">
         <v>1</v>
       </c>
       <c r="Z5">
@@ -2917,81 +2370,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:30">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:30" ht="15">
+      <c r="A6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>2</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="36">
         <f t="array" ref="K6">INDEX(Sheet2!$H$2:$I$21,MATCH(G6,Sheet2!$I$2:I8,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L6" s="38" t="str">
+      <c r="L6" s="37" t="str">
         <f t="array" ref="L6">INDEX(Sheet2!$B$2:$C$21,MATCH(G6,Sheet2!$C$2:C23,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M6" s="39" t="str">
+      <c r="M6" s="38" t="str">
         <f t="array" ref="M6">INDEX(Sheet2!$E$2:$F$21,MATCH(G6,Sheet2!$F$2:F23,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="23">
-        <v>1</v>
-      </c>
-      <c r="P6" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <v>1</v>
-      </c>
-      <c r="S6" s="22" t="s">
+      <c r="O6" s="22">
+        <v>1</v>
+      </c>
+      <c r="P6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>1</v>
+      </c>
+      <c r="S6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="23">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22" t="s">
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21" t="s">
         <v>59</v>
       </c>
       <c r="W6">
         <v>289</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="53">
+      <c r="X6" s="21"/>
+      <c r="Y6" s="52">
         <v>1</v>
       </c>
       <c r="Z6">
@@ -3010,81 +2463,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:30">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:30" ht="15">
+      <c r="A7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>9</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>2</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <f t="array" ref="K7">INDEX(Sheet2!$H$2:$I$21,MATCH(G7,Sheet2!$I$2:I9,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="38" t="str">
+      <c r="L7" s="37" t="str">
         <f t="array" ref="L7">INDEX(Sheet2!$B$2:$C$21,MATCH(G7,Sheet2!$C$2:C24,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M7" s="39" t="str">
+      <c r="M7" s="38" t="str">
         <f t="array" ref="M7">INDEX(Sheet2!$E$2:$F$21,MATCH(G7,Sheet2!$F$2:F24,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="23">
-        <v>0</v>
-      </c>
-      <c r="P7" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>1</v>
-      </c>
-      <c r="R7" s="23">
-        <v>1</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>1</v>
+      </c>
+      <c r="R7" s="22">
+        <v>1</v>
+      </c>
+      <c r="S7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22" t="s">
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21" t="s">
         <v>59</v>
       </c>
       <c r="W7">
         <v>290</v>
       </c>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="53">
+      <c r="X7" s="21"/>
+      <c r="Y7" s="52">
         <v>1</v>
       </c>
       <c r="Z7">
@@ -3103,80 +2556,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" ht="15" spans="1:30">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:30" s="14" customFormat="1" ht="15">
+      <c r="A8" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>4</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>71</v>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="16" t="str">
         <f t="array" ref="L8">INDEX(Sheet2!$B$2:$C$21,MATCH(G8,Sheet2!$C$2:C27,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M8" s="40" t="str">
+      <c r="M8" s="39" t="str">
         <f t="array" ref="M8">INDEX(Sheet2!$E$2:$F$21,MATCH(G8,Sheet2!$F$2:F27,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="25">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>1</v>
-      </c>
-      <c r="R8" s="25">
-        <v>1</v>
-      </c>
-      <c r="S8" s="15" t="s">
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>1</v>
+      </c>
+      <c r="R8" s="24">
+        <v>1</v>
+      </c>
+      <c r="S8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="25">
-        <v>0</v>
-      </c>
-      <c r="U8" s="25">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15" t="s">
+      <c r="T8" s="24">
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>72</v>
       </c>
       <c r="W8">
         <v>291</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="53">
+      <c r="X8" s="21"/>
+      <c r="Y8" s="52">
         <v>1</v>
       </c>
       <c r="Z8">
@@ -3195,81 +2648,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:30">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:30" ht="15">
+      <c r="A9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>4</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <f t="array" ref="K9">INDEX(Sheet2!$H$2:$I$21,MATCH(G9,Sheet2!$I$2:I13,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L9" s="38" t="str">
+      <c r="L9" s="37" t="str">
         <f t="array" ref="L9">INDEX(Sheet2!$B$2:$C$21,MATCH(G9,Sheet2!$C$2:C28,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M9" s="39" t="str">
+      <c r="M9" s="38" t="str">
         <f t="array" ref="M9">INDEX(Sheet2!$E$2:$F$21,MATCH(G9,Sheet2!$F$2:F28,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="23">
-        <v>0</v>
-      </c>
-      <c r="P9" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>1</v>
-      </c>
-      <c r="R9" s="23">
-        <v>1</v>
-      </c>
-      <c r="S9" s="22" t="s">
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>1</v>
+      </c>
+      <c r="R9" s="22">
+        <v>1</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
-        <v>0</v>
-      </c>
-      <c r="V9" s="22" t="s">
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0</v>
+      </c>
+      <c r="V9" s="21" t="s">
         <v>72</v>
       </c>
       <c r="W9">
         <v>292</v>
       </c>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="53">
+      <c r="X9" s="21"/>
+      <c r="Y9" s="52">
         <v>1</v>
       </c>
       <c r="Z9">
@@ -3288,76 +2741,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:30">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:30" ht="15">
+      <c r="A10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>12</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <v>12</v>
       </c>
-      <c r="K10" s="41">
-        <v>0</v>
-      </c>
-      <c r="L10" s="42">
-        <v>0</v>
-      </c>
-      <c r="M10" s="43">
-        <v>0</v>
-      </c>
-      <c r="N10" s="26" t="s">
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0</v>
+      </c>
+      <c r="M10" s="42">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="23">
-        <v>0</v>
-      </c>
-      <c r="P10" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>1</v>
-      </c>
-      <c r="R10" s="27">
-        <v>1</v>
-      </c>
-      <c r="S10" s="26" t="s">
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>1</v>
+      </c>
+      <c r="R10" s="26">
+        <v>1</v>
+      </c>
+      <c r="S10" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="T10" s="27">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>1</v>
-      </c>
-      <c r="V10" s="26" t="s">
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <v>1</v>
+      </c>
+      <c r="V10" s="25" t="s">
         <v>83</v>
       </c>
       <c r="W10">
         <v>293</v>
       </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="53">
+      <c r="X10" s="21"/>
+      <c r="Y10" s="52">
         <v>1</v>
       </c>
       <c r="Z10">
@@ -3376,77 +2829,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:30">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:30" ht="15">
+      <c r="A11" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>12</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>2</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>12</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <v>68</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="39" t="str">
+      <c r="M11" s="38" t="str">
         <f t="array" ref="M11">INDEX(Sheet2!$E$2:$F$21,MATCH(G11,Sheet2!$F$2:F42,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="23">
-        <v>0</v>
-      </c>
-      <c r="P11" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>1</v>
-      </c>
-      <c r="R11" s="27">
-        <v>1</v>
-      </c>
-      <c r="S11" s="22" t="s">
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>1</v>
+      </c>
+      <c r="R11" s="26">
+        <v>1</v>
+      </c>
+      <c r="S11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="27">
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
-        <v>0</v>
-      </c>
-      <c r="V11" s="26" t="s">
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25" t="s">
         <v>83</v>
       </c>
       <c r="W11">
         <v>294</v>
       </c>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="53">
+      <c r="X11" s="21"/>
+      <c r="Y11" s="52">
         <v>1</v>
       </c>
       <c r="Z11">
@@ -3465,79 +2918,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:30">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:30" ht="15">
+      <c r="A12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>12</v>
       </c>
-      <c r="C12" s="23">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>12</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="36">
         <v>68</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="M12" s="39" t="str">
+      <c r="M12" s="38" t="str">
         <f t="array" ref="M12">INDEX(Sheet2!$E$2:$F$21,MATCH(G12,Sheet2!$F$2:F43,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="23">
-        <v>0</v>
-      </c>
-      <c r="P12" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>1</v>
-      </c>
-      <c r="R12" s="23">
-        <v>1</v>
-      </c>
-      <c r="S12" s="22" t="s">
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>1</v>
+      </c>
+      <c r="R12" s="22">
+        <v>1</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="T12" s="23">
-        <v>0</v>
-      </c>
-      <c r="U12" s="23">
-        <v>0</v>
-      </c>
-      <c r="V12" s="22" t="s">
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21" t="s">
         <v>83</v>
       </c>
       <c r="W12">
         <v>295</v>
       </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="53">
+      <c r="X12" s="21"/>
+      <c r="Y12" s="52">
         <v>1</v>
       </c>
       <c r="Z12">
@@ -3556,80 +3009,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" ht="15" spans="1:30">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:30" s="15" customFormat="1" ht="15">
+      <c r="A13" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>18</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>3</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <v>18</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="43">
         <v>40</v>
       </c>
-      <c r="L13" s="45" t="str">
+      <c r="L13" s="44" t="str">
         <f t="array" ref="L13">INDEX(Sheet2!$B$2:$C$21,MATCH(G13,Sheet2!$C$2:C50,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M13" s="46" t="str">
+      <c r="M13" s="45" t="str">
         <f t="array" ref="M13">INDEX(Sheet2!$E$2:$F$21,MATCH(G13,Sheet2!$F$2:F50,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="31">
-        <v>0</v>
-      </c>
-      <c r="P13" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>1</v>
-      </c>
-      <c r="R13" s="31">
-        <v>1</v>
-      </c>
-      <c r="S13" s="30" t="s">
+      <c r="O13" s="30">
+        <v>0</v>
+      </c>
+      <c r="P13" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>1</v>
+      </c>
+      <c r="R13" s="30">
+        <v>1</v>
+      </c>
+      <c r="S13" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="31">
-        <v>0</v>
-      </c>
-      <c r="U13" s="31">
-        <v>0</v>
-      </c>
-      <c r="V13" s="30" t="s">
+      <c r="T13" s="30">
+        <v>0</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29" t="s">
         <v>100</v>
       </c>
       <c r="W13">
         <v>296</v>
       </c>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="53">
+      <c r="X13" s="21"/>
+      <c r="Y13" s="52">
         <v>1</v>
       </c>
       <c r="Z13">
@@ -3648,81 +3101,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:30">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:30" ht="15">
+      <c r="A14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>18</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <f t="array" ref="K14">INDEX(Sheet2!$H$2:$I$21,MATCH(G14,Sheet2!$I$2:I36,0),1)</f>
         <v>31</v>
       </c>
-      <c r="L14" s="38" t="str">
+      <c r="L14" s="37" t="str">
         <f t="array" ref="L14">INDEX(Sheet2!$B$2:$C$21,MATCH(G14,Sheet2!$C$2:C51,0),1)</f>
         <v>VCDR</v>
       </c>
-      <c r="M14" s="39" t="str">
+      <c r="M14" s="38" t="str">
         <f t="array" ref="M14">INDEX(Sheet2!$E$2:$F$21,MATCH(G14,Sheet2!$F$2:F51,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="23">
-        <v>1</v>
-      </c>
-      <c r="P14" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>1</v>
-      </c>
-      <c r="R14" s="23">
-        <v>1</v>
-      </c>
-      <c r="S14" s="22" t="s">
+      <c r="O14" s="22">
+        <v>1</v>
+      </c>
+      <c r="P14" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>1</v>
+      </c>
+      <c r="R14" s="22">
+        <v>1</v>
+      </c>
+      <c r="S14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="23">
-        <v>0</v>
-      </c>
-      <c r="U14" s="23">
-        <v>0</v>
-      </c>
-      <c r="V14" s="22" t="s">
+      <c r="T14" s="22">
+        <v>0</v>
+      </c>
+      <c r="U14" s="22">
+        <v>0</v>
+      </c>
+      <c r="V14" s="21" t="s">
         <v>100</v>
       </c>
       <c r="W14">
         <v>297</v>
       </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="53">
+      <c r="X14" s="21"/>
+      <c r="Y14" s="52">
         <v>1</v>
       </c>
       <c r="Z14">
@@ -3741,80 +3194,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:30">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:30" ht="15">
+      <c r="A15" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>18</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>2</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>18</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <v>57</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="23">
-        <v>1</v>
-      </c>
-      <c r="P15" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>0</v>
-      </c>
-      <c r="R15" s="23">
-        <v>1</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="O15" s="22">
+        <v>1</v>
+      </c>
+      <c r="P15" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>1</v>
+      </c>
+      <c r="S15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="23">
-        <v>0</v>
-      </c>
-      <c r="U15" s="23">
-        <v>0</v>
-      </c>
-      <c r="V15" s="22" t="s">
+      <c r="T15" s="22">
+        <v>0</v>
+      </c>
+      <c r="U15" s="22">
+        <v>0</v>
+      </c>
+      <c r="V15" s="21" t="s">
         <v>100</v>
       </c>
       <c r="W15">
         <v>298</v>
       </c>
-      <c r="X15" s="52" t="s">
+      <c r="X15" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="Y15" s="53">
+      <c r="Y15" s="52">
         <v>1</v>
       </c>
       <c r="Z15">
@@ -3833,80 +3286,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:30">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:30" ht="15">
+      <c r="A16" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>18</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>4</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>18</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>57</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="23">
-        <v>1</v>
-      </c>
-      <c r="P16" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>0</v>
-      </c>
-      <c r="R16" s="23">
-        <v>1</v>
-      </c>
-      <c r="S16" s="22" t="s">
+      <c r="O16" s="22">
+        <v>1</v>
+      </c>
+      <c r="P16" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
+        <v>1</v>
+      </c>
+      <c r="S16" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="23">
-        <v>0</v>
-      </c>
-      <c r="U16" s="23">
-        <v>0</v>
-      </c>
-      <c r="V16" s="22" t="s">
+      <c r="T16" s="22">
+        <v>0</v>
+      </c>
+      <c r="U16" s="22">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21" t="s">
         <v>100</v>
       </c>
       <c r="W16">
         <v>298</v>
       </c>
-      <c r="X16" s="52" t="s">
+      <c r="X16" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="Y16" s="53">
+      <c r="Y16" s="52">
         <v>1</v>
       </c>
       <c r="Z16">
@@ -3925,80 +3378,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:30">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:30" ht="15">
+      <c r="A17" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>6</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>3</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>6</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <v>47</v>
       </c>
-      <c r="L17" s="38" t="str">
+      <c r="L17" s="37" t="str">
         <f t="array" ref="L17">INDEX(Sheet2!$B$2:$C$21,MATCH(G17,Sheet2!$C$2:C29,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M17" s="39" t="str">
+      <c r="M17" s="38" t="str">
         <f t="array" ref="M17">INDEX(Sheet2!$E$2:$F$21,MATCH(G17,Sheet2!$F$2:F29,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="23">
-        <v>1</v>
-      </c>
-      <c r="P17" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>1</v>
-      </c>
-      <c r="R17" s="23">
-        <v>1</v>
-      </c>
-      <c r="S17" s="22" t="s">
+      <c r="O17" s="22">
+        <v>1</v>
+      </c>
+      <c r="P17" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>1</v>
+      </c>
+      <c r="R17" s="22">
+        <v>1</v>
+      </c>
+      <c r="S17" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="T17" s="23">
-        <v>0</v>
-      </c>
-      <c r="U17" s="23">
-        <v>0</v>
-      </c>
-      <c r="V17" s="22" t="s">
+      <c r="T17" s="22">
+        <v>0</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0</v>
+      </c>
+      <c r="V17" s="21" t="s">
         <v>122</v>
       </c>
       <c r="W17">
         <v>299</v>
       </c>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="53">
+      <c r="X17" s="21"/>
+      <c r="Y17" s="52">
         <v>1</v>
       </c>
       <c r="Z17">
@@ -4017,76 +3470,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:30">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:30" ht="15">
+      <c r="A18" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>6</v>
       </c>
-      <c r="C18" s="23">
-        <v>1</v>
-      </c>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="22">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>6</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="36">
         <v>70</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="22" t="s">
+      <c r="M18" s="38"/>
+      <c r="N18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="23">
-        <v>1</v>
-      </c>
-      <c r="P18" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="23">
-        <v>1</v>
-      </c>
-      <c r="R18" s="23">
-        <v>1</v>
-      </c>
-      <c r="S18" s="22" t="s">
+      <c r="O18" s="22">
+        <v>1</v>
+      </c>
+      <c r="P18" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>1</v>
+      </c>
+      <c r="R18" s="22">
+        <v>1</v>
+      </c>
+      <c r="S18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="23">
-        <v>0</v>
-      </c>
-      <c r="U18" s="23">
-        <v>0</v>
-      </c>
-      <c r="V18" s="22" t="s">
+      <c r="T18" s="22">
+        <v>0</v>
+      </c>
+      <c r="U18" s="22">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21" t="s">
         <v>122</v>
       </c>
       <c r="W18">
         <v>300</v>
       </c>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="53">
+      <c r="X18" s="21"/>
+      <c r="Y18" s="52">
         <v>1</v>
       </c>
       <c r="Z18">
@@ -4105,80 +3558,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" ht="15" spans="1:30">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:30" s="16" customFormat="1" ht="15">
+      <c r="A19" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>6</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>4</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>6</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="24">
         <v>57</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="M19" s="40" t="s">
+      <c r="M19" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="25">
-        <v>1</v>
-      </c>
-      <c r="P19" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>0</v>
-      </c>
-      <c r="R19" s="25">
-        <v>1</v>
-      </c>
-      <c r="S19" s="17" t="s">
+      <c r="O19" s="24">
+        <v>1</v>
+      </c>
+      <c r="P19" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0</v>
+      </c>
+      <c r="R19" s="24">
+        <v>1</v>
+      </c>
+      <c r="S19" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="T19" s="25">
-        <v>1</v>
-      </c>
-      <c r="U19" s="25">
-        <v>0</v>
-      </c>
-      <c r="V19" s="17" t="s">
+      <c r="T19" s="24">
+        <v>1</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="16">
         <v>301</v>
       </c>
-      <c r="X19" s="52" t="s">
+      <c r="X19" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="Y19" s="53">
+      <c r="Y19" s="52">
         <v>1</v>
       </c>
       <c r="Z19">
@@ -4197,81 +3650,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" ht="15" spans="1:30">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:30" s="16" customFormat="1" ht="15">
+      <c r="A20" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>6</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>2</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <v>6</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="24">
         <v>57</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="40" t="s">
+      <c r="M20" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="25">
-        <v>0</v>
-      </c>
-      <c r="P20" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>0</v>
-      </c>
-      <c r="R20" s="25">
-        <v>1</v>
-      </c>
-      <c r="S20" s="17" t="s">
+      <c r="O20" s="24">
+        <v>0</v>
+      </c>
+      <c r="P20" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>0</v>
+      </c>
+      <c r="R20" s="24">
+        <v>1</v>
+      </c>
+      <c r="S20" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="T20" s="25">
-        <v>1</v>
-      </c>
-      <c r="U20" s="25">
-        <v>0</v>
-      </c>
-      <c r="V20" s="17" t="s">
+      <c r="T20" s="24">
+        <v>1</v>
+      </c>
+      <c r="U20" s="24">
+        <v>0</v>
+      </c>
+      <c r="V20" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="16">
         <v>301</v>
       </c>
-      <c r="X20" s="52" t="s">
+      <c r="X20" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="Y20" s="53">
-        <v>1</v>
+      <c r="Y20" s="52">
+        <v>0</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -4289,81 +3742,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:30">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:30" ht="15">
+      <c r="A21" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>7</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>2</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>7</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="36">
         <f t="array" ref="K21">INDEX(Sheet2!$H$2:$I$21,MATCH(G21,Sheet2!$I$2:I17,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L21" s="38" t="str">
+      <c r="L21" s="37" t="str">
         <f t="array" ref="L21">INDEX(Sheet2!$B$2:$C$21,MATCH(G21,Sheet2!$C$2:C32,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M21" s="39" t="str">
+      <c r="M21" s="38" t="str">
         <f t="array" ref="M21">INDEX(Sheet2!$E$2:$F$21,MATCH(G21,Sheet2!$F$2:F32,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="23">
-        <v>1</v>
-      </c>
-      <c r="P21" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>1</v>
-      </c>
-      <c r="R21" s="23">
-        <v>1</v>
-      </c>
-      <c r="S21" s="22" t="s">
+      <c r="O21" s="22">
+        <v>1</v>
+      </c>
+      <c r="P21" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>1</v>
+      </c>
+      <c r="R21" s="22">
+        <v>1</v>
+      </c>
+      <c r="S21" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="T21" s="23">
-        <v>0</v>
-      </c>
-      <c r="U21" s="23">
-        <v>0</v>
-      </c>
-      <c r="V21" s="22" t="s">
+      <c r="T21" s="22">
+        <v>0</v>
+      </c>
+      <c r="U21" s="22">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21" t="s">
         <v>143</v>
       </c>
       <c r="W21">
         <v>302</v>
       </c>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="53">
+      <c r="X21" s="21"/>
+      <c r="Y21" s="52">
         <v>1</v>
       </c>
       <c r="Z21">
@@ -4382,81 +3835,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:30">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:30" ht="15">
+      <c r="A22" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>7</v>
       </c>
-      <c r="C22" s="23">
-        <v>1</v>
-      </c>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>7</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="36">
         <f t="array" ref="K22">INDEX(Sheet2!$H$2:$I$21,MATCH(G22,Sheet2!$I$2:I18,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L22" s="38" t="str">
+      <c r="L22" s="37" t="str">
         <f t="array" ref="L22">INDEX(Sheet2!$B$2:$C$21,MATCH(G22,Sheet2!$C$2:C33,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M22" s="39" t="str">
+      <c r="M22" s="38" t="str">
         <f t="array" ref="M22">INDEX(Sheet2!$E$2:$F$21,MATCH(G22,Sheet2!$F$2:F33,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="23">
-        <v>1</v>
-      </c>
-      <c r="P22" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>1</v>
-      </c>
-      <c r="R22" s="23">
-        <v>1</v>
-      </c>
-      <c r="S22" s="22" t="s">
+      <c r="O22" s="22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="T22" s="23">
-        <v>0</v>
-      </c>
-      <c r="U22" s="23">
-        <v>0</v>
-      </c>
-      <c r="V22" s="22" t="s">
+      <c r="T22" s="22">
+        <v>0</v>
+      </c>
+      <c r="U22" s="22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21" t="s">
         <v>143</v>
       </c>
       <c r="W22">
         <v>303</v>
       </c>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="53">
+      <c r="X22" s="21"/>
+      <c r="Y22" s="52">
         <v>1</v>
       </c>
       <c r="Z22">
@@ -4475,81 +3928,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:30">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:30" ht="15">
+      <c r="A23" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>8</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>2</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>8</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="36">
         <f t="array" ref="K23">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G23,[1]Sheet2!$I$2:I19,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L23" s="38" t="str">
+      <c r="L23" s="37" t="str">
         <f t="array" ref="L23">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G23,[1]Sheet2!$C$2:C34,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M23" s="39" t="str">
+      <c r="M23" s="38" t="str">
         <f t="array" ref="M23">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G23,[1]Sheet2!$F$2:F34,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="23">
-        <v>1</v>
-      </c>
-      <c r="R23" s="23">
-        <v>1</v>
-      </c>
-      <c r="S23" s="22" t="s">
+      <c r="O23" s="22">
+        <v>0</v>
+      </c>
+      <c r="P23" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>1</v>
+      </c>
+      <c r="R23" s="22">
+        <v>1</v>
+      </c>
+      <c r="S23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="T23" s="23">
-        <v>0</v>
-      </c>
-      <c r="U23" s="23">
-        <v>0</v>
-      </c>
-      <c r="V23" s="22" t="s">
+      <c r="T23" s="22">
+        <v>0</v>
+      </c>
+      <c r="U23" s="22">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21" t="s">
         <v>154</v>
       </c>
       <c r="W23">
         <v>304</v>
       </c>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="53">
+      <c r="X23" s="21"/>
+      <c r="Y23" s="52">
         <v>1</v>
       </c>
       <c r="Z23">
@@ -4568,80 +4021,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:30">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:30" ht="15">
+      <c r="A24" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>8</v>
       </c>
-      <c r="C24" s="23">
-        <v>1</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>8</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="36">
         <f t="array" ref="K24">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G24,[1]Sheet2!$I$2:I20,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="39" t="str">
+      <c r="M24" s="38" t="str">
         <f t="array" ref="M24">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G24,[1]Sheet2!$F$2:F35,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="23">
-        <v>1</v>
-      </c>
-      <c r="P24" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="23">
-        <v>1</v>
-      </c>
-      <c r="R24" s="23">
-        <v>1</v>
-      </c>
-      <c r="S24" s="22" t="s">
+      <c r="O24" s="22">
+        <v>1</v>
+      </c>
+      <c r="P24" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>1</v>
+      </c>
+      <c r="R24" s="22">
+        <v>1</v>
+      </c>
+      <c r="S24" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="T24" s="23">
-        <v>0</v>
-      </c>
-      <c r="U24" s="23">
-        <v>0</v>
-      </c>
-      <c r="V24" s="22" t="s">
+      <c r="T24" s="22">
+        <v>0</v>
+      </c>
+      <c r="U24" s="22">
+        <v>0</v>
+      </c>
+      <c r="V24" s="21" t="s">
         <v>154</v>
       </c>
       <c r="W24">
         <v>305</v>
       </c>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="53">
+      <c r="X24" s="21"/>
+      <c r="Y24" s="52">
         <v>1</v>
       </c>
       <c r="Z24">
@@ -4660,80 +4113,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="18" customFormat="1" ht="15" spans="1:30">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:30" s="17" customFormat="1" ht="15">
+      <c r="A25" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>9</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <v>18</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>9</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="36">
         <v>30</v>
       </c>
-      <c r="L25" s="38" t="str">
+      <c r="L25" s="37" t="str">
         <f t="array" ref="L25">INDEX(Sheet2!$B$2:$C$21,MATCH(G25,Sheet2!$C$2:C36,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M25" s="39" t="str">
+      <c r="M25" s="38" t="str">
         <f t="array" ref="M25">INDEX(Sheet2!$E$2:$F$21,MATCH(G25,Sheet2!$F$2:F36,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="23">
-        <v>0</v>
-      </c>
-      <c r="P25" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>1</v>
-      </c>
-      <c r="R25" s="23">
-        <v>1</v>
-      </c>
-      <c r="S25" s="22" t="s">
+      <c r="O25" s="22">
+        <v>0</v>
+      </c>
+      <c r="P25" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>1</v>
+      </c>
+      <c r="R25" s="22">
+        <v>1</v>
+      </c>
+      <c r="S25" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="T25" s="23">
-        <v>0</v>
-      </c>
-      <c r="U25" s="23">
-        <v>0</v>
-      </c>
-      <c r="V25" s="22" t="s">
+      <c r="T25" s="22">
+        <v>0</v>
+      </c>
+      <c r="U25" s="22">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21" t="s">
         <v>166</v>
       </c>
       <c r="W25">
         <v>306</v>
       </c>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="53">
+      <c r="X25" s="21"/>
+      <c r="Y25" s="52">
         <v>1</v>
       </c>
       <c r="Z25">
@@ -4752,81 +4205,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" s="18" customFormat="1" ht="15" spans="1:30">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:30" s="17" customFormat="1" ht="15">
+      <c r="A26" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>9</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <v>7</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>9</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="36">
         <f t="array" ref="K26">INDEX(Sheet2!$H$2:$I$21,MATCH(G26,Sheet2!$I$2:I22,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L26" s="38" t="str">
+      <c r="L26" s="37" t="str">
         <f t="array" ref="L26">INDEX(Sheet2!$B$2:$C$21,MATCH(G26,Sheet2!$C$2:C37,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M26" s="39" t="str">
+      <c r="M26" s="38" t="str">
         <f t="array" ref="M26">INDEX(Sheet2!$E$2:$F$21,MATCH(G26,Sheet2!$F$2:F37,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="23">
-        <v>1</v>
-      </c>
-      <c r="P26" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="23">
-        <v>1</v>
-      </c>
-      <c r="R26" s="23">
-        <v>1</v>
-      </c>
-      <c r="S26" s="22" t="s">
+      <c r="O26" s="22">
+        <v>1</v>
+      </c>
+      <c r="P26" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>1</v>
+      </c>
+      <c r="R26" s="22">
+        <v>1</v>
+      </c>
+      <c r="S26" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="T26" s="23">
-        <v>0</v>
-      </c>
-      <c r="U26" s="23">
-        <v>0</v>
-      </c>
-      <c r="V26" s="22" t="s">
+      <c r="T26" s="22">
+        <v>0</v>
+      </c>
+      <c r="U26" s="22">
+        <v>0</v>
+      </c>
+      <c r="V26" s="21" t="s">
         <v>166</v>
       </c>
       <c r="W26">
         <v>307</v>
       </c>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="53">
+      <c r="X26" s="21"/>
+      <c r="Y26" s="52">
         <v>1</v>
       </c>
       <c r="Z26">
@@ -4845,81 +4298,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:30">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:30" ht="15">
+      <c r="A27" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>10</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>2</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>10</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="36">
         <f t="array" ref="K27">INDEX(Sheet2!$H$2:$I$21,MATCH(G27,Sheet2!$I$2:I23,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L27" s="38" t="str">
+      <c r="L27" s="37" t="str">
         <f t="array" ref="L27">INDEX(Sheet2!$B$2:$C$21,MATCH(G27,Sheet2!$C$2:C38,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M27" s="39" t="str">
+      <c r="M27" s="38" t="str">
         <f t="array" ref="M27">INDEX(Sheet2!$E$2:$F$21,MATCH(G27,Sheet2!$F$2:F38,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="23">
-        <v>1</v>
-      </c>
-      <c r="P27" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>1</v>
-      </c>
-      <c r="R27" s="23">
-        <v>1</v>
-      </c>
-      <c r="S27" s="22" t="s">
+      <c r="O27" s="22">
+        <v>1</v>
+      </c>
+      <c r="P27" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>1</v>
+      </c>
+      <c r="R27" s="22">
+        <v>1</v>
+      </c>
+      <c r="S27" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="T27" s="23">
-        <v>0</v>
-      </c>
-      <c r="U27" s="23">
-        <v>0</v>
-      </c>
-      <c r="V27" s="22" t="s">
+      <c r="T27" s="22">
+        <v>0</v>
+      </c>
+      <c r="U27" s="22">
+        <v>0</v>
+      </c>
+      <c r="V27" s="21" t="s">
         <v>177</v>
       </c>
       <c r="W27">
         <v>308</v>
       </c>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="53">
+      <c r="X27" s="21"/>
+      <c r="Y27" s="52">
         <v>1</v>
       </c>
       <c r="Z27">
@@ -4938,81 +4391,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:30">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:30" ht="15">
+      <c r="A28" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>10</v>
       </c>
-      <c r="C28" s="23">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="22">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>10</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="36">
         <f t="array" ref="K28">INDEX(Sheet2!$H$2:$I$21,MATCH(G28,Sheet2!$I$2:I24,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L28" s="38" t="str">
+      <c r="L28" s="37" t="str">
         <f t="array" ref="L28">INDEX(Sheet2!$B$2:$C$21,MATCH(G28,Sheet2!$C$2:C39,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M28" s="39" t="str">
+      <c r="M28" s="38" t="str">
         <f t="array" ref="M28">INDEX(Sheet2!$E$2:$F$21,MATCH(G28,Sheet2!$F$2:F39,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="23">
-        <v>1</v>
-      </c>
-      <c r="P28" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="23">
-        <v>1</v>
-      </c>
-      <c r="R28" s="23">
-        <v>1</v>
-      </c>
-      <c r="S28" s="22" t="s">
+      <c r="O28" s="22">
+        <v>1</v>
+      </c>
+      <c r="P28" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>1</v>
+      </c>
+      <c r="R28" s="22">
+        <v>1</v>
+      </c>
+      <c r="S28" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="T28" s="23">
-        <v>0</v>
-      </c>
-      <c r="U28" s="23">
-        <v>0</v>
-      </c>
-      <c r="V28" s="22" t="s">
+      <c r="T28" s="22">
+        <v>0</v>
+      </c>
+      <c r="U28" s="22">
+        <v>0</v>
+      </c>
+      <c r="V28" s="21" t="s">
         <v>177</v>
       </c>
       <c r="W28">
         <v>309</v>
       </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="53">
+      <c r="X28" s="21"/>
+      <c r="Y28" s="52">
         <v>1</v>
       </c>
       <c r="Z28">
@@ -5031,80 +4484,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" s="19" customFormat="1" ht="15" spans="1:30">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:30" s="18" customFormat="1" ht="15">
+      <c r="A29" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="34">
         <v>11</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="34">
         <v>2</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="34">
         <v>11</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="34">
         <v>730</v>
       </c>
-      <c r="L29" s="47" t="str">
+      <c r="L29" s="46" t="str">
         <f t="array" ref="L29">INDEX(Sheet2!$B$2:$C$21,MATCH(G29,Sheet2!$C$2:C40,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M29" s="48" t="str">
+      <c r="M29" s="47" t="str">
         <f t="array" ref="M29">INDEX(Sheet2!$E$2:$F$21,MATCH(G29,Sheet2!$F$2:F40,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="35">
-        <v>0</v>
-      </c>
-      <c r="P29" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="35">
-        <v>1</v>
-      </c>
-      <c r="R29" s="35">
-        <v>1</v>
-      </c>
-      <c r="S29" s="19" t="s">
+      <c r="O29" s="34">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="34">
+        <v>1</v>
+      </c>
+      <c r="R29" s="34">
+        <v>1</v>
+      </c>
+      <c r="S29" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="T29" s="35">
-        <v>0</v>
-      </c>
-      <c r="U29" s="35">
-        <v>0</v>
-      </c>
-      <c r="V29" s="19" t="s">
+      <c r="T29" s="34">
+        <v>0</v>
+      </c>
+      <c r="U29" s="34">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18" t="s">
         <v>187</v>
       </c>
       <c r="W29">
         <v>310</v>
       </c>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="53">
+      <c r="X29" s="21"/>
+      <c r="Y29" s="52">
         <v>1</v>
       </c>
       <c r="Z29">
@@ -5123,79 +4576,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:30">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:30" ht="15">
+      <c r="A30" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>11</v>
       </c>
-      <c r="C30" s="23">
-        <v>1</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="C30" s="22">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>11</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="36">
         <v>68</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="M30" s="39" t="str">
+      <c r="M30" s="38" t="str">
         <f t="array" ref="M30">INDEX(Sheet2!$E$2:$F$21,MATCH(G30,Sheet2!$F$2:F41,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="N30" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="23">
-        <v>0</v>
-      </c>
-      <c r="P30" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="23">
-        <v>1</v>
-      </c>
-      <c r="R30" s="23">
-        <v>1</v>
-      </c>
-      <c r="S30" s="22" t="s">
+      <c r="O30" s="22">
+        <v>0</v>
+      </c>
+      <c r="P30" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>1</v>
+      </c>
+      <c r="R30" s="22">
+        <v>1</v>
+      </c>
+      <c r="S30" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="T30" s="23">
-        <v>0</v>
-      </c>
-      <c r="U30" s="23">
-        <v>0</v>
-      </c>
-      <c r="V30" s="22" t="s">
+      <c r="T30" s="22">
+        <v>0</v>
+      </c>
+      <c r="U30" s="22">
+        <v>0</v>
+      </c>
+      <c r="V30" s="21" t="s">
         <v>187</v>
       </c>
       <c r="W30">
         <v>311</v>
       </c>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="53">
+      <c r="X30" s="21"/>
+      <c r="Y30" s="52">
         <v>1</v>
       </c>
       <c r="Z30">
@@ -5214,78 +4667,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:30">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:30" ht="15">
+      <c r="A31" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>24</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>2</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>24</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="36">
         <v>33</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="N31" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="23">
-        <v>0</v>
-      </c>
-      <c r="P31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>0</v>
-      </c>
-      <c r="R31" s="23">
-        <v>1</v>
-      </c>
-      <c r="S31" s="22" t="s">
+      <c r="O31" s="22">
+        <v>0</v>
+      </c>
+      <c r="P31" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>0</v>
+      </c>
+      <c r="R31" s="22">
+        <v>1</v>
+      </c>
+      <c r="S31" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="T31" s="23">
-        <v>1</v>
-      </c>
-      <c r="U31" s="23">
-        <v>0</v>
-      </c>
-      <c r="V31" s="22" t="s">
+      <c r="T31" s="22">
+        <v>1</v>
+      </c>
+      <c r="U31" s="22">
+        <v>0</v>
+      </c>
+      <c r="V31" s="21" t="s">
         <v>197</v>
       </c>
       <c r="W31">
         <v>312</v>
       </c>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="53">
+      <c r="X31" s="21"/>
+      <c r="Y31" s="52">
         <v>1</v>
       </c>
       <c r="Z31">
@@ -5304,79 +4757,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:30">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:30" ht="15">
+      <c r="A32" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>24</v>
       </c>
-      <c r="C32" s="23">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>24</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="36">
         <v>74</v>
       </c>
-      <c r="L32" s="38" t="s">
+      <c r="L32" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="39" t="str">
+      <c r="M32" s="38" t="str">
         <f t="array" ref="M32">INDEX(Sheet2!$E$2:$F$21,MATCH(G32,Sheet2!$F$2:F65,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="23">
-        <v>1</v>
-      </c>
-      <c r="P32" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="23">
-        <v>1</v>
-      </c>
-      <c r="R32" s="23">
-        <v>1</v>
-      </c>
-      <c r="S32" s="22" t="s">
+      <c r="O32" s="22">
+        <v>1</v>
+      </c>
+      <c r="P32" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>1</v>
+      </c>
+      <c r="R32" s="22">
+        <v>1</v>
+      </c>
+      <c r="S32" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="T32" s="23">
-        <v>0</v>
-      </c>
-      <c r="U32" s="23">
-        <v>0</v>
-      </c>
-      <c r="V32" s="22" t="s">
+      <c r="T32" s="22">
+        <v>0</v>
+      </c>
+      <c r="U32" s="22">
+        <v>0</v>
+      </c>
+      <c r="V32" s="21" t="s">
         <v>197</v>
       </c>
       <c r="W32">
         <v>313</v>
       </c>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="53">
+      <c r="X32" s="21"/>
+      <c r="Y32" s="52">
         <v>1</v>
       </c>
       <c r="Z32">
@@ -5395,79 +4848,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" s="19" customFormat="1" ht="15" spans="1:30">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:30" s="18" customFormat="1" ht="15">
+      <c r="A33" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="34">
         <v>23</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="34">
         <v>2</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="34">
         <v>23</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="34">
         <v>29</v>
       </c>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="48" t="str">
+      <c r="M33" s="47" t="str">
         <f t="array" ref="M33">INDEX(Sheet2!$E$2:$F$21,MATCH(G33,Sheet2!$F$2:F62,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="35">
-        <v>1</v>
-      </c>
-      <c r="P33" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="35">
-        <v>1</v>
-      </c>
-      <c r="R33" s="35">
-        <v>1</v>
-      </c>
-      <c r="S33" s="19" t="s">
+      <c r="O33" s="34">
+        <v>1</v>
+      </c>
+      <c r="P33" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="34">
+        <v>1</v>
+      </c>
+      <c r="R33" s="34">
+        <v>1</v>
+      </c>
+      <c r="S33" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="T33" s="35">
-        <v>0</v>
-      </c>
-      <c r="U33" s="35">
-        <v>0</v>
-      </c>
-      <c r="V33" s="19" t="s">
+      <c r="T33" s="34">
+        <v>0</v>
+      </c>
+      <c r="U33" s="34">
+        <v>0</v>
+      </c>
+      <c r="V33" s="18" t="s">
         <v>211</v>
       </c>
       <c r="W33">
         <v>314</v>
       </c>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="53">
+      <c r="X33" s="21"/>
+      <c r="Y33" s="52">
         <v>1</v>
       </c>
       <c r="Z33">
@@ -5486,79 +4939,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:30">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:30" ht="15">
+      <c r="A34" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>23</v>
       </c>
-      <c r="C34" s="23">
-        <v>1</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>23</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="36">
         <v>75</v>
       </c>
-      <c r="L34" s="38" t="s">
+      <c r="L34" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="M34" s="39" t="str">
+      <c r="M34" s="38" t="str">
         <f t="array" ref="M34">INDEX(Sheet2!$E$2:$F$21,MATCH(G34,Sheet2!$F$2:F63,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="23">
-        <v>0</v>
-      </c>
-      <c r="P34" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="23">
-        <v>1</v>
-      </c>
-      <c r="R34" s="23">
-        <v>1</v>
-      </c>
-      <c r="S34" s="22" t="s">
+      <c r="O34" s="22">
+        <v>0</v>
+      </c>
+      <c r="P34" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>1</v>
+      </c>
+      <c r="R34" s="22">
+        <v>1</v>
+      </c>
+      <c r="S34" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="T34" s="23">
-        <v>0</v>
-      </c>
-      <c r="U34" s="23">
-        <v>0</v>
-      </c>
-      <c r="V34" s="22" t="s">
+      <c r="T34" s="22">
+        <v>0</v>
+      </c>
+      <c r="U34" s="22">
+        <v>0</v>
+      </c>
+      <c r="V34" s="21" t="s">
         <v>211</v>
       </c>
       <c r="W34">
         <v>315</v>
       </c>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="53">
+      <c r="X34" s="21"/>
+      <c r="Y34" s="52">
         <v>1</v>
       </c>
       <c r="Z34">
@@ -5577,81 +5030,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:30">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:30" ht="15">
+      <c r="A35" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>15</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>2</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="I35" s="22" t="s">
+      <c r="I35" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>15</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="36">
         <f t="array" ref="K35">INDEX(Sheet2!$H$2:$I$21,MATCH(G35,Sheet2!$I$2:I29,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L35" s="38" t="str">
+      <c r="L35" s="37" t="str">
         <f t="array" ref="L35">INDEX(Sheet2!$B$2:$C$21,MATCH(G35,Sheet2!$C$2:C44,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M35" s="39" t="str">
+      <c r="M35" s="38" t="str">
         <f t="array" ref="M35">INDEX(Sheet2!$E$2:$F$21,MATCH(G35,Sheet2!$F$2:F44,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="23">
-        <v>1</v>
-      </c>
-      <c r="P35" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="23">
-        <v>1</v>
-      </c>
-      <c r="R35" s="23">
-        <v>1</v>
-      </c>
-      <c r="S35" s="22" t="s">
+      <c r="O35" s="22">
+        <v>1</v>
+      </c>
+      <c r="P35" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>1</v>
+      </c>
+      <c r="R35" s="22">
+        <v>1</v>
+      </c>
+      <c r="S35" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="T35" s="23">
-        <v>0</v>
-      </c>
-      <c r="U35" s="23">
-        <v>0</v>
-      </c>
-      <c r="V35" s="22" t="s">
+      <c r="T35" s="22">
+        <v>0</v>
+      </c>
+      <c r="U35" s="22">
+        <v>0</v>
+      </c>
+      <c r="V35" s="21" t="s">
         <v>222</v>
       </c>
       <c r="W35">
         <v>316</v>
       </c>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="53">
+      <c r="X35" s="21"/>
+      <c r="Y35" s="52">
         <v>1</v>
       </c>
       <c r="Z35">
@@ -5670,80 +5123,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:30">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:30" ht="15">
+      <c r="A36" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>15</v>
       </c>
-      <c r="C36" s="23">
-        <v>1</v>
-      </c>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="22">
+        <v>1</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>15</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="36">
         <f t="array" ref="K36">INDEX(Sheet2!$H$2:$I$21,MATCH(G36,Sheet2!$I$2:I30,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="M36" s="39" t="str">
+      <c r="M36" s="38" t="str">
         <f t="array" ref="M36">INDEX(Sheet2!$E$2:$F$21,MATCH(G36,Sheet2!$F$2:F45,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="N36" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="23">
-        <v>0</v>
-      </c>
-      <c r="P36" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="23">
-        <v>1</v>
-      </c>
-      <c r="R36" s="23">
-        <v>1</v>
-      </c>
-      <c r="S36" s="22" t="s">
+      <c r="O36" s="22">
+        <v>0</v>
+      </c>
+      <c r="P36" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>1</v>
+      </c>
+      <c r="R36" s="22">
+        <v>1</v>
+      </c>
+      <c r="S36" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="T36" s="23">
-        <v>0</v>
-      </c>
-      <c r="U36" s="23">
-        <v>0</v>
-      </c>
-      <c r="V36" s="22" t="s">
+      <c r="T36" s="22">
+        <v>0</v>
+      </c>
+      <c r="U36" s="22">
+        <v>0</v>
+      </c>
+      <c r="V36" s="21" t="s">
         <v>222</v>
       </c>
       <c r="W36">
         <v>317</v>
       </c>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="53">
+      <c r="X36" s="21"/>
+      <c r="Y36" s="52">
         <v>1</v>
       </c>
       <c r="Z36">
@@ -5762,80 +5215,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:30">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:30" ht="15">
+      <c r="A37" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>16</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>3</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>16</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="36">
         <v>30</v>
       </c>
-      <c r="L37" s="38" t="str">
+      <c r="L37" s="37" t="str">
         <f t="array" ref="L37">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G37,[1]Sheet2!$C$2:C46,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M37" s="39" t="str">
+      <c r="M37" s="38" t="str">
         <f t="array" ref="M37">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G37,[1]Sheet2!$F$2:F46,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="N37" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="23">
-        <v>0</v>
-      </c>
-      <c r="P37" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="23">
-        <v>1</v>
-      </c>
-      <c r="R37" s="23">
-        <v>1</v>
-      </c>
-      <c r="S37" s="22" t="s">
+      <c r="O37" s="22">
+        <v>0</v>
+      </c>
+      <c r="P37" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>1</v>
+      </c>
+      <c r="R37" s="22">
+        <v>1</v>
+      </c>
+      <c r="S37" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="T37" s="23">
-        <v>0</v>
-      </c>
-      <c r="U37" s="23">
-        <v>0</v>
-      </c>
-      <c r="V37" s="22" t="s">
+      <c r="T37" s="22">
+        <v>0</v>
+      </c>
+      <c r="U37" s="22">
+        <v>0</v>
+      </c>
+      <c r="V37" s="21" t="s">
         <v>233</v>
       </c>
       <c r="W37">
         <v>318</v>
       </c>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="53">
+      <c r="X37" s="21"/>
+      <c r="Y37" s="52">
         <v>1</v>
       </c>
       <c r="Z37">
@@ -5854,80 +5307,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:30">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:30" ht="15">
+      <c r="A38" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <v>16</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <v>2</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>16</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="36">
         <f t="array" ref="K38">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G38,[1]Sheet2!$I$2:I32,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L38" s="38" t="s">
+      <c r="L38" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="M38" s="39" t="str">
+      <c r="M38" s="38" t="str">
         <f t="array" ref="M38">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G38,[1]Sheet2!$F$2:F47,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="N38" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="23">
-        <v>0</v>
-      </c>
-      <c r="P38" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="23">
-        <v>1</v>
-      </c>
-      <c r="R38" s="23">
-        <v>1</v>
-      </c>
-      <c r="S38" s="22" t="s">
+      <c r="O38" s="22">
+        <v>0</v>
+      </c>
+      <c r="P38" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>1</v>
+      </c>
+      <c r="R38" s="22">
+        <v>1</v>
+      </c>
+      <c r="S38" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="T38" s="23">
-        <v>0</v>
-      </c>
-      <c r="U38" s="23">
-        <v>0</v>
-      </c>
-      <c r="V38" s="22" t="s">
+      <c r="T38" s="22">
+        <v>0</v>
+      </c>
+      <c r="U38" s="22">
+        <v>0</v>
+      </c>
+      <c r="V38" s="21" t="s">
         <v>233</v>
       </c>
       <c r="W38">
         <v>319</v>
       </c>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="53">
+      <c r="X38" s="21"/>
+      <c r="Y38" s="52">
         <v>1</v>
       </c>
       <c r="Z38">
@@ -5946,78 +5399,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:30">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:30" ht="15">
+      <c r="A39" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>17</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="22">
         <v>2</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>17</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="36">
         <v>56</v>
       </c>
-      <c r="L39" s="38">
-        <v>0</v>
-      </c>
-      <c r="M39" s="39" t="s">
+      <c r="L39" s="37">
+        <v>0</v>
+      </c>
+      <c r="M39" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="23">
-        <v>0</v>
-      </c>
-      <c r="P39" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="23">
-        <v>1</v>
-      </c>
-      <c r="R39" s="23">
-        <v>1</v>
-      </c>
-      <c r="S39" s="22" t="s">
+      <c r="O39" s="22">
+        <v>0</v>
+      </c>
+      <c r="P39" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>1</v>
+      </c>
+      <c r="R39" s="22">
+        <v>1</v>
+      </c>
+      <c r="S39" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="T39" s="23">
-        <v>0</v>
-      </c>
-      <c r="U39" s="23">
-        <v>0</v>
-      </c>
-      <c r="V39" s="22" t="s">
+      <c r="T39" s="22">
+        <v>0</v>
+      </c>
+      <c r="U39" s="22">
+        <v>0</v>
+      </c>
+      <c r="V39" s="21" t="s">
         <v>244</v>
       </c>
       <c r="W39">
         <v>320</v>
       </c>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="53">
+      <c r="X39" s="21"/>
+      <c r="Y39" s="52">
         <v>1</v>
       </c>
       <c r="Z39">
@@ -6036,80 +5489,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:30">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:30" ht="15">
+      <c r="A40" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="22">
         <v>17</v>
       </c>
-      <c r="C40" s="23">
-        <v>1</v>
-      </c>
-      <c r="D40" s="22" t="s">
+      <c r="C40" s="22">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>17</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="36">
         <f t="array" ref="K40">INDEX(Sheet2!$H$2:$I$21,MATCH(G40,Sheet2!$I$2:I34,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L40" s="38" t="s">
+      <c r="L40" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="M40" s="39" t="str">
+      <c r="M40" s="38" t="str">
         <f>INDEX(Sheet2!$E$2:$F$21,MATCH(G40,Sheet2!$F$2:F49,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="23">
-        <v>1</v>
-      </c>
-      <c r="P40" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="23">
-        <v>1</v>
-      </c>
-      <c r="R40" s="23">
-        <v>1</v>
-      </c>
-      <c r="S40" s="22" t="s">
+      <c r="O40" s="22">
+        <v>1</v>
+      </c>
+      <c r="P40" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>1</v>
+      </c>
+      <c r="R40" s="22">
+        <v>1</v>
+      </c>
+      <c r="S40" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="T40" s="23">
-        <v>0</v>
-      </c>
-      <c r="U40" s="23">
-        <v>0</v>
-      </c>
-      <c r="V40" s="22" t="s">
+      <c r="T40" s="22">
+        <v>0</v>
+      </c>
+      <c r="U40" s="22">
+        <v>0</v>
+      </c>
+      <c r="V40" s="21" t="s">
         <v>244</v>
       </c>
       <c r="W40">
         <v>321</v>
       </c>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="53">
+      <c r="X40" s="21"/>
+      <c r="Y40" s="52">
         <v>1</v>
       </c>
       <c r="Z40">
@@ -6128,81 +5581,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:30">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:30" ht="15">
+      <c r="A41" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="22">
         <v>20</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>2</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>20</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="36">
         <f t="array" ref="K41">INDEX(Sheet2!$H$2:$I$21,MATCH(G41,Sheet2!$I$2:I40,0),1)</f>
         <v>28</v>
       </c>
-      <c r="L41" s="38" t="str">
+      <c r="L41" s="37" t="str">
         <f t="array" ref="L41">INDEX(Sheet2!$B$2:$C$21,MATCH(G41,Sheet2!$C$2:C55,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M41" s="39" t="str">
+      <c r="M41" s="38" t="str">
         <f t="array" ref="M41">INDEX(Sheet2!$E$2:$F$21,MATCH(G41,Sheet2!$F$2:F55,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="23">
-        <v>1</v>
-      </c>
-      <c r="P41" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="23">
-        <v>1</v>
-      </c>
-      <c r="R41" s="23">
-        <v>1</v>
-      </c>
-      <c r="S41" s="22" t="s">
+      <c r="O41" s="22">
+        <v>1</v>
+      </c>
+      <c r="P41" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>1</v>
+      </c>
+      <c r="R41" s="22">
+        <v>1</v>
+      </c>
+      <c r="S41" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="T41" s="23">
-        <v>0</v>
-      </c>
-      <c r="U41" s="23">
-        <v>0</v>
-      </c>
-      <c r="V41" s="22" t="s">
+      <c r="T41" s="22">
+        <v>0</v>
+      </c>
+      <c r="U41" s="22">
+        <v>0</v>
+      </c>
+      <c r="V41" s="21" t="s">
         <v>258</v>
       </c>
       <c r="W41">
         <v>322</v>
       </c>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="53">
+      <c r="X41" s="21"/>
+      <c r="Y41" s="52">
         <v>1</v>
       </c>
       <c r="Z41">
@@ -6221,80 +5674,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:30">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:30" ht="15">
+      <c r="A42" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="22">
         <v>20</v>
       </c>
-      <c r="C42" s="23">
-        <v>1</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="C42" s="22">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="I42" s="22" t="s">
+      <c r="I42" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>20</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="36">
         <f t="array" ref="K42">INDEX(Sheet2!$H$2:$I$21,MATCH(G42,Sheet2!$I$2:I41,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="L42" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="M42" s="39" t="str">
+      <c r="M42" s="38" t="str">
         <f t="array" ref="M42">INDEX(Sheet2!$E$2:$F$21,MATCH(G42,Sheet2!$F$2:F56,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N42" s="22" t="s">
+      <c r="N42" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="23">
-        <v>0</v>
-      </c>
-      <c r="P42" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="23">
-        <v>1</v>
-      </c>
-      <c r="R42" s="23">
-        <v>1</v>
-      </c>
-      <c r="S42" s="22" t="s">
+      <c r="O42" s="22">
+        <v>0</v>
+      </c>
+      <c r="P42" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>1</v>
+      </c>
+      <c r="R42" s="22">
+        <v>1</v>
+      </c>
+      <c r="S42" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="T42" s="23">
-        <v>0</v>
-      </c>
-      <c r="U42" s="23">
-        <v>0</v>
-      </c>
-      <c r="V42" s="22" t="s">
+      <c r="T42" s="22">
+        <v>0</v>
+      </c>
+      <c r="U42" s="22">
+        <v>0</v>
+      </c>
+      <c r="V42" s="21" t="s">
         <v>258</v>
       </c>
       <c r="W42">
         <v>323</v>
       </c>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="53">
+      <c r="X42" s="21"/>
+      <c r="Y42" s="52">
         <v>1</v>
       </c>
       <c r="Z42">
@@ -6313,80 +5766,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:30">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:30" ht="15">
+      <c r="A43" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="22">
         <v>21</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>2</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="22" t="s">
+      <c r="I43" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>21</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="36">
         <v>30</v>
       </c>
-      <c r="L43" s="38" t="str">
+      <c r="L43" s="37" t="str">
         <f t="array" ref="L43">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G43,[1]Sheet2!$C$2:C57,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M43" s="39" t="str">
+      <c r="M43" s="38" t="str">
         <f t="array" ref="M43">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G43,[1]Sheet2!$F$2:F57,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N43" s="22" t="s">
+      <c r="N43" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O43" s="23">
-        <v>0</v>
-      </c>
-      <c r="P43" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="23">
-        <v>1</v>
-      </c>
-      <c r="R43" s="23">
-        <v>1</v>
-      </c>
-      <c r="S43" s="22" t="s">
+      <c r="O43" s="22">
+        <v>0</v>
+      </c>
+      <c r="P43" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>1</v>
+      </c>
+      <c r="R43" s="22">
+        <v>1</v>
+      </c>
+      <c r="S43" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="T43" s="23">
-        <v>0</v>
-      </c>
-      <c r="U43" s="23">
-        <v>0</v>
-      </c>
-      <c r="V43" s="22" t="s">
+      <c r="T43" s="22">
+        <v>0</v>
+      </c>
+      <c r="U43" s="22">
+        <v>0</v>
+      </c>
+      <c r="V43" s="21" t="s">
         <v>268</v>
       </c>
       <c r="W43">
         <v>324</v>
       </c>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="53">
+      <c r="X43" s="21"/>
+      <c r="Y43" s="52">
         <v>1</v>
       </c>
       <c r="Z43">
@@ -6405,81 +5858,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:30">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:30" ht="15">
+      <c r="A44" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <v>21</v>
       </c>
-      <c r="C44" s="23">
-        <v>1</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="22">
+        <v>1</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>21</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="36">
         <f t="array" ref="K44">INDEX([1]Sheet2!$H$2:$I$21,MATCH(G44,[1]Sheet2!$I$2:I43,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L44" s="38" t="str">
+      <c r="L44" s="37" t="str">
         <f t="array" ref="L44">INDEX([1]Sheet2!$B$2:$C$21,MATCH(G44,[1]Sheet2!$C$2:C58,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M44" s="39" t="str">
+      <c r="M44" s="38" t="str">
         <f t="array" ref="M44">INDEX([1]Sheet2!$E$2:$F$21,MATCH(G44,[1]Sheet2!$F$2:F58,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="N44" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O44" s="23">
-        <v>1</v>
-      </c>
-      <c r="P44" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="23">
-        <v>1</v>
-      </c>
-      <c r="R44" s="23">
-        <v>1</v>
-      </c>
-      <c r="S44" s="22" t="s">
+      <c r="O44" s="22">
+        <v>1</v>
+      </c>
+      <c r="P44" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>1</v>
+      </c>
+      <c r="R44" s="22">
+        <v>1</v>
+      </c>
+      <c r="S44" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="T44" s="23">
-        <v>0</v>
-      </c>
-      <c r="U44" s="23">
-        <v>0</v>
-      </c>
-      <c r="V44" s="22" t="s">
+      <c r="T44" s="22">
+        <v>0</v>
+      </c>
+      <c r="U44" s="22">
+        <v>0</v>
+      </c>
+      <c r="V44" s="21" t="s">
         <v>268</v>
       </c>
       <c r="W44">
         <v>325</v>
       </c>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="53">
+      <c r="X44" s="21"/>
+      <c r="Y44" s="52">
         <v>1</v>
       </c>
       <c r="Z44">
@@ -6498,81 +5951,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:30">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:30" ht="15">
+      <c r="A45" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <v>19</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="33">
         <v>2</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>19</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="36">
         <f t="array" ref="K45">INDEX(Sheet2!$H$2:$I$21,MATCH(G45,Sheet2!$I$2:I38,0),1)</f>
         <v>25</v>
       </c>
-      <c r="L45" s="38" t="str">
+      <c r="L45" s="37" t="str">
         <f t="array" ref="L45">INDEX(Sheet2!$B$2:$C$21,MATCH(G45,Sheet2!$C$2:C53,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M45" s="39" t="str">
+      <c r="M45" s="38" t="str">
         <f t="array" ref="M45">INDEX(Sheet2!$E$2:$F$21,MATCH(G45,Sheet2!$F$2:F53,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N45" s="22" t="s">
+      <c r="N45" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="23">
-        <v>1</v>
-      </c>
-      <c r="P45" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="23">
-        <v>1</v>
-      </c>
-      <c r="R45" s="23">
-        <v>1</v>
-      </c>
-      <c r="S45" s="22" t="s">
+      <c r="O45" s="22">
+        <v>1</v>
+      </c>
+      <c r="P45" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>1</v>
+      </c>
+      <c r="R45" s="22">
+        <v>1</v>
+      </c>
+      <c r="S45" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="T45" s="23">
-        <v>0</v>
-      </c>
-      <c r="U45" s="23">
-        <v>0</v>
-      </c>
-      <c r="V45" s="22" t="s">
+      <c r="T45" s="22">
+        <v>0</v>
+      </c>
+      <c r="U45" s="22">
+        <v>0</v>
+      </c>
+      <c r="V45" s="21" t="s">
         <v>277</v>
       </c>
       <c r="W45">
         <v>326</v>
       </c>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="53">
+      <c r="X45" s="21"/>
+      <c r="Y45" s="52">
         <v>1</v>
       </c>
       <c r="Z45">
@@ -6591,80 +6044,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:30">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:30" ht="15">
+      <c r="A46" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <v>19</v>
       </c>
-      <c r="C46" s="34">
-        <v>1</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="C46" s="33">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="I46" s="22" t="s">
+      <c r="I46" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>19</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="36">
         <f t="array" ref="K46">INDEX(Sheet2!$H$2:$I$21,MATCH(G46,Sheet2!$I$2:I39,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L46" s="38" t="s">
+      <c r="L46" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="M46" s="39" t="str">
+      <c r="M46" s="38" t="str">
         <f t="array" ref="M46">INDEX(Sheet2!$E$2:$F$21,MATCH(G46,Sheet2!$F$2:F54,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N46" s="22" t="s">
+      <c r="N46" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O46" s="23">
-        <v>0</v>
-      </c>
-      <c r="P46" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="23">
-        <v>1</v>
-      </c>
-      <c r="R46" s="23">
-        <v>1</v>
-      </c>
-      <c r="S46" s="22" t="s">
+      <c r="O46" s="22">
+        <v>0</v>
+      </c>
+      <c r="P46" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>1</v>
+      </c>
+      <c r="R46" s="22">
+        <v>1</v>
+      </c>
+      <c r="S46" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="T46" s="23">
-        <v>0</v>
-      </c>
-      <c r="U46" s="23">
-        <v>0</v>
-      </c>
-      <c r="V46" s="22" t="s">
+      <c r="T46" s="22">
+        <v>0</v>
+      </c>
+      <c r="U46" s="22">
+        <v>0</v>
+      </c>
+      <c r="V46" s="21" t="s">
         <v>277</v>
       </c>
       <c r="W46">
         <v>327</v>
       </c>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="53">
+      <c r="X46" s="21"/>
+      <c r="Y46" s="52">
         <v>1</v>
       </c>
       <c r="Z46">
@@ -6683,81 +6136,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:30">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:30" ht="15">
+      <c r="A47" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>26</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="33">
         <v>10</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I47" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>26</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="36">
         <f t="array" ref="K47">INDEX(Sheet2!$H$2:$I$21,MATCH(G47,Sheet2!$I$2:I53,0),1)</f>
         <v>27</v>
       </c>
-      <c r="L47" s="38" t="str">
+      <c r="L47" s="37" t="str">
         <f t="array" ref="L47">INDEX(Sheet2!$B$2:$C$21,MATCH(G47,Sheet2!$C$2:C68,0),1)</f>
         <v>sdr</v>
       </c>
-      <c r="M47" s="39" t="str">
+      <c r="M47" s="38" t="str">
         <f t="array" ref="M47">INDEX(Sheet2!$E$2:$F$21,MATCH(G47,Sheet2!$F$2:F68,0),1)</f>
         <v>.gz</v>
       </c>
-      <c r="N47" s="22" t="s">
+      <c r="N47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O47" s="23">
-        <v>1</v>
-      </c>
-      <c r="P47" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="23">
-        <v>0</v>
-      </c>
-      <c r="R47" s="23">
-        <v>1</v>
-      </c>
-      <c r="S47" s="22" t="s">
+      <c r="O47" s="22">
+        <v>1</v>
+      </c>
+      <c r="P47" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>0</v>
+      </c>
+      <c r="R47" s="22">
+        <v>1</v>
+      </c>
+      <c r="S47" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="T47" s="23">
-        <v>0</v>
-      </c>
-      <c r="U47" s="23">
-        <v>0</v>
-      </c>
-      <c r="V47" s="22" t="s">
+      <c r="T47" s="22">
+        <v>0</v>
+      </c>
+      <c r="U47" s="22">
+        <v>0</v>
+      </c>
+      <c r="V47" s="21" t="s">
         <v>288</v>
       </c>
       <c r="W47">
         <v>328</v>
       </c>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="53">
+      <c r="X47" s="21"/>
+      <c r="Y47" s="52">
         <v>1</v>
       </c>
       <c r="Z47">
@@ -6776,81 +6229,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:30">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:30" ht="15">
+      <c r="A48" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <v>26</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="33">
         <v>9</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>26</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="36">
         <f t="array" ref="K48">INDEX(Sheet2!$H$2:$I$21,MATCH(G48,Sheet2!$I$2:I54,0),1)</f>
         <v>17</v>
       </c>
-      <c r="L48" s="38" t="str">
+      <c r="L48" s="37" t="str">
         <f t="array" ref="L48">INDEX(Sheet2!$B$2:$C$21,MATCH(G48,Sheet2!$C$2:C69,0),1)</f>
         <v>ICX</v>
       </c>
-      <c r="M48" s="39" t="str">
+      <c r="M48" s="38" t="str">
         <f t="array" ref="M48">INDEX(Sheet2!$E$2:$F$21,MATCH(G48,Sheet2!$F$2:F69,0),1)</f>
         <v>.DAT</v>
       </c>
-      <c r="N48" s="22" t="s">
+      <c r="N48" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O48" s="23">
-        <v>0</v>
-      </c>
-      <c r="P48" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="23">
-        <v>1</v>
-      </c>
-      <c r="R48" s="23">
-        <v>1</v>
-      </c>
-      <c r="S48" s="22" t="s">
+      <c r="O48" s="22">
+        <v>0</v>
+      </c>
+      <c r="P48" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>1</v>
+      </c>
+      <c r="R48" s="22">
+        <v>1</v>
+      </c>
+      <c r="S48" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="T48" s="23">
-        <v>0</v>
-      </c>
-      <c r="U48" s="23">
-        <v>0</v>
-      </c>
-      <c r="V48" s="22" t="s">
+      <c r="T48" s="22">
+        <v>0</v>
+      </c>
+      <c r="U48" s="22">
+        <v>0</v>
+      </c>
+      <c r="V48" s="21" t="s">
         <v>288</v>
       </c>
       <c r="W48">
         <v>329</v>
       </c>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="53">
+      <c r="X48" s="21"/>
+      <c r="Y48" s="52">
         <v>1</v>
       </c>
       <c r="Z48">
@@ -6869,80 +6322,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" s="15" customFormat="1" ht="15" spans="1:30">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:30" s="14" customFormat="1" ht="15">
+      <c r="A49" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="24">
         <v>22</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="24">
         <v>3</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="24">
         <v>22</v>
       </c>
-      <c r="K49" s="25">
+      <c r="K49" s="24">
         <v>72</v>
       </c>
-      <c r="L49" s="17" t="str">
+      <c r="L49" s="16" t="str">
         <f t="array" ref="L49">INDEX(Sheet2!$B$2:$C$21,MATCH(G49,Sheet2!$C$2:C59,0),1)</f>
         <v>esdr</v>
       </c>
-      <c r="M49" s="40" t="str">
+      <c r="M49" s="39" t="str">
         <f t="array" ref="M49">INDEX(Sheet2!$E$2:$F$21,MATCH(G49,Sheet2!$F$2:F59,0),1)</f>
         <v>.txt</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="N49" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="25">
-        <v>0</v>
-      </c>
-      <c r="P49" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="25">
-        <v>1</v>
-      </c>
-      <c r="R49" s="25">
-        <v>1</v>
-      </c>
-      <c r="S49" s="15" t="s">
+      <c r="O49" s="24">
+        <v>0</v>
+      </c>
+      <c r="P49" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>1</v>
+      </c>
+      <c r="R49" s="24">
+        <v>1</v>
+      </c>
+      <c r="S49" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T49" s="25">
-        <v>0</v>
-      </c>
-      <c r="U49" s="25">
-        <v>0</v>
-      </c>
-      <c r="V49" s="15" t="s">
+      <c r="T49" s="24">
+        <v>0</v>
+      </c>
+      <c r="U49" s="24">
+        <v>0</v>
+      </c>
+      <c r="V49" s="14" t="s">
         <v>298</v>
       </c>
       <c r="W49">
         <v>330</v>
       </c>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="53">
+      <c r="X49" s="21"/>
+      <c r="Y49" s="52">
         <v>0</v>
       </c>
       <c r="Z49">
@@ -6961,81 +6414,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:30">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:30" ht="15">
+      <c r="A50" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="22">
         <v>22</v>
       </c>
-      <c r="C50" s="23">
-        <v>1</v>
-      </c>
-      <c r="D50" s="22" t="s">
+      <c r="C50" s="22">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>22</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="36">
         <f t="array" ref="K50">INDEX(Sheet2!$H$2:$I$21,MATCH(G50,Sheet2!$I$2:I45,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L50" s="38" t="str">
+      <c r="L50" s="37" t="str">
         <f t="array" ref="L50">INDEX(Sheet2!$B$2:$C$21,MATCH(G50,Sheet2!$C$2:C60,0),1)</f>
         <v>b</v>
       </c>
-      <c r="M50" s="39" t="str">
+      <c r="M50" s="38" t="str">
         <f t="array" ref="M50">INDEX(Sheet2!$E$2:$F$21,MATCH(G50,Sheet2!$F$2:F60,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N50" s="22" t="s">
+      <c r="N50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O50" s="23">
-        <v>1</v>
-      </c>
-      <c r="P50" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="23">
-        <v>1</v>
-      </c>
-      <c r="R50" s="23">
-        <v>1</v>
-      </c>
-      <c r="S50" s="22" t="s">
+      <c r="O50" s="22">
+        <v>1</v>
+      </c>
+      <c r="P50" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="22">
+        <v>1</v>
+      </c>
+      <c r="R50" s="22">
+        <v>1</v>
+      </c>
+      <c r="S50" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="T50" s="23">
-        <v>0</v>
-      </c>
-      <c r="U50" s="23">
-        <v>1</v>
-      </c>
-      <c r="V50" s="22" t="s">
+      <c r="T50" s="22">
+        <v>0</v>
+      </c>
+      <c r="U50" s="22">
+        <v>1</v>
+      </c>
+      <c r="V50" s="21" t="s">
         <v>298</v>
       </c>
       <c r="W50">
         <v>331</v>
       </c>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="53">
+      <c r="X50" s="21"/>
+      <c r="Y50" s="52">
         <v>1</v>
       </c>
       <c r="Z50">
@@ -7054,82 +6507,82 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:30">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:30" ht="15">
+      <c r="A51" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="22">
         <v>22</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="22">
         <v>2</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="I51" s="22" t="s">
+      <c r="I51" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>22</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="36">
         <v>570</v>
       </c>
-      <c r="L51" s="38" t="str">
+      <c r="L51" s="37" t="str">
         <f t="array" ref="L51">INDEX(Sheet2!$B$2:$C$21,MATCH(G51,Sheet2!$C$2:C61,0),1)</f>
         <v>cdr</v>
       </c>
-      <c r="M51" s="39" t="str">
+      <c r="M51" s="38" t="str">
         <f t="array" ref="M51">INDEX(Sheet2!$E$2:$F$21,MATCH(G51,Sheet2!$F$2:F61,0),1)</f>
         <v>.log</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O51" s="23">
-        <v>1</v>
-      </c>
-      <c r="P51" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="23">
-        <v>0</v>
-      </c>
-      <c r="R51" s="23">
-        <v>1</v>
-      </c>
-      <c r="S51" s="22" t="s">
+      <c r="O51" s="22">
+        <v>1</v>
+      </c>
+      <c r="P51" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="22">
+        <v>0</v>
+      </c>
+      <c r="R51" s="22">
+        <v>1</v>
+      </c>
+      <c r="S51" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="T51" s="23">
-        <v>0</v>
-      </c>
-      <c r="U51" s="23">
-        <v>0</v>
-      </c>
-      <c r="V51" s="22" t="s">
+      <c r="T51" s="22">
+        <v>0</v>
+      </c>
+      <c r="U51" s="22">
+        <v>0</v>
+      </c>
+      <c r="V51" s="21" t="s">
         <v>298</v>
       </c>
       <c r="W51">
         <v>332</v>
       </c>
-      <c r="X51" s="52" t="s">
+      <c r="X51" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="Y51" s="53">
+      <c r="Y51" s="52">
         <v>1</v>
       </c>
       <c r="Z51">
@@ -7148,76 +6601,76 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" s="20" customFormat="1" ht="15" spans="1:30">
-      <c r="A52" s="20" t="s">
+    <row r="52" spans="1:30" s="19" customFormat="1" ht="15">
+      <c r="A52" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="35">
         <v>25</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="35">
         <v>2</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="35">
         <v>25</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="35">
         <v>73</v>
       </c>
-      <c r="L52" s="49">
+      <c r="L52" s="48">
         <v>20</v>
       </c>
-      <c r="M52" s="50"/>
-      <c r="N52" s="20" t="s">
+      <c r="M52" s="49"/>
+      <c r="N52" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="36">
-        <v>0</v>
-      </c>
-      <c r="P52" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="36">
-        <v>1</v>
-      </c>
-      <c r="R52" s="36">
-        <v>1</v>
-      </c>
-      <c r="S52" s="20" t="s">
+      <c r="O52" s="35">
+        <v>0</v>
+      </c>
+      <c r="P52" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="35">
+        <v>1</v>
+      </c>
+      <c r="R52" s="35">
+        <v>1</v>
+      </c>
+      <c r="S52" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="T52" s="36">
-        <v>0</v>
-      </c>
-      <c r="U52" s="36">
-        <v>0</v>
-      </c>
-      <c r="V52" s="20" t="s">
+      <c r="T52" s="35">
+        <v>0</v>
+      </c>
+      <c r="U52" s="35">
+        <v>0</v>
+      </c>
+      <c r="V52" s="19" t="s">
         <v>321</v>
       </c>
       <c r="W52">
         <v>333</v>
       </c>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="53">
+      <c r="X52" s="21"/>
+      <c r="Y52" s="52">
         <v>1</v>
       </c>
       <c r="Z52">
@@ -7236,80 +6689,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:30">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:30" ht="15">
+      <c r="A53" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <v>25</v>
       </c>
-      <c r="C53" s="23">
-        <v>1</v>
-      </c>
-      <c r="D53" s="22" t="s">
+      <c r="C53" s="22">
+        <v>1</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>25</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="36">
         <f t="array" ref="K53">INDEX(Sheet2!$H$2:$I$21,MATCH(G53,Sheet2!$I$2:I52,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="37">
         <v>2</v>
       </c>
-      <c r="M53" s="39" t="str">
+      <c r="M53" s="38" t="str">
         <f t="array" ref="M53">INDEX(Sheet2!$E$2:$F$21,MATCH(G53,Sheet2!$F$2:F67,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N53" s="22" t="s">
+      <c r="N53" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O53" s="23">
-        <v>1</v>
-      </c>
-      <c r="P53" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="23">
-        <v>1</v>
-      </c>
-      <c r="R53" s="23">
-        <v>1</v>
-      </c>
-      <c r="S53" s="22" t="s">
+      <c r="O53" s="22">
+        <v>1</v>
+      </c>
+      <c r="P53" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="22">
+        <v>1</v>
+      </c>
+      <c r="R53" s="22">
+        <v>1</v>
+      </c>
+      <c r="S53" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="T53" s="23">
-        <v>0</v>
-      </c>
-      <c r="U53" s="23">
-        <v>0</v>
-      </c>
-      <c r="V53" s="22" t="s">
+      <c r="T53" s="22">
+        <v>0</v>
+      </c>
+      <c r="U53" s="22">
+        <v>0</v>
+      </c>
+      <c r="V53" s="21" t="s">
         <v>321</v>
       </c>
       <c r="W53">
         <v>334</v>
       </c>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="53">
+      <c r="X53" s="21"/>
+      <c r="Y53" s="52">
         <v>1</v>
       </c>
       <c r="Z53">
@@ -7328,79 +6781,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:30">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:30" ht="15">
+      <c r="A54" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="22">
         <v>27</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="22">
         <v>2</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="I54" s="22" t="s">
+      <c r="I54" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>27</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="36">
         <v>29</v>
       </c>
-      <c r="L54" s="38" t="s">
+      <c r="L54" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M54" s="39" t="str">
+      <c r="M54" s="38" t="str">
         <f t="array" ref="M54">INDEX(Sheet2!$E$2:$F$21,MATCH(G54,Sheet2!$F$2:F70,0),1)</f>
         <v>.csv</v>
       </c>
-      <c r="N54" s="22" t="s">
+      <c r="N54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="23">
-        <v>0</v>
-      </c>
-      <c r="P54" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="23">
-        <v>1</v>
-      </c>
-      <c r="R54" s="23">
-        <v>1</v>
-      </c>
-      <c r="S54" s="22" t="s">
+      <c r="O54" s="22">
+        <v>0</v>
+      </c>
+      <c r="P54" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="22">
+        <v>1</v>
+      </c>
+      <c r="R54" s="22">
+        <v>1</v>
+      </c>
+      <c r="S54" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="T54" s="23">
-        <v>0</v>
-      </c>
-      <c r="U54" s="23">
-        <v>0</v>
-      </c>
-      <c r="V54" s="22" t="s">
+      <c r="T54" s="22">
+        <v>0</v>
+      </c>
+      <c r="U54" s="22">
+        <v>0</v>
+      </c>
+      <c r="V54" s="21" t="s">
         <v>326</v>
       </c>
       <c r="W54">
         <v>335</v>
       </c>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="53">
+      <c r="X54" s="21"/>
+      <c r="Y54" s="52">
         <v>1</v>
       </c>
       <c r="Z54">
@@ -7419,80 +6872,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:30">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:30" ht="15">
+      <c r="A55" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="22">
         <v>27</v>
       </c>
-      <c r="C55" s="23">
-        <v>1</v>
-      </c>
-      <c r="D55" s="22" t="s">
+      <c r="C55" s="22">
+        <v>1</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="I55" s="22" t="s">
+      <c r="I55" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>27</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="36">
         <f t="array" ref="K55">INDEX(Sheet2!$H$2:$I$21,MATCH(G55,Sheet2!$I$2:I56,0),1)</f>
         <v>3</v>
       </c>
-      <c r="L55" s="51">
+      <c r="L55" s="50">
         <v>2</v>
       </c>
-      <c r="M55" s="39" t="str">
+      <c r="M55" s="38" t="str">
         <f t="array" ref="M55">INDEX(Sheet2!$E$2:$F$21,MATCH(G55,Sheet2!$F$2:F71,0),1)</f>
         <v>.dat</v>
       </c>
-      <c r="N55" s="22" t="s">
+      <c r="N55" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O55" s="23">
-        <v>1</v>
-      </c>
-      <c r="P55" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="23">
-        <v>1</v>
-      </c>
-      <c r="R55" s="23">
-        <v>0</v>
-      </c>
-      <c r="S55" s="22" t="s">
+      <c r="O55" s="22">
+        <v>1</v>
+      </c>
+      <c r="P55" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>1</v>
+      </c>
+      <c r="R55" s="22">
+        <v>0</v>
+      </c>
+      <c r="S55" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="T55" s="23">
-        <v>0</v>
-      </c>
-      <c r="U55" s="23">
-        <v>0</v>
-      </c>
-      <c r="V55" s="22" t="s">
+      <c r="T55" s="22">
+        <v>0</v>
+      </c>
+      <c r="U55" s="22">
+        <v>0</v>
+      </c>
+      <c r="V55" s="21" t="s">
         <v>326</v>
       </c>
       <c r="W55">
         <v>336</v>
       </c>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="53">
+      <c r="X55" s="21"/>
+      <c r="Y55" s="52">
         <v>1</v>
       </c>
       <c r="Z55">
@@ -7516,28 +6969,26 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7142857142857" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="8.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="10.7142857142857" customWidth="1"/>
-    <col min="9" max="26" width="8.71428571428571" customWidth="1"/>
+    <col min="1" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>335</v>
@@ -7577,7 +7028,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1" spans="2:9">
+    <row r="2" spans="1:26" ht="12.75" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>339</v>
       </c>
@@ -7599,7 +7050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" spans="2:9">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>341</v>
       </c>
@@ -7621,7 +7072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="2:9">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>343</v>
       </c>
@@ -7643,7 +7094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" spans="2:9">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>345</v>
       </c>
@@ -7665,7 +7116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" spans="2:9">
+    <row r="6" spans="1:26" ht="12.75" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>347</v>
       </c>
@@ -7687,7 +7138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="2:9">
+    <row r="7" spans="1:26" ht="12.75" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>348</v>
       </c>
@@ -7709,7 +7160,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="2:9">
+    <row r="8" spans="1:26" ht="12.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>349</v>
       </c>
@@ -7731,7 +7182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="2:9">
+    <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>347</v>
       </c>
@@ -7753,7 +7204,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="2:9">
+    <row r="10" spans="1:26" ht="12.75" customHeight="1">
       <c r="B10" s="11">
         <v>2</v>
       </c>
@@ -7773,7 +7224,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="2:9">
+    <row r="11" spans="1:26" ht="12.75" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>350</v>
       </c>
@@ -7795,7 +7246,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" spans="2:9">
+    <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -7805,7 +7256,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="2:9">
+    <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -7815,7 +7266,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1" spans="2:9">
+    <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -7825,7 +7276,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="2:9">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -7835,7 +7286,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="2:9">
+    <row r="16" spans="1:26" ht="12.75" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -7845,7 +7296,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1" spans="2:9">
+    <row r="17" spans="2:9" ht="12.75" customHeight="1">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -7855,7 +7306,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1" spans="2:9">
+    <row r="18" spans="2:9" ht="12.75" customHeight="1">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -7865,7 +7316,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1" spans="2:9">
+    <row r="19" spans="2:9" ht="12.75" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -7875,7 +7326,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="2:9">
+    <row r="20" spans="2:9" ht="12.75" customHeight="1">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -7885,7 +7336,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="2:9">
+    <row r="21" spans="2:9" ht="12.75" customHeight="1">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -7895,21 +7346,37 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1" spans="3:3">
-      <c r="C25" s="14" t="s">
+    <row r="22" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="23" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="24" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="25" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C25" s="53" t="s">
         <v>351</v>
       </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="26" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="2:9" ht="12.75" customHeight="1">
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="30" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="31" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="32" spans="2:9" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -8884,7 +8351,6 @@
     <mergeCell ref="C25:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="1" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>